--- a/Code/Ergebnisse.xlsx
+++ b/Code/Ergebnisse.xlsx
@@ -96,8 +96,8 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -107,7 +107,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!A2:A263</c:f>
               <c:numCache>
@@ -898,8 +898,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!C2:C263</c:f>
               <c:numCache>
@@ -909,798 +909,799 @@
                   <c:v>1.088759781086738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.095279732385655</c:v>
+                  <c:v>1.093584814837097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.102030388514263</c:v>
+                  <c:v>1.098572750665171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.109017713806543</c:v>
+                  <c:v>1.103727223163851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.116247949693575</c:v>
+                  <c:v>1.109052012361073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.123727557003306</c:v>
+                  <c:v>1.114551046180408</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.131463295242008</c:v>
+                  <c:v>1.12022984923898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.139462211682945</c:v>
+                  <c:v>1.126092607895183</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.147731655717648</c:v>
+                  <c:v>1.132141836343792</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.156279294512922</c:v>
+                  <c:v>1.138382152344295</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.165113124823707</c:v>
+                  <c:v>1.144818350458418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.174241482563462</c:v>
+                  <c:v>1.151455408600174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.18367306833928</c:v>
+                  <c:v>1.158298494897393</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.193416950538418</c:v>
+                  <c:v>1.165352974880171</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.203482586450874</c:v>
+                  <c:v>1.172624419012605</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2138798424406</c:v>
+                  <c:v>1.18011861058506</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.224619010918403</c:v>
+                  <c:v>1.187841553985215</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.235710827615485</c:v>
+                  <c:v>1.195799483367159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.247166496442335</c:v>
+                  <c:v>1.203998871738885</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.258997705039765</c:v>
+                  <c:v>1.212446440489695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.271216653688325</c:v>
+                  <c:v>1.221149169380218</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.283836074367793</c:v>
+                  <c:v>1.230114307019048</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.296869256040051</c:v>
+                  <c:v>1.239349381851321</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.310330073119857</c:v>
+                  <c:v>1.248862213686005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.324233015993705</c:v>
+                  <c:v>1.258660925790162</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.338593218201491</c:v>
+                  <c:v>1.268753957579984</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.353426489042706</c:v>
+                  <c:v>1.279150077940133</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.368749343941888</c:v>
+                  <c:v>1.289858399204593</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.384579039745507</c:v>
+                  <c:v>1.300888391834132</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.400933614134984</c:v>
+                  <c:v>1.312249899827344</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.417831923544074</c:v>
+                  <c:v>1.323953156904346</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.435293686052156</c:v>
+                  <c:v>1.336008803504243</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.453339523560283</c:v>
+                  <c:v>1.348427904639778</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.471991007914604</c:v>
+                  <c:v>1.361221968654867</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.49127071080638</c:v>
+                  <c:v>1.374402966933177</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.51120225737294</c:v>
+                  <c:v>1.387983354608452</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.531810378154131</c:v>
+                  <c:v>1.401976092329957</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.553120968101684</c:v>
+                  <c:v>1.416394669139136</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.575161149465733</c:v>
+                  <c:v>1.431253126516508</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.597959338090414</c:v>
+                  <c:v>1.446566083660743</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.621545309296589</c:v>
+                  <c:v>1.462348764064983</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.645950272825786</c:v>
+                  <c:v>1.478617023458589</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.671206954005262</c:v>
+                  <c:v>1.495387379185825</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.697349671876425</c:v>
+                  <c:v>1.512677041096219</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.724414426979963</c:v>
+                  <c:v>1.53050394402483</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.752438994471323</c:v>
+                  <c:v>1.548886781944004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.781463022402205</c:v>
+                  <c:v>1.567845043871693</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.81152814007648</c:v>
+                  <c:v>1.587399051624856</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.842678067415572</c:v>
+                  <c:v>1.607569999509816</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.874958730340438</c:v>
+                  <c:v>1.628379996044833</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.908418387609618</c:v>
+                  <c:v>1.649852107813267</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.94310776386306</c:v>
+                  <c:v>1.672010405548757</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.979080188032228</c:v>
+                  <c:v>1.694880012556522</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.016391738351218</c:v>
+                  <c:v>1.718487155577293</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.055101409936841</c:v>
+                  <c:v>1.742859218202329</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.095271280148561</c:v>
+                  <c:v>1.768024796949308</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.136966687453016</c:v>
+                  <c:v>1.794013760109557</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.180256420746614</c:v>
+                  <c:v>1.82085738535373</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.225212913799035</c:v>
+                  <c:v>1.848588573519273</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.27191246679971</c:v>
+                  <c:v>1.87724145386806</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.320435472469756</c:v>
+                  <c:v>1.906851694383412</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.370866655850804</c:v>
+                  <c:v>1.937456578503782</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.423295329809181</c:v>
+                  <c:v>1.96909508313208</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.477815654647004</c:v>
+                  <c:v>2.001807960129618</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.534526928669538</c:v>
+                  <c:v>2.035637821359881</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.593533899540654</c:v>
+                  <c:v>2.070629227329926</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.654947081207095</c:v>
+                  <c:v>2.106828779455346</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.718883094420929</c:v>
+                  <c:v>2.144285215948039</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.785465020628629</c:v>
+                  <c:v>2.183049511293155</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.854822750922701</c:v>
+                  <c:v>2.223174979242041</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.927093434389144</c:v>
+                  <c:v>2.264717379200224</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.002421863940564</c:v>
+                  <c:v>2.307735025832413</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.080960929818196</c:v>
+                  <c:v>2.352288901638511</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.162872077536178</c:v>
+                  <c:v>2.398442772174049</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.248325790898514</c:v>
+                  <c:v>2.446263303493287</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.337502099998255</c:v>
+                  <c:v>2.495817795067988</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.430591105610523</c:v>
+                  <c:v>2.547175281427</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.527793540362426</c:v>
+                  <c:v>2.600420792416972</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.629321315588071</c:v>
+                  <c:v>2.655633421964231</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.735398135776507</c:v>
+                  <c:v>2.712895728890921</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.846260067095101</c:v>
+                  <c:v>2.772293847805823</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.962156196898732</c:v>
+                  <c:v>2.833917594533652</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.083349206142973</c:v>
+                  <c:v>2.897860564008051</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.210116066438312</c:v>
+                  <c:v>2.964220218179712</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.342748590996639</c:v>
+                  <c:v>3.033097961062369</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.481554122465304</c:v>
+                  <c:v>3.104599197548455</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.626856079465976</c:v>
+                  <c:v>3.178833372066047</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.778994550199625</c:v>
+                  <c:v>3.255913982511411</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.938326815415335</c:v>
+                  <c:v>3.335958564168708</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.105227837209573</c:v>
+                  <c:v>3.419088637512161</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.280090583538517</c:v>
+                  <c:v>3.505429612867541</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.463326381122455</c:v>
+                  <c:v>3.595110643881343</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.65536498908538</c:v>
+                  <c:v>3.688264420600279</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.856654658937935</c:v>
+                  <c:v>3.785026891694976</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.067661840845456</c:v>
+                  <c:v>3.885536903966206</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.288870782317339</c:v>
+                  <c:v>3.989935745749559</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.520782717862137</c:v>
+                  <c:v>4.098366579189121</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.763914778740762</c:v>
+                  <c:v>4.210973744593279</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.018798441070265</c:v>
+                  <c:v>4.327901918234248</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.285977437582105</c:v>
+                  <c:v>4.449295103038065</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.566005214776831</c:v>
+                  <c:v>4.575240936014294</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.859441471211897</c:v>
+                  <c:v>4.705878748340785</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.166848246083244</c:v>
+                  <c:v>4.841425417767979</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.488784622936468</c:v>
+                  <c:v>4.982001240599421</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.82580099664303</c:v>
+                  <c:v>5.127716577985923</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>9.178431451867594</c:v>
+                  <c:v>5.278669228142823</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9.547185620240347</c:v>
+                  <c:v>5.434941439093137</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9.932538218553207</c:v>
+                  <c:v>5.5965965345861</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>10.33491785316011</c:v>
+                  <c:v>5.763675128702411</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>10.754693248273</c:v>
+                  <c:v>5.936190909314399</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>11.19215800523552</c:v>
+                  <c:v>6.114125977452006</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>11.64751351591804</c:v>
+                  <c:v>6.297425739210643</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>12.12084943067853</c:v>
+                  <c:v>6.485993359627009</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>12.61212241739728</c:v>
+                  <c:v>6.67968380445557</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>13.12113256161532</c:v>
+                  <c:v>6.87829751647565</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>13.64749826355736</c:v>
+                  <c:v>7.081573798240288</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>14.19062914324123</c:v>
+                  <c:v>7.289184003279788</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>14.74969817230027</c:v>
+                  <c:v>7.500724672687916</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>15.32361266677018</c:v>
+                  <c:v>7.715710793393482</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>15.91098600729705</c:v>
+                  <c:v>7.933569397423757</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>16.51010970152773</c:v>
+                  <c:v>8.153633766676414</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>17.11892859725878</c:v>
+                  <c:v>8.375138552980495</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>17.73501871062943</c:v>
+                  <c:v>8.597216165581733</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>18.35557147771896</c:v>
+                  <c:v>8.8188948137983</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>18.97738376379023</c:v>
+                  <c:v>9.039098616806863</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>19.59685821066885</c:v>
+                  <c:v>9.256643082377435</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>20.21001286230049</c:v>
+                  <c:v>9.470218911404737</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>20.81250486673865</c:v>
+                  <c:v>9.678447154508174</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>21.39966690248027</c:v>
+                  <c:v>9.879875909502466</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>21.96656015089236</c:v>
+                  <c:v>10.07299364276892</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>22.50804194563208</c:v>
+                  <c:v>10.25624929449361</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>23.0188497930542</c:v>
+                  <c:v>10.42807680149651</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>23.49369966175951</c:v>
+                  <c:v>10.58743159124006</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>24.24590599247279</c:v>
+                  <c:v>10.76304933047588</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>25.60014556884644</c:v>
+                  <c:v>10.9786277848058</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>27.55495943600128</c:v>
+                  <c:v>11.23586007802955</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>30.09076387428232</c:v>
+                  <c:v>11.53085346406009</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>33.16997883133953</c:v>
+                  <c:v>11.86079505217917</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>36.73798251194027</c:v>
+                  <c:v>12.21952291095612</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>40.72487497642844</c:v>
+                  <c:v>12.5996973331846</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>45.04795786312403</c:v>
+                  <c:v>12.99364234890671</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>49.61480878859625</c:v>
+                  <c:v>13.39348368090449</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>54.3267700668637</c:v>
+                  <c:v>13.7921844967927</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>59.08264986050688</c:v>
+                  <c:v>14.17889450932971</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>63.78242478611654</c:v>
+                  <c:v>14.5461309661319</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>68.33073686677407</c:v>
+                  <c:v>14.88737363675411</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>72.64000453361817</c:v>
+                  <c:v>15.19658257854086</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>76.63299745112246</c:v>
+                  <c:v>15.46828530113308</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>80.24477890301981</c:v>
+                  <c:v>15.69764377145326</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>83.42396551225256</c:v>
+                  <c:v>15.88192998719878</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>86.13330096382042</c:v>
+                  <c:v>16.01723750848065</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>88.34958549458092</c:v>
+                  <c:v>16.10251313791023</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>90.06303928242289</c:v>
+                  <c:v>16.13911082936665</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>91.2762015848341</c:v>
+                  <c:v>16.12875670722404</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>92.00248037671953</c:v>
+                  <c:v>16.07348579568926</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>92.26447075613196</c:v>
+                  <c:v>15.97557861490763</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>92.09215830956008</c:v>
+                  <c:v>15.8377743002371</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>91.52110437195873</c:v>
+                  <c:v>15.66355121646091</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>90.59070212389648</c:v>
+                  <c:v>15.45648277782996</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>89.34256725134372</c:v>
+                  <c:v>15.22094625877574</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>87.81910996893501</c:v>
+                  <c:v>14.9611159385768</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>86.06231687155207</c:v>
+                  <c:v>14.68093288572027</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>84.11275483152495</c:v>
+                  <c:v>14.38408385367369</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>82.00879475406806</c:v>
+                  <c:v>14.07396811069702</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>79.78604466994936</c:v>
+                  <c:v>13.75321677170699</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>77.47697231856833</c:v>
+                  <c:v>13.42620701102726</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>75.11069363061598</c:v>
+                  <c:v>13.09534191030288</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>72.71290073820907</c:v>
+                  <c:v>12.76278112265197</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>70.30590388758301</c:v>
+                  <c:v>12.43045179591623</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>67.90876094299009</c:v>
+                  <c:v>12.10006139675481</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>65.53747181639966</c:v>
+                  <c:v>11.77311179500744</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>63.20521541497229</c:v>
+                  <c:v>11.45091407075525</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>60.92261512403644</c:v>
+                  <c:v>11.1346036035641</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>58.69801352694848</c:v>
+                  <c:v>10.82515509196072</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>56.53774875183459</c:v>
+                  <c:v>10.52278686095016</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>54.44642170379706</c:v>
+                  <c:v>10.22864643361388</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>52.42714790757665</c:v>
+                  <c:v>9.94312406697567</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>50.48179129582552</c:v>
+                  <c:v>9.666275579353636</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>48.61117505985766</c:v>
+                  <c:v>9.398109317584982</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>46.81527038547112</c:v>
+                  <c:v>9.138592942010083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>45.09336254241222</c:v>
+                  <c:v>8.887659533909726</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>43.44419469795712</c:v>
+                  <c:v>8.645213061909036</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>41.86609116415946</c:v>
+                  <c:v>8.411133248743841</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>40.3570618497082</c:v>
+                  <c:v>8.185279882468352</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>38.91488930035442</c:v>
+                  <c:v>7.967496617155947</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>37.53720114689237</c:v>
+                  <c:v>7.757614307830536</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>36.22152842107896</c:v>
+                  <c:v>7.555437064786865</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>34.9653534716838</c:v>
+                  <c:v>7.36068571607991</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>33.76614735658336</c:v>
+                  <c:v>7.173141987785697</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>32.62139969845472</c:v>
+                  <c:v>6.992544768475271</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>31.52864093118502</c:v>
+                  <c:v>6.818637893759258</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>30.48545972655325</c:v>
+                  <c:v>6.651170897007393</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>29.48951532569225</c:v>
+                  <c:v>6.489899596579233</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>28.53854636110276</c:v>
+                  <c:v>6.334586542594655</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>27.63037647640671</c:v>
+                  <c:v>6.185001343605445</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>26.76291788736754</c:v>
+                  <c:v>6.040920891095936</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>25.93417295063808</c:v>
+                  <c:v>5.90212949754017</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>25.14223424173418</c:v>
+                  <c:v>5.768418961761686</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>24.385283716074</c:v>
+                  <c:v>5.639588573570538</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>23.66159098584879</c:v>
+                  <c:v>5.515439529262368</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>22.96951083569873</c:v>
+                  <c:v>5.395784467822282</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>22.30748062420884</c:v>
+                  <c:v>5.280442987774819</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>21.67401724005943</c:v>
+                  <c:v>5.169240286406158</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>21.06771385702734</c:v>
+                  <c:v>5.06200874629296</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>20.48723667521619</c:v>
+                  <c:v>4.958587726526934</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>19.93132157873145</c:v>
+                  <c:v>4.858823343699031</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>19.39877079490877</c:v>
+                  <c:v>4.762568246010935</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>18.88844974072931</c:v>
+                  <c:v>4.669681383337435</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>18.39928374086268</c:v>
+                  <c:v>4.580027775592914</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>17.93025499293944</c:v>
+                  <c:v>4.493478281349834</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>17.48039954290243</c:v>
+                  <c:v>4.409909368308726</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>17.04880445953934</c:v>
+                  <c:v>4.329202886919942</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>16.63460514563581</c:v>
+                  <c:v>4.251245848202343</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>16.23698266684058</c:v>
+                  <c:v>4.175930206585662</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>15.85516125857687</c:v>
+                  <c:v>4.103152648418512</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>15.4884059465236</c:v>
+                  <c:v>4.032814386626706</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>15.13602033975225</c:v>
+                  <c:v>3.964820961874481</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>14.79734449205505</c:v>
+                  <c:v>3.89908205046963</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>14.47175286417308</c:v>
+                  <c:v>3.835511279160844</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>14.15865241630641</c:v>
+                  <c:v>3.774026046897827</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>13.85748081782259</c:v>
+                  <c:v>3.714547353561052</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>13.56770473165632</c:v>
+                  <c:v>3.656999635615577</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>13.28881819531175</c:v>
+                  <c:v>3.601310608600518</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>13.02034110766004</c:v>
+                  <c:v>3.547411116331901</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>12.76181779727224</c:v>
+                  <c:v>3.495237813106355</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>12.51281567728153</c:v>
+                  <c:v>3.444723933078925</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>12.27292395721189</c:v>
+                  <c:v>3.39580865114148</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>12.04175244763189</c:v>
+                  <c:v>3.348434048008587</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>11.8189304299716</c:v>
+                  <c:v>3.302544667791082</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>11.60410558926418</c:v>
+                  <c:v>3.258087404166675</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>11.39694300706165</c:v>
+                  <c:v>3.215011391900847</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>11.19712421203896</c:v>
+                  <c:v>3.173267903505876</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>11.00434629346506</c:v>
+                  <c:v>3.132810250826838</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>10.81832105873466</c:v>
+                  <c:v>3.093593691345928</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>10.63877424169659</c:v>
+                  <c:v>3.055575339000174</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>10.46544475836756</c:v>
+                  <c:v>3.018714079311908</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>10.29808400234069</c:v>
+                  <c:v>2.982970488636738</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>10.13645518140109</c:v>
+                  <c:v>2.948306757339293</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>9.98033269580341</c:v>
+                  <c:v>2.914686616713213</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>9.82950154900664</c:v>
+                  <c:v>2.882075269468078</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>9.683756793115911</c:v>
+                  <c:v>2.85043932361264</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>9.542903006441467</c:v>
+                  <c:v>2.819746729570145</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>9.406753800050559</c:v>
+                  <c:v>2.789966720368281</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>9.27513135332333</c:v>
+                  <c:v>2.761069754752825</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>9.147865976495964</c:v>
+                  <c:v>2.733027463080596</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>9.024795697248544</c:v>
+                  <c:v>2.705812595853711</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>8.905765871163497</c:v>
+                  <c:v>2.679398974763388</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>8.790628813775461</c:v>
+                  <c:v>2.653761446117694</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>8.67924343813503</c:v>
+                  <c:v>2.628875836533469</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>8.571474939343817</c:v>
+                  <c:v>2.604718910778513</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>8.467194488488429</c:v>
+                  <c:v>2.581268331655511</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>8.3662789362052</c:v>
+                  <c:v>2.558502621824626</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>8.26861053675611</c:v>
+                  <c:v>2.536401127466728</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>8.174076685096999</c:v>
+                  <c:v>2.51494398369418</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>8.082569651351486</c:v>
+                  <c:v>2.494112081620797</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7.993986369105688</c:v>
+                  <c:v>2.473887037007109</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7.908228211282905</c:v>
+                  <c:v>2.454251160401308</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7.825200778412345</c:v>
+                  <c:v>2.435187428700465</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7.744813700946374</c:v>
+                  <c:v>2.416679458060385</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7.666980450239442</c:v>
+                  <c:v>2.39871147808632</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7.591618155483903</c:v>
+                  <c:v>2.381268307240227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:marker val="1"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="480"/>
+          <c:min val="220"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -1725,10 +1726,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
@@ -1758,11 +1757,5117 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temperatur-Kurbelwinkel Diagramm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Temperatur</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!A2:A263</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="262"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!D2:D263</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="262"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0469144603183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0952021906049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.144879352565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.195962782892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300.2484693182793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300.3028027996441</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.3589600910402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300.4164508526008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300.4753054788007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300.5355543641144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300.5972279030166</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300.6603564899818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300.7249705194845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300.7911003859996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300.8587764840014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300.9280292079646</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300.9988889523639</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>301.0713861116737</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>301.1455510803687</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>301.2214142529235</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>301.2990060238127</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>301.3783567875109</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>301.4594969384926</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>301.5424568712325</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>301.6272669802052</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>301.7139576598852</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>301.8025593047472</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>301.8931023092658</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>301.9856170679154</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>302.0801339751708</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>302.1766834255066</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>302.2752958133973</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>302.3760015333175</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>302.4788309797419</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>302.5838145471449</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>302.6909826300013</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>302.8003656227856</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>302.9119939199724</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>303.0258979160363</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>303.1421080054519</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>303.2606545826937</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>303.3815680422365</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>303.5048787785548</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>303.6306171861231</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>303.7588136594161</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>303.8894985929084</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>304.0227023810745</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>304.1584554183891</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>304.2967880993267</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>304.437730818362</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>304.5813139699695</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>304.7275679486239</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>304.8765231487997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>305.0282099649716</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>305.182658791614</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>305.3399000232017</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>305.4999767846822</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>305.6629686583703</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>305.8289135824617</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>305.9978491326338</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>306.1698128845641</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>306.3448424139299</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>306.5229752964086</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>306.7042491076778</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>306.8887014234148</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>307.076369819297</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>307.267291871002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>307.461505154207</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>307.6590472445895</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>307.8599557178269</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>308.0642681495968</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>308.2720221155764</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>308.4832551914431</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>308.6980049528746</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>308.916013625679</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>309.1368759436576</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>309.3617379167778</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>309.590573712329</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>309.823357497601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>310.0600634398833</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>310.3006657064655</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>310.5451384646371</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>310.7934558816879</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>311.0455921249072</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>311.3015213615848</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>311.5612177590102</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>311.8246554844731</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>312.0918087052629</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>312.3626515886693</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>312.637158301982</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>312.9153030124904</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>313.1970598874842</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>313.4824030942528</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>313.7713068000861</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>314.0637451722735</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>314.3596923781046</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>314.659122584869</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>314.9620099598563</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>315.2683286703561</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>315.5742942184917</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>315.8802157711766</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>316.1917746393318</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>316.508349778844</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>316.8293201456001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>317.1540646954869</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>317.481962384391</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>317.8123921681993</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>318.1447330027985</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>318.4783638440755</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>318.812663647917</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>319.1470113702097</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>319.4807859668405</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>319.8133663936961</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>320.1441316066632</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>320.4724605616287</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>320.7977322144794</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>321.1193255211019</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>321.4366194373832</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>321.7489929192098</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>322.0558249224687</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>322.3564944030466</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>322.6503803168302</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>322.9368616197064</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>323.2153172675619</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>323.4848774818756</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>323.7437095837121</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>323.9906704252475</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>324.2247186259801</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>324.4448128054084</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>324.6499165661559</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>324.8390277467416</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>325.0268224568944</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>326.1283059784138</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>328.8637453670465</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>333.2779406723466</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>339.2622655638208</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>346.755680541857</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>355.6130583872677</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>365.6680294335807</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>376.7542240143239</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>388.7052724630248</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>401.3807205474722</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>414.5263612838918</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>427.9781511524238</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>441.5890900402995</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>455.2121778347506</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>468.7004144230084</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>481.9067996923043</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>494.7288741719951</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>507.0074518898757</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>518.651857233756</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>529.6320232617593</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>539.9178830320086</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>549.4793696026267</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>558.2864160317366</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>566.318773837153</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>573.579590012685</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>580.0761491368087</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>585.8495171676873</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>590.9407600634838</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>595.3909437823618</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>599.2411342824842</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>602.5315345287772</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>605.2804743346516</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>607.5951080115678</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>609.5108351920187</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>611.0630555084972</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>612.2871685934961</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>613.2185740795084</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>613.8926715990268</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>614.3448607845444</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>614.610541268554</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>614.7251126835484</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>614.6883199765576</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>614.5595892726511</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>614.3618100477445</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>614.1020012593676</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>613.7871818650507</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>613.4243708223235</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>613.020587088716</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>612.582849621758</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>612.1181773789796</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>611.6335893179105</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>611.1361043960809</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>610.6327415710207</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>610.12915842958</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>609.6245846393366</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>609.1230791864688</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>608.6250137474377</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>608.1307599987049</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>607.6406896167314</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>607.1551742779789</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>606.6745856589084</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>606.1992954359814</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>605.7296752856594</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>605.2660968844035</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>604.8089319086752</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>604.3585520349357</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>603.9147224658453</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>603.4776132137116</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>603.0473483092114</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>602.6238609173977</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>602.2070842033229</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>601.7969513320401</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>601.393395468602</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>600.9963497780614</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>600.605747425471</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>600.2215215758838</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>599.8436053943524</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>599.4719320459296</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>599.1064346956682</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>598.7470465086211</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>598.3937006498411</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>598.0463302843808</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>597.7048685772932</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>597.3692486936309</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>597.0394037984468</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>596.7152670567936</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>596.3967716337243</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>596.0838506942914</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>595.7764374035479</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>595.4744649265465</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>595.1778664283401</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>594.8870561316286</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>594.6013938911245</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>594.3207709625812</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>594.0451327999484</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>593.7744248571762</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>593.5085925882144</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>593.2475814470129</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>592.9913368875216</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>592.7398043636905</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>592.4929293294693</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>592.250657238808</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>592.0129335456566</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>591.7797037039646</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>591.5509131676824</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>591.3265073907596</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>591.1064318271461</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>590.8906319307919</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>590.6790531556468</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>590.4716409556607</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>590.2683407847836</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>590.0690980969654</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>589.8738583461558</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>589.6825669863047</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>589.4951694713621</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>589.3116112552781</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>589.1318377920022</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>588.9557945354845</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>588.7834269396749</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>588.6146804585233</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>588.4495005459795</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>588.2878326559934</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>588.129622242515</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>587.9748147594941</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>587.8233556608807</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>587.6751904006245</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>587.5302644326755</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>587.3885232109836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="480"/>
+          <c:min val="220"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Kurbelwinkel in °</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperatur in K</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>p-V-Diagramm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Druck</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!B2:B263</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="262"/>
+                <c:pt idx="0">
+                  <c:v>454.9384845735369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>453.0020688411092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>451.0178404944635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448.9858719852913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>446.9062461758243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>444.7790569342612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>442.6044097388335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>440.3824222897506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>438.1132251282135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>435.7969622616277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>433.4337917941004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>431.0238865612484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>428.5674347682892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>426.0646406303418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>423.5157250138036</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>420.920926077624</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>418.280499913244</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>415.5947211819234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>412.8638837481304</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>410.0883013076264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>407.2683080088377</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>404.4042590660646</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>401.4965313630503</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>398.545524045394</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>395.5516591002702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>392.5153819218948</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>389.4371618611553</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>386.3174927578167</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>383.1568934536983</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>379.9559082852276</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>376.7151075537643</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>373.435087972113</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>370.116473085649</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>366.7599136665037</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>363.3660880792923</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>359.9357026168915</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>356.4694918048208</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>352.9682186728278</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>349.4326749923337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>345.8636814784479</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>342.2620879553368</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>338.6287734837973</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>334.964646449961</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>331.2706446141488</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>327.5477351189685</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>323.7969144558572</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>320.0192083893523</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>316.2156718384867</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>312.3873887148046</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>308.5354717165984</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>304.6610620790851</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>300.7653292803428</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>296.8494707029503</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>292.9147112513796</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>288.9623029253086</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>284.9935243491365</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281.009680258094</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>277.0121009414553</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>273.0021416434657</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>268.9811819227082</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>264.950624970735</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>260.9118968908913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>256.8664459383544</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>252.8157417225046</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>248.7612743728317</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>244.704553669659</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>240.6471081410551</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>236.5904841273563</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>232.5362448148089</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>228.485969239881</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>224.4412512658597</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>220.4036985333859</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>216.3749313866268</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>212.356581776814</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>208.3502921449035</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>204.3577142851373</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>200.3805081912936</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>196.4203408874305</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>192.4788852449206</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>188.5578187875755</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>184.6588224866492</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>180.7835795474954</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>176.9337741896296</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>173.1110904219308</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>169.3172108146806</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>165.5538152701106</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>161.8225797930893</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>158.1251752635391</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>154.4632662121366</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>150.8385096007949</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>147.252553609385</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>143.7070364301009</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>140.2035850708226</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>136.7438141687726</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>133.3293248157152</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>129.9617033958852</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>126.6425204377826</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>123.3733294809079</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>120.1556659584651</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>116.9910460969931</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>113.8809658338429</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>110.8268997533531</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>107.8303000425309</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104.8925954669868</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>102.0151903678276</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>99.19946368015324</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>96.44676797376539</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>93.75842851664086</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>91.1357423616824</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>88.57997745721445</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>86.09237178165456</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>83.67413250274423</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>81.32643516169593</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>79.05042288256821</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>76.84720560715456</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>74.71785935563842</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>72.66342551323461</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>70.6849101430177</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>68.78328332510246</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>66.95947852232982</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>65.2143919725788</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>63.54888210781604</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>61.96376899996756</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>60.45983383368911</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>59.03781840609101</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>57.69842465346358</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>56.44231420504</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>55.27010796381659</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>54.18238571445136</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>53.17968575824655</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>52.26250457521967</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>51.43129651326064</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>50.68647350437045</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>50.0284048079714</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>49.4574167812807</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>48.97379267673445</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>48.57777246645135</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>48.26955269372488</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>48.04928635153188</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>47.91708278805095</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>47.87300763918031</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>47.91708278805095</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>48.04928635153188</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>48.26955269372488</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>48.57777246645135</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>48.97379267673448</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>49.45741678128068</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>50.0284048079714</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>50.68647350437031</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>51.43129651326062</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>52.26250457521963</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>53.17968575824658</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>54.18238571445131</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>55.27010796381656</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>56.44231420504003</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>57.69842465346355</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>59.03781840609098</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>60.45983383368914</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>61.96376899996753</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>63.54888210781595</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>65.21439197257881</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>66.95947852232968</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>68.78328332510243</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>70.6849101430175</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>72.66342551323459</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>74.71785935563838</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>76.84720560715459</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>79.05042288256826</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>81.32643516169587</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>83.67413250274427</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>86.09237178165434</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>88.57997745721441</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>91.13574236168223</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>93.75842851664078</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>96.44676797376516</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>99.19946368015319</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>102.0151903678277</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>104.8925954669867</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>107.8303000425309</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>110.8268997533529</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>113.8809658338428</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>116.991046096993</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>120.1556659584651</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>123.3733294809078</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>126.6425204377825</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>129.9617033958849</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>133.329324815715</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>136.7438141687725</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>140.2035850708223</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>143.7070364301008</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>147.2525536093848</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>150.8385096007951</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>154.4632662121366</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>158.125175263539</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>161.8225797930889</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>165.5538152701106</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>169.3172108146806</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>173.1110904219307</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>176.9337741896295</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>180.7835795474953</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>184.6588224866493</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>188.5578187875752</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>192.4788852449205</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>196.4203408874305</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>200.3805081912935</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>204.3577142851372</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>208.3502921449036</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>212.3565817768141</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>216.3749313866266</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>220.4036985333858</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>224.4412512658594</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>228.4859692398809</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>232.5362448148088</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>236.5904841273564</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>240.647108141055</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>244.7045536696592</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>248.7612743728313</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>252.8157417225045</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>256.8664459383542</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>260.9118968908909</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>264.9506249707349</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>268.9811819227081</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>273.0021416434657</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>277.0121009414551</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>281.0096802580939</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>284.9935243491361</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>288.9623029253084</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>292.9147112513795</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>296.8494707029504</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>300.7653292803427</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>304.661062079085</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>308.5354717165985</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>312.3873887148044</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>316.2156718384866</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>320.0192083893519</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>323.7969144558571</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>327.5477351189684</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>331.2706446141489</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>334.9646464499609</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>338.628773483797</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>342.2620879553367</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>345.8636814784477</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>349.4326749923337</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>352.9682186728278</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>356.4694918048208</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>359.9357026168915</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>363.3660880792924</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>366.7599136665034</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>370.1164730856487</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>373.4350879721127</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>376.715107553764</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>379.9559082852275</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>383.1568934536982</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>386.3174927578165</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>389.4371618611554</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>392.5153819218946</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>395.5516591002701</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>398.545524045394</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>401.4965313630503</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>404.4042590660648</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>407.2683080088374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!C2:C263</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="262"/>
+                <c:pt idx="0">
+                  <c:v>1.088759781086738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.093584814837097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.098572750665171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.103727223163851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.109052012361073</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.114551046180408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.12022984923898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.126092607895183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.132141836343792</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.138382152344295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.144818350458418</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.151455408600174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.158298494897393</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.165352974880171</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.172624419012605</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.18011861058506</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.187841553985215</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.195799483367159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.203998871738885</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.212446440489695</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.221149169380218</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.230114307019048</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.239349381851321</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.248862213686005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.258660925790162</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.268753957579984</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.279150077940133</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.289858399204593</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.300888391834132</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.312249899827344</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.323953156904346</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.336008803504243</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.348427904639778</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.361221968654867</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.374402966933177</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.387983354608452</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.401976092329957</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.416394669139136</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.431253126516508</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.446566083660743</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.462348764064983</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.478617023458589</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.495387379185825</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.512677041096219</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.53050394402483</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.548886781944004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.567845043871693</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.587399051624856</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.607569999509816</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.628379996044833</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.649852107813267</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.672010405548757</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.694880012556522</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.718487155577293</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.742859218202329</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.768024796949308</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.794013760109557</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.82085738535373</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.848588573519273</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.87724145386806</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.906851694383412</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.937456578503782</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.96909508313208</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.001807960129618</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.035637821359881</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.070629227329926</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.106828779455346</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.144285215948039</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.183049511293155</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.223174979242041</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.264717379200224</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.307735025832413</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.352288901638511</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.398442772174049</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.446263303493287</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.495817795067988</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.547175281427</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.600420792416972</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.655633421964231</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.712895728890921</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.772293847805823</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.833917594533652</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.897860564008051</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.964220218179712</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.033097961062369</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.104599197548455</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.178833372066047</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.255913982511411</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.335958564168708</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.419088637512161</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.505429612867541</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.595110643881343</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.688264420600279</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.785026891694976</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.885536903966206</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.989935745749559</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.098366579189121</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.210973744593279</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.327901918234248</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.449295103038065</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.575240936014294</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.705878748340785</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.841425417767979</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.982001240599421</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.127716577985923</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.278669228142823</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.434941439093137</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.5965965345861</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.763675128702411</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.936190909314399</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.114125977452006</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.297425739210643</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.485993359627009</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.67968380445557</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.87829751647565</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.081573798240288</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.289184003279788</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.500724672687916</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.715710793393482</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.933569397423757</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8.153633766676414</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.375138552980495</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8.597216165581733</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.8188948137983</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.039098616806863</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.256643082377435</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.470218911404737</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.678447154508174</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9.879875909502466</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10.07299364276892</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10.25624929449361</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10.42807680149651</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>10.58743159124006</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>10.76304933047588</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>10.9786277848058</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>11.23586007802955</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>11.53085346406009</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>11.86079505217917</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>12.21952291095612</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>12.5996973331846</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>12.99364234890671</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>13.39348368090449</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>13.7921844967927</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.17889450932971</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.5461309661319</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.88737363675411</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>15.19658257854086</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>15.46828530113308</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>15.69764377145326</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>15.88192998719878</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>16.01723750848065</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>16.10251313791023</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>16.13911082936665</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>16.12875670722404</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>16.07348579568926</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.97557861490763</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.8377743002371</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.66355121646091</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.45648277782996</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.22094625877574</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>14.9611159385768</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>14.68093288572027</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>14.38408385367369</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>14.07396811069702</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13.75321677170699</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>13.42620701102726</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>13.09534191030288</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12.76278112265197</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>12.43045179591623</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>12.10006139675481</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>11.77311179500744</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>11.45091407075525</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>11.1346036035641</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>10.82515509196072</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>10.52278686095016</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>10.22864643361388</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>9.94312406697567</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>9.666275579353636</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>9.398109317584982</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9.138592942010083</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>8.887659533909726</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8.645213061909036</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>8.411133248743841</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>8.185279882468352</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.967496617155947</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.757614307830536</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.555437064786865</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.36068571607991</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.173141987785697</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.992544768475271</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.818637893759258</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.651170897007393</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.489899596579233</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.334586542594655</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.185001343605445</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.040920891095936</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.90212949754017</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5.768418961761686</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.639588573570538</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.515439529262368</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5.395784467822282</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5.280442987774819</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5.169240286406158</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5.06200874629296</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.958587726526934</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.858823343699031</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.762568246010935</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.669681383337435</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.580027775592914</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.493478281349834</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.409909368308726</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.329202886919942</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.251245848202343</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.175930206585662</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.103152648418512</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.032814386626706</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.964820961874481</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.89908205046963</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.835511279160844</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.774026046897827</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.714547353561052</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.656999635615577</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.601310608600518</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.547411116331901</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3.495237813106355</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.444723933078925</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.39580865114148</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3.348434048008587</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3.302544667791082</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3.258087404166675</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3.215011391900847</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.173267903505876</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3.132810250826838</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3.093593691345928</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3.055575339000174</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3.018714079311908</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.982970488636738</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.948306757339293</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.914686616713213</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.882075269468078</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.85043932361264</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.819746729570145</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.789966720368281</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.761069754752825</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.733027463080596</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.705812595853711</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.679398974763388</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.653761446117694</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.628875836533469</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.604718910778513</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.581268331655511</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.558502621824626</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2.536401127466728</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.51494398369418</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.494112081620797</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.473887037007109</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.454251160401308</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.435187428700465</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.416679458060385</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.39871147808632</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.381268307240227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="493.0919786835572"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hubvolumen in cm³</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Druck in bar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>T-V-Diagramm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Temperatur</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!B2:B263</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="262"/>
+                <c:pt idx="0">
+                  <c:v>454.9384845735369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>453.0020688411092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>451.0178404944635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448.9858719852913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>446.9062461758243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>444.7790569342612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>442.6044097388335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>440.3824222897506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>438.1132251282135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>435.7969622616277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>433.4337917941004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>431.0238865612484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>428.5674347682892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>426.0646406303418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>423.5157250138036</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>420.920926077624</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>418.280499913244</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>415.5947211819234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>412.8638837481304</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>410.0883013076264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>407.2683080088377</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>404.4042590660646</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>401.4965313630503</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>398.545524045394</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>395.5516591002702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>392.5153819218948</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>389.4371618611553</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>386.3174927578167</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>383.1568934536983</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>379.9559082852276</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>376.7151075537643</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>373.435087972113</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>370.116473085649</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>366.7599136665037</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>363.3660880792923</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>359.9357026168915</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>356.4694918048208</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>352.9682186728278</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>349.4326749923337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>345.8636814784479</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>342.2620879553368</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>338.6287734837973</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>334.964646449961</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>331.2706446141488</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>327.5477351189685</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>323.7969144558572</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>320.0192083893523</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>316.2156718384867</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>312.3873887148046</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>308.5354717165984</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>304.6610620790851</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>300.7653292803428</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>296.8494707029503</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>292.9147112513796</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>288.9623029253086</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>284.9935243491365</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281.009680258094</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>277.0121009414553</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>273.0021416434657</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>268.9811819227082</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>264.950624970735</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>260.9118968908913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>256.8664459383544</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>252.8157417225046</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>248.7612743728317</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>244.704553669659</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>240.6471081410551</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>236.5904841273563</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>232.5362448148089</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>228.485969239881</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>224.4412512658597</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>220.4036985333859</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>216.3749313866268</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>212.356581776814</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>208.3502921449035</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>204.3577142851373</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>200.3805081912936</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>196.4203408874305</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>192.4788852449206</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>188.5578187875755</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>184.6588224866492</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>180.7835795474954</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>176.9337741896296</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>173.1110904219308</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>169.3172108146806</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>165.5538152701106</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>161.8225797930893</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>158.1251752635391</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>154.4632662121366</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>150.8385096007949</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>147.252553609385</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>143.7070364301009</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>140.2035850708226</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>136.7438141687726</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>133.3293248157152</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>129.9617033958852</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>126.6425204377826</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>123.3733294809079</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>120.1556659584651</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>116.9910460969931</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>113.8809658338429</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>110.8268997533531</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>107.8303000425309</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104.8925954669868</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>102.0151903678276</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>99.19946368015324</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>96.44676797376539</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>93.75842851664086</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>91.1357423616824</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>88.57997745721445</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>86.09237178165456</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>83.67413250274423</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>81.32643516169593</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>79.05042288256821</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>76.84720560715456</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>74.71785935563842</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>72.66342551323461</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>70.6849101430177</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>68.78328332510246</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>66.95947852232982</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>65.2143919725788</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>63.54888210781604</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>61.96376899996756</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>60.45983383368911</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>59.03781840609101</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>57.69842465346358</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>56.44231420504</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>55.27010796381659</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>54.18238571445136</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>53.17968575824655</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>52.26250457521967</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>51.43129651326064</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>50.68647350437045</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>50.0284048079714</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>49.4574167812807</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>48.97379267673445</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>48.57777246645135</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>48.26955269372488</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>48.04928635153188</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>47.91708278805095</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>47.87300763918031</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>47.91708278805095</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>48.04928635153188</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>48.26955269372488</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>48.57777246645135</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>48.97379267673448</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>49.45741678128068</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>50.0284048079714</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>50.68647350437031</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>51.43129651326062</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>52.26250457521963</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>53.17968575824658</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>54.18238571445131</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>55.27010796381656</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>56.44231420504003</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>57.69842465346355</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>59.03781840609098</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>60.45983383368914</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>61.96376899996753</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>63.54888210781595</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>65.21439197257881</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>66.95947852232968</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>68.78328332510243</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>70.6849101430175</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>72.66342551323459</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>74.71785935563838</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>76.84720560715459</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>79.05042288256826</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>81.32643516169587</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>83.67413250274427</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>86.09237178165434</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>88.57997745721441</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>91.13574236168223</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>93.75842851664078</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>96.44676797376516</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>99.19946368015319</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>102.0151903678277</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>104.8925954669867</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>107.8303000425309</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>110.8268997533529</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>113.8809658338428</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>116.991046096993</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>120.1556659584651</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>123.3733294809078</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>126.6425204377825</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>129.9617033958849</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>133.329324815715</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>136.7438141687725</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>140.2035850708223</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>143.7070364301008</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>147.2525536093848</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>150.8385096007951</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>154.4632662121366</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>158.125175263539</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>161.8225797930889</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>165.5538152701106</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>169.3172108146806</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>173.1110904219307</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>176.9337741896295</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>180.7835795474953</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>184.6588224866493</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>188.5578187875752</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>192.4788852449205</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>196.4203408874305</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>200.3805081912935</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>204.3577142851372</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>208.3502921449036</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>212.3565817768141</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>216.3749313866266</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>220.4036985333858</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>224.4412512658594</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>228.4859692398809</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>232.5362448148088</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>236.5904841273564</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>240.647108141055</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>244.7045536696592</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>248.7612743728313</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>252.8157417225045</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>256.8664459383542</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>260.9118968908909</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>264.9506249707349</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>268.9811819227081</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>273.0021416434657</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>277.0121009414551</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>281.0096802580939</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>284.9935243491361</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>288.9623029253084</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>292.9147112513795</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>296.8494707029504</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>300.7653292803427</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>304.661062079085</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>308.5354717165985</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>312.3873887148044</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>316.2156718384866</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>320.0192083893519</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>323.7969144558571</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>327.5477351189684</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>331.2706446141489</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>334.9646464499609</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>338.628773483797</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>342.2620879553367</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>345.8636814784477</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>349.4326749923337</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>352.9682186728278</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>356.4694918048208</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>359.9357026168915</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>363.3660880792924</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>366.7599136665034</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>370.1164730856487</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>373.4350879721127</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>376.715107553764</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>379.9559082852275</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>383.1568934536982</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>386.3174927578165</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>389.4371618611554</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>392.5153819218946</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>395.5516591002701</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>398.545524045394</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>401.4965313630503</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>404.4042590660648</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>407.2683080088374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!D2:D263</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="262"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0469144603183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0952021906049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.144879352565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.195962782892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300.2484693182793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300.3028027996441</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.3589600910402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300.4164508526008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300.4753054788007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300.5355543641144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300.5972279030166</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300.6603564899818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300.7249705194845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300.7911003859996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300.8587764840014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300.9280292079646</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300.9988889523639</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>301.0713861116737</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>301.1455510803687</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>301.2214142529235</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>301.2990060238127</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>301.3783567875109</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>301.4594969384926</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>301.5424568712325</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>301.6272669802052</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>301.7139576598852</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>301.8025593047472</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>301.8931023092658</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>301.9856170679154</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>302.0801339751708</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>302.1766834255066</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>302.2752958133973</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>302.3760015333175</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>302.4788309797419</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>302.5838145471449</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>302.6909826300013</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>302.8003656227856</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>302.9119939199724</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>303.0258979160363</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>303.1421080054519</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>303.2606545826937</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>303.3815680422365</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>303.5048787785548</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>303.6306171861231</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>303.7588136594161</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>303.8894985929084</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>304.0227023810745</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>304.1584554183891</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>304.2967880993267</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>304.437730818362</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>304.5813139699695</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>304.7275679486239</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>304.8765231487997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>305.0282099649716</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>305.182658791614</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>305.3399000232017</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>305.4999767846822</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>305.6629686583703</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>305.8289135824617</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>305.9978491326338</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>306.1698128845641</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>306.3448424139299</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>306.5229752964086</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>306.7042491076778</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>306.8887014234148</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>307.076369819297</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>307.267291871002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>307.461505154207</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>307.6590472445895</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>307.8599557178269</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>308.0642681495968</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>308.2720221155764</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>308.4832551914431</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>308.6980049528746</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>308.916013625679</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>309.1368759436576</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>309.3617379167778</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>309.590573712329</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>309.823357497601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>310.0600634398833</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>310.3006657064655</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>310.5451384646371</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>310.7934558816879</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>311.0455921249072</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>311.3015213615848</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>311.5612177590102</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>311.8246554844731</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>312.0918087052629</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>312.3626515886693</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>312.637158301982</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>312.9153030124904</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>313.1970598874842</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>313.4824030942528</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>313.7713068000861</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>314.0637451722735</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>314.3596923781046</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>314.659122584869</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>314.9620099598563</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>315.2683286703561</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>315.5742942184917</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>315.8802157711766</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>316.1917746393318</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>316.508349778844</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>316.8293201456001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>317.1540646954869</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>317.481962384391</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>317.8123921681993</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>318.1447330027985</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>318.4783638440755</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>318.812663647917</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>319.1470113702097</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>319.4807859668405</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>319.8133663936961</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>320.1441316066632</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>320.4724605616287</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>320.7977322144794</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>321.1193255211019</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>321.4366194373832</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>321.7489929192098</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>322.0558249224687</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>322.3564944030466</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>322.6503803168302</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>322.9368616197064</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>323.2153172675619</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>323.4848774818756</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>323.7437095837121</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>323.9906704252475</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>324.2247186259801</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>324.4448128054084</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>324.6499165661559</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>324.8390277467416</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>325.0268224568944</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>326.1283059784138</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>328.8637453670465</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>333.2779406723466</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>339.2622655638208</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>346.755680541857</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>355.6130583872677</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>365.6680294335807</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>376.7542240143239</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>388.7052724630248</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>401.3807205474722</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>414.5263612838918</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>427.9781511524238</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>441.5890900402995</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>455.2121778347506</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>468.7004144230084</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>481.9067996923043</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>494.7288741719951</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>507.0074518898757</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>518.651857233756</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>529.6320232617593</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>539.9178830320086</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>549.4793696026267</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>558.2864160317366</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>566.318773837153</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>573.579590012685</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>580.0761491368087</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>585.8495171676873</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>590.9407600634838</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>595.3909437823618</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>599.2411342824842</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>602.5315345287772</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>605.2804743346516</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>607.5951080115678</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>609.5108351920187</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>611.0630555084972</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>612.2871685934961</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>613.2185740795084</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>613.8926715990268</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>614.3448607845444</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>614.610541268554</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>614.7251126835484</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>614.6883199765576</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>614.5595892726511</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>614.3618100477445</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>614.1020012593676</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>613.7871818650507</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>613.4243708223235</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>613.020587088716</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>612.582849621758</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>612.1181773789796</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>611.6335893179105</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>611.1361043960809</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>610.6327415710207</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>610.12915842958</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>609.6245846393366</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>609.1230791864688</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>608.6250137474377</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>608.1307599987049</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>607.6406896167314</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>607.1551742779789</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>606.6745856589084</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>606.1992954359814</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>605.7296752856594</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>605.2660968844035</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>604.8089319086752</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>604.3585520349357</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>603.9147224658453</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>603.4776132137116</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>603.0473483092114</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>602.6238609173977</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>602.2070842033229</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>601.7969513320401</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>601.393395468602</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>600.9963497780614</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>600.605747425471</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>600.2215215758838</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>599.8436053943524</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>599.4719320459296</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>599.1064346956682</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>598.7470465086211</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>598.3937006498411</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>598.0463302843808</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>597.7048685772932</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>597.3692486936309</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>597.0394037984468</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>596.7152670567936</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>596.3967716337243</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>596.0838506942914</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>595.7764374035479</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>595.4744649265465</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>595.1778664283401</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>594.8870561316286</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>594.6013938911245</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>594.3207709625812</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>594.0451327999484</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>593.7744248571762</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>593.5085925882144</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>593.2475814470129</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>592.9913368875216</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>592.7398043636905</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>592.4929293294693</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>592.250657238808</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>592.0129335456566</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>591.7797037039646</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>591.5509131676824</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>591.3265073907596</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>591.1064318271461</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>590.8906319307919</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>590.6790531556468</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>590.4716409556607</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>590.2683407847836</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>590.0690980969654</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>589.8738583461558</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>589.6825669863047</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>589.4951694713621</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>589.3116112552781</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>589.1318377920022</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>588.9557945354845</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>588.7834269396749</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>588.6146804585233</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>588.4495005459795</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>588.2878326559934</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>588.129622242515</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>587.9748147594941</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>587.8233556608807</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>587.6751904006245</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>587.5302644326755</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>587.3885232109836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50040001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="493.0919786835572"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hubvolumen in cm³</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50040002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperatur in bar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1785,10 +6890,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1802,6 +6907,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2137,10 +7332,10 @@
         <v>453.0020688411092</v>
       </c>
       <c r="C3">
-        <v>1.095279732385655</v>
+        <v>1.093584814837097</v>
       </c>
       <c r="D3">
-        <v>300.5119490637711</v>
+        <v>300.0469144603183</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2151,10 +7346,10 @@
         <v>451.0178404944635</v>
       </c>
       <c r="C4">
-        <v>1.102030388514263</v>
+        <v>1.098572750665171</v>
       </c>
       <c r="D4">
-        <v>301.0397190910987</v>
+        <v>300.0952021906049</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2165,10 +7360,10 @@
         <v>448.9858719852913</v>
       </c>
       <c r="C5">
-        <v>1.109017713806543</v>
+        <v>1.103727223163851</v>
       </c>
       <c r="D5">
-        <v>301.5835624278225</v>
+        <v>300.144879352565</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2179,10 +7374,10 @@
         <v>446.9062461758243</v>
       </c>
       <c r="C6">
-        <v>1.116247949693575</v>
+        <v>1.109052012361073</v>
       </c>
       <c r="D6">
-        <v>302.1437445925627</v>
+        <v>300.195962782892</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2193,10 +7388,10 @@
         <v>444.7790569342612</v>
       </c>
       <c r="C7">
-        <v>1.123727557003306</v>
+        <v>1.114551046180408</v>
       </c>
       <c r="D7">
-        <v>302.7205259707762</v>
+        <v>300.2484693182793</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2207,10 +7402,10 @@
         <v>442.6044097388335</v>
       </c>
       <c r="C8">
-        <v>1.131463295242008</v>
+        <v>1.12022984923898</v>
       </c>
       <c r="D8">
-        <v>303.3141806183118</v>
+        <v>300.3028027996441</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2221,10 +7416,10 @@
         <v>440.3824222897506</v>
       </c>
       <c r="C9">
-        <v>1.139462211682945</v>
+        <v>1.126092607895183</v>
       </c>
       <c r="D9">
-        <v>303.9249903290214</v>
+        <v>300.3589600910402</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2235,10 +7430,10 @@
         <v>438.1132251282135</v>
       </c>
       <c r="C10">
-        <v>1.147731655717648</v>
+        <v>1.132141836343792</v>
       </c>
       <c r="D10">
-        <v>304.5532454267256</v>
+        <v>300.4164508526008</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2249,10 +7444,10 @@
         <v>435.7969622616277</v>
       </c>
       <c r="C11">
-        <v>1.156279294512922</v>
+        <v>1.138382152344295</v>
       </c>
       <c r="D11">
-        <v>305.1992457208725</v>
+        <v>300.4753054788007</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2263,10 +7458,10 @@
         <v>433.4337917941004</v>
       </c>
       <c r="C12">
-        <v>1.165113124823707</v>
+        <v>1.144818350458418</v>
       </c>
       <c r="D12">
-        <v>305.8633002568357</v>
+        <v>300.5355543641144</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2277,10 +7472,10 @@
         <v>431.0238865612484</v>
       </c>
       <c r="C13">
-        <v>1.174241482563462</v>
+        <v>1.151455408600174</v>
       </c>
       <c r="D13">
-        <v>306.54572631381</v>
+        <v>300.5972279030166</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2291,10 +7486,10 @@
         <v>428.5674347682892</v>
       </c>
       <c r="C14">
-        <v>1.18367306833928</v>
+        <v>1.158298494897393</v>
       </c>
       <c r="D14">
-        <v>307.2468523979255</v>
+        <v>300.6603564899818</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2305,10 +7500,10 @@
         <v>426.0646406303418</v>
       </c>
       <c r="C15">
-        <v>1.193416950538418</v>
+        <v>1.165352974880171</v>
       </c>
       <c r="D15">
-        <v>307.9670151483693</v>
+        <v>300.7249705194845</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2319,10 +7514,10 @@
         <v>423.5157250138036</v>
       </c>
       <c r="C16">
-        <v>1.203482586450874</v>
+        <v>1.172624419012605</v>
       </c>
       <c r="D16">
-        <v>308.7065607748153</v>
+        <v>300.7911003859996</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2333,10 +7528,10 @@
         <v>420.920926077624</v>
       </c>
       <c r="C17">
-        <v>1.2138798424406</v>
+        <v>1.18011861058506</v>
       </c>
       <c r="D17">
-        <v>309.4658459917136</v>
+        <v>300.8587764840014</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2347,10 +7542,10 @@
         <v>418.280499913244</v>
       </c>
       <c r="C18">
-        <v>1.224619010918403</v>
+        <v>1.187841553985215</v>
       </c>
       <c r="D18">
-        <v>310.2452378853797</v>
+        <v>300.9280292079646</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2361,10 +7556,10 @@
         <v>415.5947211819234</v>
       </c>
       <c r="C19">
-        <v>1.235710827615485</v>
+        <v>1.195799483367159</v>
       </c>
       <c r="D19">
-        <v>311.0451136266832</v>
+        <v>300.9988889523639</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2375,10 +7570,10 @@
         <v>412.8638837481304</v>
       </c>
       <c r="C20">
-        <v>1.247166496442335</v>
+        <v>1.203998871738885</v>
       </c>
       <c r="D20">
-        <v>311.8658618455637</v>
+        <v>301.0713861116737</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2389,10 +7584,10 @@
         <v>410.0883013076264</v>
       </c>
       <c r="C21">
-        <v>1.258997705039765</v>
+        <v>1.212446440489695</v>
       </c>
       <c r="D21">
-        <v>312.7078813807133</v>
+        <v>301.1455510803687</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2403,10 +7598,10 @@
         <v>407.2683080088377</v>
       </c>
       <c r="C22">
-        <v>1.271216653688325</v>
+        <v>1.221149169380218</v>
       </c>
       <c r="D22">
-        <v>313.5715831016878</v>
+        <v>301.2214142529235</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2417,10 +7612,10 @@
         <v>404.4042590660646</v>
       </c>
       <c r="C23">
-        <v>1.283836074367793</v>
+        <v>1.230114307019048</v>
       </c>
       <c r="D23">
-        <v>314.4573889575448</v>
+        <v>301.2990060238127</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2431,10 +7626,10 @@
         <v>401.4965313630503</v>
       </c>
       <c r="C24">
-        <v>1.296869256040051</v>
+        <v>1.239349381851321</v>
       </c>
       <c r="D24">
-        <v>315.3657322761957</v>
+        <v>301.3783567875109</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2445,10 +7640,10 @@
         <v>398.545524045394</v>
       </c>
       <c r="C25">
-        <v>1.310330073119857</v>
+        <v>1.248862213686005</v>
       </c>
       <c r="D25">
-        <v>316.2970585043306</v>
+        <v>301.4594969384926</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2459,10 +7654,10 @@
         <v>395.5516591002702</v>
       </c>
       <c r="C26">
-        <v>1.324233015993705</v>
+        <v>1.258660925790162</v>
       </c>
       <c r="D26">
-        <v>317.2518260722711</v>
+        <v>301.5424568712325</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2473,10 +7668,10 @@
         <v>392.5153819218948</v>
       </c>
       <c r="C27">
-        <v>1.338593218201491</v>
+        <v>1.268753957579984</v>
       </c>
       <c r="D27">
-        <v>318.2305060742244</v>
+        <v>301.6272669802052</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2487,10 +7682,10 @@
         <v>389.4371618611553</v>
       </c>
       <c r="C28">
-        <v>1.353426489042706</v>
+        <v>1.279150077940133</v>
       </c>
       <c r="D28">
-        <v>319.2335828711962</v>
+        <v>301.7139576598852</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2501,10 +7696,10 @@
         <v>386.3174927578167</v>
       </c>
       <c r="C29">
-        <v>1.368749343941888</v>
+        <v>1.289858399204593</v>
       </c>
       <c r="D29">
-        <v>320.2615537512441</v>
+        <v>301.8025593047472</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2515,10 +7710,10 @@
         <v>383.1568934536983</v>
       </c>
       <c r="C30">
-        <v>1.384579039745507</v>
+        <v>1.300888391834132</v>
       </c>
       <c r="D30">
-        <v>321.3149293398039</v>
+        <v>301.8931023092658</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2529,10 +7724,10 @@
         <v>379.9559082852276</v>
       </c>
       <c r="C31">
-        <v>1.400933614134984</v>
+        <v>1.312249899827344</v>
       </c>
       <c r="D31">
-        <v>322.3942345062486</v>
+        <v>301.9856170679154</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2543,10 +7738,10 @@
         <v>376.7151075537643</v>
       </c>
       <c r="C32">
-        <v>1.417831923544074</v>
+        <v>1.323953156904346</v>
       </c>
       <c r="D32">
-        <v>323.500008429235</v>
+        <v>302.0801339751708</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2557,10 +7752,10 @@
         <v>373.435087972113</v>
       </c>
       <c r="C33">
-        <v>1.435293686052156</v>
+        <v>1.336008803504243</v>
       </c>
       <c r="D33">
-        <v>324.6328053042903</v>
+        <v>302.1766834255066</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2571,10 +7766,10 @@
         <v>370.116473085649</v>
       </c>
       <c r="C34">
-        <v>1.453339523560283</v>
+        <v>1.348427904639778</v>
       </c>
       <c r="D34">
-        <v>325.7931943486768</v>
+        <v>302.2752958133973</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2585,10 +7780,10 @@
         <v>366.7599136665037</v>
       </c>
       <c r="C35">
-        <v>1.471991007914604</v>
+        <v>1.361221968654867</v>
       </c>
       <c r="D35">
-        <v>326.9817601504403</v>
+        <v>302.3760015333175</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2599,10 +7794,10 @@
         <v>363.3660880792923</v>
       </c>
       <c r="C36">
-        <v>1.49127071080638</v>
+        <v>1.374402966933177</v>
       </c>
       <c r="D36">
-        <v>328.199103269961</v>
+        <v>302.4788309797419</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2613,10 +7808,10 @@
         <v>359.9357026168915</v>
       </c>
       <c r="C37">
-        <v>1.51120225737294</v>
+        <v>1.387983354608452</v>
       </c>
       <c r="D37">
-        <v>329.4458410253445</v>
+        <v>302.5838145471449</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2627,10 +7822,10 @@
         <v>356.4694918048208</v>
       </c>
       <c r="C38">
-        <v>1.531810378154131</v>
+        <v>1.401976092329957</v>
       </c>
       <c r="D38">
-        <v>330.722607256261</v>
+        <v>302.6909826300013</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2641,10 +7836,10 @@
         <v>352.9682186728278</v>
       </c>
       <c r="C39">
-        <v>1.553120968101684</v>
+        <v>1.416394669139136</v>
       </c>
       <c r="D39">
-        <v>332.0300529536993</v>
+        <v>302.8003656227856</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2655,10 +7850,10 @@
         <v>349.4326749923337</v>
       </c>
       <c r="C40">
-        <v>1.575161149465733</v>
+        <v>1.431253126516508</v>
       </c>
       <c r="D40">
-        <v>333.3688469846203</v>
+        <v>302.9119939199724</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2669,10 +7864,10 @@
         <v>345.8636814784479</v>
       </c>
       <c r="C41">
-        <v>1.597959338090414</v>
+        <v>1.446566083660743</v>
       </c>
       <c r="D41">
-        <v>334.7396767610966</v>
+        <v>303.0258979160363</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2683,10 +7878,10 @@
         <v>342.2620879553368</v>
       </c>
       <c r="C42">
-        <v>1.621545309296589</v>
+        <v>1.462348764064983</v>
       </c>
       <c r="D42">
-        <v>336.1432480170491</v>
+        <v>303.1421080054519</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2697,10 +7892,10 @@
         <v>338.6287734837973</v>
       </c>
       <c r="C43">
-        <v>1.645950272825786</v>
+        <v>1.478617023458589</v>
       </c>
       <c r="D43">
-        <v>337.5802856510876</v>
+        <v>303.2606545826937</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2711,10 +7906,10 @@
         <v>334.964646449961</v>
       </c>
       <c r="C44">
-        <v>1.671206954005262</v>
+        <v>1.495387379185825</v>
       </c>
       <c r="D44">
-        <v>339.0515349308708</v>
+        <v>303.3815680422365</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2725,10 +7920,10 @@
         <v>331.2706446141488</v>
       </c>
       <c r="C45">
-        <v>1.697349671876425</v>
+        <v>1.512677041096219</v>
       </c>
       <c r="D45">
-        <v>340.5577611162447</v>
+        <v>303.5048787785548</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2739,10 +7934,10 @@
         <v>327.5477351189685</v>
       </c>
       <c r="C46">
-        <v>1.724414426979963</v>
+        <v>1.53050394402483</v>
       </c>
       <c r="D46">
-        <v>342.0997500808051</v>
+        <v>303.6306171861231</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2753,10 +7948,10 @@
         <v>323.7969144558572</v>
       </c>
       <c r="C47">
-        <v>1.752438994471323</v>
+        <v>1.548886781944004</v>
       </c>
       <c r="D47">
-        <v>343.6783089484417</v>
+        <v>303.7588136594161</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2767,10 +7962,10 @@
         <v>320.0192083893523</v>
       </c>
       <c r="C48">
-        <v>1.781463022402205</v>
+        <v>1.567845043871693</v>
       </c>
       <c r="D48">
-        <v>345.2942666468746</v>
+        <v>303.8894985929084</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2781,10 +7976,10 @@
         <v>316.2156718384867</v>
       </c>
       <c r="C49">
-        <v>1.81152814007648</v>
+        <v>1.587399051624856</v>
       </c>
       <c r="D49">
-        <v>346.9484752568497</v>
+        <v>304.0227023810745</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2795,10 +7990,10 @@
         <v>312.3873887148046</v>
       </c>
       <c r="C50">
-        <v>1.842678067415572</v>
+        <v>1.607569999509816</v>
       </c>
       <c r="D50">
-        <v>348.6418103033532</v>
+        <v>304.1584554183891</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2809,10 +8004,10 @@
         <v>308.5354717165984</v>
       </c>
       <c r="C51">
-        <v>1.874958730340438</v>
+        <v>1.628379996044833</v>
       </c>
       <c r="D51">
-        <v>350.3751709350271</v>
+        <v>304.2967880993267</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2823,10 +8018,10 @@
         <v>304.6610620790851</v>
       </c>
       <c r="C52">
-        <v>1.908418387609618</v>
+        <v>1.649852107813267</v>
       </c>
       <c r="D52">
-        <v>352.1494809289096</v>
+        <v>304.437730818362</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2837,10 +8032,10 @@
         <v>300.7653292803428</v>
       </c>
       <c r="C53">
-        <v>1.94310776386306</v>
+        <v>1.672010405548757</v>
       </c>
       <c r="D53">
-        <v>353.9656894111367</v>
+        <v>304.5813139699695</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2851,10 +8046,10 @@
         <v>296.8494707029503</v>
       </c>
       <c r="C54">
-        <v>1.979080188032228</v>
+        <v>1.694880012556522</v>
       </c>
       <c r="D54">
-        <v>355.8247710790405</v>
+        <v>304.7275679486239</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2865,10 +8060,10 @@
         <v>292.9147112513796</v>
       </c>
       <c r="C55">
-        <v>2.016391738351218</v>
+        <v>1.718487155577293</v>
       </c>
       <c r="D55">
-        <v>357.7277260986975</v>
+        <v>304.8765231487997</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2879,10 +8074,10 @@
         <v>288.9623029253086</v>
       </c>
       <c r="C56">
-        <v>2.055101409936841</v>
+        <v>1.742859218202329</v>
       </c>
       <c r="D56">
-        <v>359.6755824122744</v>
+        <v>305.0282099649716</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2893,10 +8088,10 @@
         <v>284.9935243491365</v>
       </c>
       <c r="C57">
-        <v>2.095271280148561</v>
+        <v>1.768024796949308</v>
       </c>
       <c r="D57">
-        <v>361.6693958528118</v>
+        <v>305.182658791614</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2907,10 +8102,10 @@
         <v>281.009680258094</v>
       </c>
       <c r="C58">
-        <v>2.136966687453016</v>
+        <v>1.794013760109557</v>
       </c>
       <c r="D58">
-        <v>363.7102508399765</v>
+        <v>305.3399000232017</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2921,10 +8116,10 @@
         <v>277.0121009414553</v>
       </c>
       <c r="C59">
-        <v>2.180256420746614</v>
+        <v>1.82085738535373</v>
       </c>
       <c r="D59">
-        <v>365.7992609856983</v>
+        <v>305.4999767846822</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2935,10 +8130,10 @@
         <v>273.0021416434657</v>
       </c>
       <c r="C60">
-        <v>2.225212913799035</v>
+        <v>1.848588573519273</v>
       </c>
       <c r="D60">
-        <v>367.9375686250632</v>
+        <v>305.6629686583703</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2949,10 +8144,10 @@
         <v>268.9811819227082</v>
       </c>
       <c r="C61">
-        <v>2.27191246679971</v>
+        <v>1.87724145386806</v>
       </c>
       <c r="D61">
-        <v>370.1263468501268</v>
+        <v>305.8289135824617</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2963,10 +8158,10 @@
         <v>264.950624970735</v>
       </c>
       <c r="C62">
-        <v>2.320435472469756</v>
+        <v>1.906851694383412</v>
       </c>
       <c r="D62">
-        <v>372.3668000601426</v>
+        <v>305.9978491326338</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2977,10 +8172,10 @@
         <v>260.9118968908913</v>
       </c>
       <c r="C63">
-        <v>2.370866655850804</v>
+        <v>1.937456578503782</v>
       </c>
       <c r="D63">
-        <v>374.6601644908429</v>
+        <v>306.1698128845641</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2991,10 +8186,10 @@
         <v>256.8664459383544</v>
       </c>
       <c r="C64">
-        <v>2.423295329809181</v>
+        <v>1.96909508313208</v>
       </c>
       <c r="D64">
-        <v>377.0077089177366</v>
+        <v>306.3448424139299</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3005,10 +8200,10 @@
         <v>252.8157417225046</v>
       </c>
       <c r="C65">
-        <v>2.477815654647004</v>
+        <v>2.001807960129618</v>
       </c>
       <c r="D65">
-        <v>379.4107336096513</v>
+        <v>306.5229752964086</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3019,10 +8214,10 @@
         <v>248.7612743728317</v>
       </c>
       <c r="C66">
-        <v>2.534526928669538</v>
+        <v>2.035637821359881</v>
       </c>
       <c r="D66">
-        <v>381.8705716429856</v>
+        <v>306.7042491076778</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3033,10 +8228,10 @@
         <v>244.704553669659</v>
       </c>
       <c r="C67">
-        <v>2.593533899540654</v>
+        <v>2.070629227329926</v>
       </c>
       <c r="D67">
-        <v>384.3885906865047</v>
+        <v>306.8887014234148</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3047,10 +8242,10 @@
         <v>240.6471081410551</v>
       </c>
       <c r="C68">
-        <v>2.654947081207095</v>
+        <v>2.106828779455346</v>
       </c>
       <c r="D68">
-        <v>386.9661928437183</v>
+        <v>307.076369819297</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3061,10 +8256,10 @@
         <v>236.5904841273563</v>
       </c>
       <c r="C69">
-        <v>2.718883094420929</v>
+        <v>2.144285215948039</v>
       </c>
       <c r="D69">
-        <v>389.6048152191396</v>
+        <v>307.267291871002</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3075,10 +8270,10 @@
         <v>232.5362448148089</v>
       </c>
       <c r="C70">
-        <v>2.785465020628629</v>
+        <v>2.183049511293155</v>
       </c>
       <c r="D70">
-        <v>392.305929557026</v>
+        <v>307.461505154207</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3089,10 +8284,10 @@
         <v>228.485969239881</v>
       </c>
       <c r="C71">
-        <v>2.854822750922701</v>
+        <v>2.223174979242041</v>
       </c>
       <c r="D71">
-        <v>395.0710384031507</v>
+        <v>307.6590472445895</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3103,10 +8298,10 @@
         <v>224.4412512658597</v>
       </c>
       <c r="C72">
-        <v>2.927093434389144</v>
+        <v>2.264717379200224</v>
       </c>
       <c r="D72">
-        <v>397.9016822890351</v>
+        <v>307.8599557178269</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3117,10 +8312,10 @@
         <v>220.4036985333859</v>
       </c>
       <c r="C73">
-        <v>3.002421863940564</v>
+        <v>2.307735025832413</v>
       </c>
       <c r="D73">
-        <v>400.7994348734069</v>
+        <v>308.0642681495968</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3131,10 +8326,10 @@
         <v>216.3749313866268</v>
       </c>
       <c r="C74">
-        <v>3.080960929818196</v>
+        <v>2.352288901638511</v>
       </c>
       <c r="D74">
-        <v>403.7659044484573</v>
+        <v>308.2720221155764</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3145,10 +8340,10 @@
         <v>212.356581776814</v>
       </c>
       <c r="C75">
-        <v>3.162872077536178</v>
+        <v>2.398442772174049</v>
       </c>
       <c r="D75">
-        <v>406.802732819876</v>
+        <v>308.4832551914431</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3159,10 +8354,10 @@
         <v>208.3502921449035</v>
       </c>
       <c r="C76">
-        <v>3.248325790898514</v>
+        <v>2.446263303493287</v>
       </c>
       <c r="D76">
-        <v>409.9115944123435</v>
+        <v>308.6980049528746</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3173,10 +8368,10 @@
         <v>204.3577142851373</v>
       </c>
       <c r="C77">
-        <v>3.337502099998255</v>
+        <v>2.495817795067988</v>
       </c>
       <c r="D77">
-        <v>413.0941955122601</v>
+        <v>308.916013625679</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3187,10 +8382,10 @@
         <v>200.3805081912936</v>
       </c>
       <c r="C78">
-        <v>3.430591105610523</v>
+        <v>2.547175281427</v>
       </c>
       <c r="D78">
-        <v>416.3522725591154</v>
+        <v>309.1368759436576</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3201,10 +8396,10 @@
         <v>196.4203408874305</v>
       </c>
       <c r="C79">
-        <v>3.527793540362426</v>
+        <v>2.600420792416972</v>
       </c>
       <c r="D79">
-        <v>419.6875920391828</v>
+        <v>309.3617379167778</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3215,10 +8410,10 @@
         <v>192.4788852449206</v>
       </c>
       <c r="C80">
-        <v>3.629321315588071</v>
+        <v>2.655633421964231</v>
       </c>
       <c r="D80">
-        <v>423.1019458431977</v>
+        <v>309.590573712329</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3229,10 +8424,10 @@
         <v>188.5578187875755</v>
       </c>
       <c r="C81">
-        <v>3.735398135776507</v>
+        <v>2.712895728890921</v>
       </c>
       <c r="D81">
-        <v>426.5971521469743</v>
+        <v>309.823357497601</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3243,10 +8438,10 @@
         <v>184.6588224866492</v>
       </c>
       <c r="C82">
-        <v>3.846260067095101</v>
+        <v>2.772293847805823</v>
       </c>
       <c r="D82">
-        <v>430.1750484905044</v>
+        <v>310.0600634398833</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3257,10 +8452,10 @@
         <v>180.7835795474954</v>
       </c>
       <c r="C83">
-        <v>3.962156196898732</v>
+        <v>2.833917594533652</v>
       </c>
       <c r="D83">
-        <v>433.8374933350852</v>
+        <v>310.3006657064655</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3271,10 +8466,10 @@
         <v>176.9337741896296</v>
       </c>
       <c r="C84">
-        <v>4.083349206142973</v>
+        <v>2.897860564008051</v>
       </c>
       <c r="D84">
-        <v>437.5863560761762</v>
+        <v>310.5451384646371</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3285,10 +8480,10 @@
         <v>173.1110904219308</v>
       </c>
       <c r="C85">
-        <v>4.210116066438312</v>
+        <v>2.964220218179712</v>
       </c>
       <c r="D85">
-        <v>441.4235197258383</v>
+        <v>310.7934558816879</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3299,10 +8494,10 @@
         <v>169.3172108146806</v>
       </c>
       <c r="C86">
-        <v>4.342748590996639</v>
+        <v>3.033097961062369</v>
       </c>
       <c r="D86">
-        <v>445.3508670926768</v>
+        <v>311.0455921249072</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3313,10 +8508,10 @@
         <v>165.5538152701106</v>
       </c>
       <c r="C87">
-        <v>4.481554122465304</v>
+        <v>3.104599197548455</v>
       </c>
       <c r="D87">
-        <v>449.3702818352148</v>
+        <v>311.3015213615848</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3327,10 +8522,10 @@
         <v>161.8225797930893</v>
       </c>
       <c r="C88">
-        <v>4.626856079465976</v>
+        <v>3.178833372066047</v>
       </c>
       <c r="D88">
-        <v>453.4836355946461</v>
+        <v>311.5612177590102</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3341,10 +8536,10 @@
         <v>158.1251752635391</v>
       </c>
       <c r="C89">
-        <v>4.778994550199625</v>
+        <v>3.255913982511411</v>
       </c>
       <c r="D89">
-        <v>457.6927821750124</v>
+        <v>311.8246554844731</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3355,10 +8550,10 @@
         <v>154.4632662121366</v>
       </c>
       <c r="C90">
-        <v>4.938326815415335</v>
+        <v>3.335958564168708</v>
       </c>
       <c r="D90">
-        <v>461.9995477026343</v>
+        <v>312.0918087052629</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3369,10 +8564,10 @@
         <v>150.8385096007949</v>
       </c>
       <c r="C91">
-        <v>5.105227837209573</v>
+        <v>3.419088637512161</v>
       </c>
       <c r="D91">
-        <v>466.4057218930164</v>
+        <v>312.3626515886693</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3383,10 +8578,10 @@
         <v>147.252553609385</v>
       </c>
       <c r="C92">
-        <v>5.280090583538517</v>
+        <v>3.505429612867541</v>
       </c>
       <c r="D92">
-        <v>470.9130400322524</v>
+        <v>312.637158301982</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3397,10 +8592,10 @@
         <v>143.7070364301009</v>
       </c>
       <c r="C93">
-        <v>5.463326381122455</v>
+        <v>3.595110643881343</v>
       </c>
       <c r="D93">
-        <v>475.523175598122</v>
+        <v>312.9153030124904</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3411,10 +8606,10 @@
         <v>140.2035850708226</v>
       </c>
       <c r="C94">
-        <v>5.65536498908538</v>
+        <v>3.688264420600279</v>
       </c>
       <c r="D94">
-        <v>480.2377175777105</v>
+        <v>313.1970598874842</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3425,10 +8620,10 @@
         <v>136.7438141687726</v>
       </c>
       <c r="C95">
-        <v>5.856654658937935</v>
+        <v>3.785026891694976</v>
       </c>
       <c r="D95">
-        <v>485.0581591917972</v>
+        <v>313.4824030942528</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3439,10 +8634,10 @@
         <v>133.3293248157152</v>
       </c>
       <c r="C96">
-        <v>6.067661840845456</v>
+        <v>3.885536903966206</v>
       </c>
       <c r="D96">
-        <v>489.9858712137593</v>
+        <v>313.7713068000861</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3453,10 +8648,10 @@
         <v>129.9617033958852</v>
       </c>
       <c r="C97">
-        <v>6.288870782317339</v>
+        <v>3.989935745749559</v>
       </c>
       <c r="D97">
-        <v>495.0220847298434</v>
+        <v>314.0637451722735</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3467,10 +8662,10 @@
         <v>126.6425204377826</v>
       </c>
       <c r="C98">
-        <v>6.520782717862137</v>
+        <v>4.098366579189121</v>
       </c>
       <c r="D98">
-        <v>500.1678619137036</v>
+        <v>314.3596923781046</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3481,10 +8676,10 @@
         <v>123.3733294809079</v>
       </c>
       <c r="C99">
-        <v>6.763914778740762</v>
+        <v>4.210973744593279</v>
       </c>
       <c r="D99">
-        <v>505.4240702046844</v>
+        <v>314.659122584869</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3495,10 +8690,10 @@
         <v>120.1556659584651</v>
       </c>
       <c r="C100">
-        <v>7.018798441070265</v>
+        <v>4.327901918234248</v>
       </c>
       <c r="D100">
-        <v>510.7913502357113</v>
+        <v>314.9620099598563</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3509,10 +8704,10 @@
         <v>116.9910460969931</v>
       </c>
       <c r="C101">
-        <v>7.285977437582105</v>
+        <v>4.449295103038065</v>
       </c>
       <c r="D101">
-        <v>516.2700779069411</v>
+        <v>315.2683286703561</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3523,10 +8718,10 @@
         <v>113.8809658338429</v>
       </c>
       <c r="C102">
-        <v>7.566005214776831</v>
+        <v>4.575240936014294</v>
       </c>
       <c r="D102">
-        <v>521.860332406146</v>
+        <v>315.5742942184917</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3537,10 +8732,10 @@
         <v>110.8268997533531</v>
       </c>
       <c r="C103">
-        <v>7.859441471211897</v>
+        <v>4.705878748340785</v>
       </c>
       <c r="D103">
-        <v>527.5618435011072</v>
+        <v>315.8802157711766</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3551,10 +8746,10 @@
         <v>107.8303000425309</v>
       </c>
       <c r="C104">
-        <v>8.166848246083244</v>
+        <v>4.841425417767979</v>
       </c>
       <c r="D104">
-        <v>533.3739585581961</v>
+        <v>316.1917746393318</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3565,10 +8760,10 @@
         <v>104.8925954669868</v>
       </c>
       <c r="C105">
-        <v>8.488784622936468</v>
+        <v>4.982001240599421</v>
       </c>
       <c r="D105">
-        <v>539.2955727787781</v>
+        <v>316.508349778844</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3579,10 +8774,10 @@
         <v>102.0151903678276</v>
       </c>
       <c r="C106">
-        <v>8.82580099664303</v>
+        <v>5.127716577985923</v>
       </c>
       <c r="D106">
-        <v>545.3250948992775</v>
+        <v>316.8293201456001</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3593,10 +8788,10 @@
         <v>99.19946368015324</v>
       </c>
       <c r="C107">
-        <v>9.178431451867594</v>
+        <v>5.278669228142823</v>
       </c>
       <c r="D107">
-        <v>551.4603618216984</v>
+        <v>317.1540646954869</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3607,10 +8802,10 @@
         <v>96.44676797376539</v>
       </c>
       <c r="C108">
-        <v>9.547185620240347</v>
+        <v>5.434941439093137</v>
       </c>
       <c r="D108">
-        <v>557.6985989508106</v>
+        <v>317.481962384391</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3621,10 +8816,10 @@
         <v>93.75842851664086</v>
       </c>
       <c r="C109">
-        <v>9.932538218553207</v>
+        <v>5.5965965345861</v>
       </c>
       <c r="D109">
-        <v>564.0363231533028</v>
+        <v>317.8123921681993</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3635,10 +8830,10 @@
         <v>91.1357423616824</v>
       </c>
       <c r="C110">
-        <v>10.33491785316011</v>
+        <v>5.763675128702411</v>
       </c>
       <c r="D110">
-        <v>570.4692939103443</v>
+        <v>318.1447330027985</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3649,10 +8844,10 @@
         <v>88.57997745721445</v>
       </c>
       <c r="C111">
-        <v>10.754693248273</v>
+        <v>5.936190909314399</v>
       </c>
       <c r="D111">
-        <v>576.9924117468282</v>
+        <v>318.4783638440755</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3663,10 +8858,10 @@
         <v>86.09237178165456</v>
       </c>
       <c r="C112">
-        <v>11.19215800523552</v>
+        <v>6.114125977452006</v>
       </c>
       <c r="D112">
-        <v>583.5996377530483</v>
+        <v>318.812663647917</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3677,10 +8872,10 @@
         <v>83.67413250274423</v>
       </c>
       <c r="C113">
-        <v>11.64751351591804</v>
+        <v>6.297425739210643</v>
       </c>
       <c r="D113">
-        <v>590.2839163872875</v>
+        <v>319.1470113702097</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3691,10 +8886,10 @@
         <v>81.32643516169593</v>
       </c>
       <c r="C114">
-        <v>12.12084943067853</v>
+        <v>6.485993359627009</v>
       </c>
       <c r="D114">
-        <v>597.037074814643</v>
+        <v>319.4807859668405</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3705,10 +8900,10 @@
         <v>79.05042288256821</v>
       </c>
       <c r="C115">
-        <v>12.61212241739728</v>
+        <v>6.67968380445557</v>
       </c>
       <c r="D115">
-        <v>603.8497398614478</v>
+        <v>319.8133663936961</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3719,10 +8914,10 @@
         <v>76.84720560715456</v>
       </c>
       <c r="C116">
-        <v>13.12113256161532</v>
+        <v>6.87829751647565</v>
       </c>
       <c r="D116">
-        <v>610.711237711423</v>
+        <v>320.1441316066632</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3733,10 +8928,10 @@
         <v>74.71785935563842</v>
       </c>
       <c r="C117">
-        <v>13.64749826355736</v>
+        <v>7.081573798240288</v>
       </c>
       <c r="D117">
-        <v>617.609513597048</v>
+        <v>320.4724605616287</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3747,10 +8942,10 @@
         <v>72.66342551323461</v>
       </c>
       <c r="C118">
-        <v>14.19062914324123</v>
+        <v>7.289184003279788</v>
       </c>
       <c r="D118">
-        <v>624.5310374659438</v>
+        <v>320.7977322144794</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3761,10 +8956,10 @@
         <v>70.6849101430177</v>
       </c>
       <c r="C119">
-        <v>14.74969817230027</v>
+        <v>7.500724672687916</v>
       </c>
       <c r="D119">
-        <v>631.4607368505874</v>
+        <v>321.1193255211019</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3775,10 +8970,10 @@
         <v>68.78328332510246</v>
       </c>
       <c r="C120">
-        <v>15.32361266677018</v>
+        <v>7.715710793393482</v>
       </c>
       <c r="D120">
-        <v>638.3819177608306</v>
+        <v>321.4366194373832</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3789,10 +8984,10 @@
         <v>66.95947852232982</v>
       </c>
       <c r="C121">
-        <v>15.91098600729705</v>
+        <v>7.933569397423757</v>
       </c>
       <c r="D121">
-        <v>645.2762265950373</v>
+        <v>321.7489929192098</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3803,10 +8998,10 @@
         <v>65.2143919725788</v>
       </c>
       <c r="C122">
-        <v>16.51010970152773</v>
+        <v>8.153633766676414</v>
       </c>
       <c r="D122">
-        <v>652.1235993229255</v>
+        <v>322.0558249224687</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3817,10 +9012,10 @@
         <v>63.54888210781604</v>
       </c>
       <c r="C123">
-        <v>17.11892859725878</v>
+        <v>8.375138552980495</v>
       </c>
       <c r="D123">
-        <v>658.9022707671561</v>
+        <v>322.3564944030466</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3831,10 +9026,10 @@
         <v>61.96376899996756</v>
       </c>
       <c r="C124">
-        <v>17.73501871062943</v>
+        <v>8.597216165581733</v>
       </c>
       <c r="D124">
-        <v>665.5887698647265</v>
+        <v>322.6503803168302</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3845,10 +9040,10 @@
         <v>60.45983383368911</v>
       </c>
       <c r="C125">
-        <v>18.35557147771896</v>
+        <v>8.8188948137983</v>
       </c>
       <c r="D125">
-        <v>672.1579938765254</v>
+        <v>322.9368616197064</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3859,10 +9054,10 @@
         <v>59.03781840609101</v>
       </c>
       <c r="C126">
-        <v>18.97738376379023</v>
+        <v>9.039098616806863</v>
       </c>
       <c r="D126">
-        <v>678.5832718670509</v>
+        <v>323.2153172675619</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3873,10 +9068,10 @@
         <v>57.69842465346358</v>
       </c>
       <c r="C127">
-        <v>19.59685821066885</v>
+        <v>9.256643082377435</v>
       </c>
       <c r="D127">
-        <v>684.8365245254489</v>
+        <v>323.4848774818756</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3887,10 +9082,10 @@
         <v>56.44231420504</v>
       </c>
       <c r="C128">
-        <v>20.21001286230049</v>
+        <v>9.470218911404737</v>
       </c>
       <c r="D128">
-        <v>690.888415144902</v>
+        <v>323.7437095837121</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3901,10 +9096,10 @@
         <v>55.27010796381659</v>
       </c>
       <c r="C129">
-        <v>20.81250486673865</v>
+        <v>9.678447154508174</v>
       </c>
       <c r="D129">
-        <v>696.7086039068257</v>
+        <v>323.9906704252475</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3915,10 +9110,10 @@
         <v>54.18238571445136</v>
       </c>
       <c r="C130">
-        <v>21.39966690248027</v>
+        <v>9.879875909502466</v>
       </c>
       <c r="D130">
-        <v>702.2660045226992</v>
+        <v>324.2247186259801</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3929,10 +9124,10 @@
         <v>53.17968575824655</v>
       </c>
       <c r="C131">
-        <v>21.96656015089236</v>
+        <v>10.07299364276892</v>
       </c>
       <c r="D131">
-        <v>707.5291367081542</v>
+        <v>324.4448128054084</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3943,10 +9138,10 @@
         <v>52.26250457521967</v>
       </c>
       <c r="C132">
-        <v>22.50804194563208</v>
+        <v>10.25624929449361</v>
       </c>
       <c r="D132">
-        <v>712.4664904196616</v>
+        <v>324.6499165661559</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3957,10 +9152,10 @@
         <v>51.43129651326064</v>
       </c>
       <c r="C133">
-        <v>23.0188497930542</v>
+        <v>10.42807680149651</v>
       </c>
       <c r="D133">
-        <v>717.046961674749</v>
+        <v>324.8390277467416</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3971,10 +9166,10 @@
         <v>50.68647350437045</v>
       </c>
       <c r="C134">
-        <v>23.49369966175951</v>
+        <v>10.58743159124006</v>
       </c>
       <c r="D134">
-        <v>721.2403199975647</v>
+        <v>325.0268224568944</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3985,10 +9180,10 @@
         <v>50.0284048079714</v>
       </c>
       <c r="C135">
-        <v>24.24590599247279</v>
+        <v>10.76304933047588</v>
       </c>
       <c r="D135">
-        <v>734.668773267381</v>
+        <v>326.1283059784138</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3999,10 +9194,10 @@
         <v>49.4574167812807</v>
       </c>
       <c r="C136">
-        <v>25.60014556884644</v>
+        <v>10.9786277848058</v>
       </c>
       <c r="D136">
-        <v>766.849912278118</v>
+        <v>328.8637453670465</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4013,10 +9208,10 @@
         <v>48.97379267673445</v>
       </c>
       <c r="C137">
-        <v>27.55495943600128</v>
+        <v>11.23586007802955</v>
       </c>
       <c r="D137">
-        <v>817.334861093346</v>
+        <v>333.2779406723466</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4027,10 +9222,10 @@
         <v>48.57777246645135</v>
       </c>
       <c r="C138">
-        <v>30.09076387428232</v>
+        <v>11.53085346406009</v>
       </c>
       <c r="D138">
-        <v>885.3343558960171</v>
+        <v>339.2622655638208</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4041,10 +9236,10 @@
         <v>48.26955269372488</v>
       </c>
       <c r="C139">
-        <v>33.16997883133953</v>
+        <v>11.86079505217917</v>
       </c>
       <c r="D139">
-        <v>969.7392571594007</v>
+        <v>346.755680541857</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4055,10 +9250,10 @@
         <v>48.04928635153188</v>
       </c>
       <c r="C140">
-        <v>36.73798251194027</v>
+        <v>12.21952291095612</v>
       </c>
       <c r="D140">
-        <v>1069.150278226927</v>
+        <v>355.6130583872677</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4069,10 +9264,10 @@
         <v>47.91708278805095</v>
       </c>
       <c r="C141">
-        <v>40.72487497642844</v>
+        <v>12.5996973331846</v>
       </c>
       <c r="D141">
-        <v>1181.916072089932</v>
+        <v>365.6680294335807</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4083,10 +9278,10 @@
         <v>47.87300763918031</v>
       </c>
       <c r="C142">
-        <v>45.04795786312403</v>
+        <v>12.99364234890671</v>
       </c>
       <c r="D142">
-        <v>1306.177894728593</v>
+        <v>376.7542240143239</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4097,10 +9292,10 @@
         <v>47.91708278805095</v>
       </c>
       <c r="C143">
-        <v>49.61480878859625</v>
+        <v>13.39348368090449</v>
       </c>
       <c r="D143">
-        <v>1439.919458435462</v>
+        <v>388.7052724630248</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4111,10 +9306,10 @@
         <v>48.04928635153188</v>
       </c>
       <c r="C144">
-        <v>54.3267700668637</v>
+        <v>13.7921844967927</v>
       </c>
       <c r="D144">
-        <v>1581.019897139963</v>
+        <v>401.3807205474722</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4125,10 +9320,10 @@
         <v>48.26955269372488</v>
       </c>
       <c r="C145">
-        <v>59.08264986050688</v>
+        <v>14.17889450932971</v>
       </c>
       <c r="D145">
-        <v>1727.307855035587</v>
+        <v>414.5263612838918</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4139,10 +9334,10 @@
         <v>48.57777246645135</v>
       </c>
       <c r="C146">
-        <v>63.78242478611654</v>
+        <v>14.5461309661319</v>
       </c>
       <c r="D146">
-        <v>1876.614771277536</v>
+        <v>427.9781511524238</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4153,10 +9348,10 @@
         <v>48.97379267673448</v>
       </c>
       <c r="C147">
-        <v>68.33073686677407</v>
+        <v>14.88737363675411</v>
       </c>
       <c r="D147">
-        <v>2026.825459682676</v>
+        <v>441.5890900402995</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4167,10 +9362,10 @@
         <v>49.45741678128068</v>
       </c>
       <c r="C148">
-        <v>72.64000453361817</v>
+        <v>15.19658257854086</v>
       </c>
       <c r="D148">
-        <v>2175.924388972028</v>
+        <v>455.2121778347506</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4181,10 +9376,10 @@
         <v>50.0284048079714</v>
       </c>
       <c r="C149">
-        <v>76.63299745112246</v>
+        <v>15.46828530113308</v>
       </c>
       <c r="D149">
-        <v>2322.036151039145</v>
+        <v>468.7004144230084</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4195,10 +9390,10 @@
         <v>50.68647350437031</v>
       </c>
       <c r="C150">
-        <v>80.24477890301981</v>
+        <v>15.69764377145326</v>
       </c>
       <c r="D150">
-        <v>2463.459176178692</v>
+        <v>481.9067996923043</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4209,10 +9404,10 @@
         <v>51.43129651326062</v>
       </c>
       <c r="C151">
-        <v>83.42396551225256</v>
+        <v>15.88192998719878</v>
       </c>
       <c r="D151">
-        <v>2598.692008471671</v>
+        <v>494.7288741719951</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4223,10 +9418,10 @@
         <v>52.26250457521963</v>
       </c>
       <c r="C152">
-        <v>86.13330096382042</v>
+        <v>16.01723750848065</v>
       </c>
       <c r="D152">
-        <v>2726.451763071396</v>
+        <v>507.0074518898757</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4237,10 +9432,10 @@
         <v>53.17968575824658</v>
       </c>
       <c r="C153">
-        <v>88.34958549458092</v>
+        <v>16.10251313791023</v>
       </c>
       <c r="D153">
-        <v>2845.684782875063</v>
+        <v>518.651857233756</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4251,10 +9446,10 @@
         <v>54.18238571445131</v>
       </c>
       <c r="C154">
-        <v>90.06303928242289</v>
+        <v>16.13911082936665</v>
       </c>
       <c r="D154">
-        <v>2955.569871263152</v>
+        <v>529.6320232617593</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4265,10 +9460,10 @@
         <v>55.27010796381656</v>
       </c>
       <c r="C155">
-        <v>91.2762015848341</v>
+        <v>16.12875670722404</v>
       </c>
       <c r="D155">
-        <v>3055.514719793209</v>
+        <v>539.9178830320086</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4279,10 +9474,10 @@
         <v>56.44231420504003</v>
       </c>
       <c r="C156">
-        <v>92.00248037671953</v>
+        <v>16.07348579568926</v>
       </c>
       <c r="D156">
-        <v>3145.146333649405</v>
+        <v>549.4793696026267</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4293,10 +9488,10 @@
         <v>57.69842465346355</v>
       </c>
       <c r="C157">
-        <v>92.26447075613196</v>
+        <v>15.97557861490763</v>
       </c>
       <c r="D157">
-        <v>3224.296405604944</v>
+        <v>558.2864160317366</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4307,10 +9502,10 @@
         <v>59.03781840609098</v>
       </c>
       <c r="C158">
-        <v>92.09215830956008</v>
+        <v>15.8377743002371</v>
       </c>
       <c r="D158">
-        <v>3292.982788188003</v>
+        <v>566.318773837153</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4321,10 +9516,10 @@
         <v>60.45983383368914</v>
       </c>
       <c r="C159">
-        <v>91.52110437195873</v>
+        <v>15.66355121646091</v>
       </c>
       <c r="D159">
-        <v>3351.387996102017</v>
+        <v>573.579590012685</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4335,10 +9530,10 @@
         <v>61.96376899996753</v>
       </c>
       <c r="C160">
-        <v>90.59070212389648</v>
+        <v>15.45648277782996</v>
       </c>
       <c r="D160">
-        <v>3399.835938807765</v>
+        <v>580.0761491368087</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4349,10 +9544,10 @@
         <v>63.54888210781595</v>
       </c>
       <c r="C161">
-        <v>89.34256725134372</v>
+        <v>15.22094625877574</v>
       </c>
       <c r="D161">
-        <v>3438.767800427889</v>
+        <v>585.8495171676873</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4363,10 +9558,10 @@
         <v>65.21439197257881</v>
       </c>
       <c r="C162">
-        <v>87.81910996893501</v>
+        <v>14.9611159385768</v>
       </c>
       <c r="D162">
-        <v>3468.717962363294</v>
+        <v>590.9407600634838</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4377,10 +9572,10 @@
         <v>66.95947852232968</v>
       </c>
       <c r="C163">
-        <v>86.06231687155207</v>
+        <v>14.68093288572027</v>
       </c>
       <c r="D163">
-        <v>3490.290737320276</v>
+        <v>595.3909437823618</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4391,10 +9586,10 @@
         <v>68.78328332510243</v>
       </c>
       <c r="C164">
-        <v>84.11275483152495</v>
+        <v>14.38408385367369</v>
       </c>
       <c r="D164">
-        <v>3504.138541294334</v>
+        <v>599.2411342824842</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4405,10 +9600,10 @@
         <v>70.6849101430175</v>
       </c>
       <c r="C165">
-        <v>82.00879475406806</v>
+        <v>14.07396811069702</v>
       </c>
       <c r="D165">
-        <v>3510.94194326528</v>
+        <v>602.5315345287772</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4419,10 +9614,10 @@
         <v>72.66342551323459</v>
       </c>
       <c r="C166">
-        <v>79.78604466994936</v>
+        <v>13.75321677170699</v>
       </c>
       <c r="D166">
-        <v>3511.391972128331</v>
+        <v>605.2804743346516</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4433,10 +9628,10 @@
         <v>74.71785935563838</v>
       </c>
       <c r="C167">
-        <v>77.47697231856833</v>
+        <v>13.42620701102726</v>
       </c>
       <c r="D167">
-        <v>3506.174850845533</v>
+        <v>607.5951080115678</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4447,10 +9642,10 @@
         <v>76.84720560715459</v>
       </c>
       <c r="C168">
-        <v>75.11069363061598</v>
+        <v>13.09534191030288</v>
       </c>
       <c r="D168">
-        <v>3495.95924415155</v>
+        <v>609.5108351920187</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4461,10 +9656,10 @@
         <v>79.05042288256826</v>
       </c>
       <c r="C169">
-        <v>72.71290073820907</v>
+        <v>12.76278112265197</v>
       </c>
       <c r="D169">
-        <v>3481.385982645731</v>
+        <v>611.0630555084972</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4475,10 +9670,10 @@
         <v>81.32643516169587</v>
       </c>
       <c r="C170">
-        <v>70.30590388758301</v>
+        <v>12.43045179591623</v>
       </c>
       <c r="D170">
-        <v>3463.060195517351</v>
+        <v>612.2871685934961</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4489,10 +9684,10 @@
         <v>83.67413250274427</v>
       </c>
       <c r="C171">
-        <v>67.90876094299009</v>
+        <v>12.10006139675481</v>
       </c>
       <c r="D171">
-        <v>3441.545640763035</v>
+        <v>613.2185740795084</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4503,10 +9698,10 @@
         <v>86.09237178165434</v>
       </c>
       <c r="C172">
-        <v>65.53747181639966</v>
+        <v>11.77311179500744</v>
       </c>
       <c r="D172">
-        <v>3417.361048102582</v>
+        <v>613.8926715990268</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4517,10 +9712,10 @@
         <v>88.57997745721441</v>
       </c>
       <c r="C173">
-        <v>63.20521541497229</v>
+        <v>11.45091407075525</v>
       </c>
       <c r="D173">
-        <v>3390.978137207107</v>
+        <v>614.3448607845444</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4531,10 +9726,10 @@
         <v>91.13574236168223</v>
       </c>
       <c r="C174">
-        <v>60.92261512403644</v>
+        <v>11.1346036035641</v>
       </c>
       <c r="D174">
-        <v>3362.821236392681</v>
+        <v>614.610541268554</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4545,10 +9740,10 @@
         <v>93.75842851664078</v>
       </c>
       <c r="C175">
-        <v>58.69801352694848</v>
+        <v>10.82515509196072</v>
       </c>
       <c r="D175">
-        <v>3333.267992294257</v>
+        <v>614.7251126835484</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4559,10 +9754,10 @@
         <v>96.44676797376516</v>
       </c>
       <c r="C176">
-        <v>56.53774875183459</v>
+        <v>10.52278686095016</v>
       </c>
       <c r="D176">
-        <v>3302.651118449422</v>
+        <v>614.6883199765576</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4573,10 +9768,10 @@
         <v>99.19946368015319</v>
       </c>
       <c r="C177">
-        <v>54.44642170379706</v>
+        <v>10.22864643361388</v>
       </c>
       <c r="D177">
-        <v>3271.260843437828</v>
+        <v>614.5595892726511</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4587,10 +9782,10 @@
         <v>102.0151903678277</v>
       </c>
       <c r="C178">
-        <v>52.42714790757665</v>
+        <v>9.94312406697567</v>
       </c>
       <c r="D178">
-        <v>3239.347841501536</v>
+        <v>614.3618100477445</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4601,10 +9796,10 @@
         <v>104.8925954669867</v>
       </c>
       <c r="C179">
-        <v>50.48179129582552</v>
+        <v>9.666275579353636</v>
       </c>
       <c r="D179">
-        <v>3207.126551216859</v>
+        <v>614.1020012593676</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4615,10 +9810,10 @@
         <v>107.8303000425309</v>
       </c>
       <c r="C180">
-        <v>48.61117505985766</v>
+        <v>9.398109317584982</v>
       </c>
       <c r="D180">
-        <v>3174.778579273413</v>
+        <v>613.7871818650507</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4629,10 +9824,10 @@
         <v>110.8268997533529</v>
       </c>
       <c r="C181">
-        <v>46.81527038547112</v>
+        <v>9.138592942010083</v>
       </c>
       <c r="D181">
-        <v>3142.456170585051</v>
+        <v>613.4243708223235</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4643,10 +9838,10 @@
         <v>113.8809658338428</v>
       </c>
       <c r="C182">
-        <v>45.09336254241222</v>
+        <v>8.887659533909726</v>
       </c>
       <c r="D182">
-        <v>3110.285612774084</v>
+        <v>613.020587088716</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4657,10 +9852,10 @@
         <v>116.991046096993</v>
       </c>
       <c r="C183">
-        <v>43.44419469795712</v>
+        <v>8.645213061909036</v>
       </c>
       <c r="D183">
-        <v>3078.370468954101</v>
+        <v>612.582849621758</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4671,10 +9866,10 @@
         <v>120.1556659584651</v>
       </c>
       <c r="C184">
-        <v>41.86609116415946</v>
+        <v>8.411133248743841</v>
       </c>
       <c r="D184">
-        <v>3046.794606566807</v>
+        <v>612.1181773789796</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4685,10 +9880,10 @@
         <v>123.3733294809078</v>
       </c>
       <c r="C185">
-        <v>40.3570618497082</v>
+        <v>8.185279882468352</v>
       </c>
       <c r="D185">
-        <v>3015.624993634099</v>
+        <v>611.6335893179105</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4699,10 +9894,10 @@
         <v>126.6425204377825</v>
       </c>
       <c r="C186">
-        <v>38.91488930035442</v>
+        <v>7.967496617155947</v>
       </c>
       <c r="D186">
-        <v>2984.91420740792</v>
+        <v>611.1361043960809</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4713,10 +9908,10 @@
         <v>129.9617033958849</v>
       </c>
       <c r="C187">
-        <v>37.53720114689237</v>
+        <v>7.757614307830536</v>
       </c>
       <c r="D187">
-        <v>2954.70271370579</v>
+        <v>610.6327415710207</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4727,10 +9922,10 @@
         <v>133.329324815715</v>
       </c>
       <c r="C188">
-        <v>36.22152842107896</v>
+        <v>7.555437064786865</v>
       </c>
       <c r="D188">
-        <v>2925.020811249315</v>
+        <v>610.12915842958</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4741,10 +9936,10 @@
         <v>136.7438141687725</v>
       </c>
       <c r="C189">
-        <v>34.9653534716838</v>
+        <v>7.36068571607991</v>
       </c>
       <c r="D189">
-        <v>2895.890397871107</v>
+        <v>609.6245846393366</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4755,10 +9950,10 @@
         <v>140.2035850708223</v>
       </c>
       <c r="C190">
-        <v>33.76614735658336</v>
+        <v>7.173141987785697</v>
       </c>
       <c r="D190">
-        <v>2867.326435908908</v>
+        <v>609.1230791864688</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4769,10 +9964,10 @@
         <v>143.7070364301008</v>
       </c>
       <c r="C191">
-        <v>32.62139969845472</v>
+        <v>6.992544768475271</v>
       </c>
       <c r="D191">
-        <v>2839.338251996903</v>
+        <v>608.6250137474377</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4783,10 +9978,10 @@
         <v>147.2525536093848</v>
       </c>
       <c r="C192">
-        <v>31.52864093118502</v>
+        <v>6.818637893759258</v>
       </c>
       <c r="D192">
-        <v>2811.93057469093</v>
+        <v>608.1307599987049</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4797,10 +9992,10 @@
         <v>150.8385096007951</v>
       </c>
       <c r="C193">
-        <v>30.48545972655325</v>
+        <v>6.651170897007393</v>
       </c>
       <c r="D193">
-        <v>2785.104466321957</v>
+        <v>607.6406896167314</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4811,10 +10006,10 @@
         <v>154.4632662121366</v>
       </c>
       <c r="C194">
-        <v>29.48951532569225</v>
+        <v>6.489899596579233</v>
       </c>
       <c r="D194">
-        <v>2758.858060975429</v>
+        <v>607.1551742779789</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4825,10 +10020,10 @@
         <v>158.125175263539</v>
       </c>
       <c r="C195">
-        <v>28.53854636110276</v>
+        <v>6.334586542594655</v>
       </c>
       <c r="D195">
-        <v>2733.18718948907</v>
+        <v>606.6745856589084</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4839,10 +10034,10 @@
         <v>161.8225797930889</v>
       </c>
       <c r="C196">
-        <v>27.63037647640671</v>
+        <v>6.185001343605445</v>
       </c>
       <c r="D196">
-        <v>2708.085871306344</v>
+        <v>606.1992954359814</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4853,10 +10048,10 @@
         <v>165.5538152701106</v>
       </c>
       <c r="C197">
-        <v>26.76291788736754</v>
+        <v>6.040920891095936</v>
       </c>
       <c r="D197">
-        <v>2683.5467396215</v>
+        <v>605.7296752856594</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4867,10 +10062,10 @@
         <v>169.3172108146806</v>
       </c>
       <c r="C198">
-        <v>25.93417295063808</v>
+        <v>5.90212949754017</v>
       </c>
       <c r="D198">
-        <v>2659.561374297167</v>
+        <v>605.2660968844035</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4881,10 +10076,10 @@
         <v>173.1110904219307</v>
       </c>
       <c r="C199">
-        <v>25.14223424173418</v>
+        <v>5.768418961761686</v>
       </c>
       <c r="D199">
-        <v>2636.120562383172</v>
+        <v>604.8089319086752</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4895,10 +10090,10 @@
         <v>176.9337741896295</v>
       </c>
       <c r="C200">
-        <v>24.385283716074</v>
+        <v>5.639588573570538</v>
       </c>
       <c r="D200">
-        <v>2613.214521831154</v>
+        <v>604.3585520349357</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4909,10 +10104,10 @@
         <v>180.7835795474953</v>
       </c>
       <c r="C201">
-        <v>23.66159098584879</v>
+        <v>5.515439529262368</v>
       </c>
       <c r="D201">
-        <v>2590.833074590939</v>
+        <v>603.9147224658453</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4923,10 +10118,10 @@
         <v>184.6588224866493</v>
       </c>
       <c r="C202">
-        <v>22.96951083569873</v>
+        <v>5.395784467822282</v>
       </c>
       <c r="D202">
-        <v>2568.965765492935</v>
+        <v>603.4776132137116</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4937,10 +10132,10 @@
         <v>188.5578187875752</v>
       </c>
       <c r="C203">
-        <v>22.30748062420884</v>
+        <v>5.280442987774819</v>
       </c>
       <c r="D203">
-        <v>2547.601985104876</v>
+        <v>603.0473483092114</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4951,10 +10146,10 @@
         <v>192.4788852449205</v>
       </c>
       <c r="C204">
-        <v>21.67401724005943</v>
+        <v>5.169240286406158</v>
       </c>
       <c r="D204">
-        <v>2526.731052751183</v>
+        <v>602.6238609173977</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4965,10 +10160,10 @@
         <v>196.4203408874305</v>
       </c>
       <c r="C205">
-        <v>21.06771385702734</v>
+        <v>5.06200874629296</v>
       </c>
       <c r="D205">
-        <v>2506.342278045546</v>
+        <v>602.2070842033229</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4979,10 +10174,10 @@
         <v>200.3805081912935</v>
       </c>
       <c r="C206">
-        <v>20.48723667521619</v>
+        <v>4.958587726526934</v>
       </c>
       <c r="D206">
-        <v>2486.425017027697</v>
+        <v>601.7969513320401</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4993,10 +10188,10 @@
         <v>204.3577142851372</v>
       </c>
       <c r="C207">
-        <v>19.93132157873145</v>
+        <v>4.858823343699031</v>
       </c>
       <c r="D207">
-        <v>2466.968710841116</v>
+        <v>601.393395468602</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5007,10 +10202,10 @@
         <v>208.3502921449036</v>
       </c>
       <c r="C208">
-        <v>19.39877079490877</v>
+        <v>4.762568246010935</v>
       </c>
       <c r="D208">
-        <v>2447.962913221561</v>
+        <v>600.9963497780614</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5021,10 +10216,10 @@
         <v>212.3565817768141</v>
       </c>
       <c r="C209">
-        <v>18.88844974072931</v>
+        <v>4.669681383337435</v>
       </c>
       <c r="D209">
-        <v>2429.397327774688</v>
+        <v>600.605747425471</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5035,10 +10230,10 @@
         <v>216.3749313866266</v>
       </c>
       <c r="C210">
-        <v>18.39928374086268</v>
+        <v>4.580027775592914</v>
       </c>
       <c r="D210">
-        <v>2411.261814109271</v>
+        <v>600.2215215758838</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5049,10 +10244,10 @@
         <v>220.4036985333858</v>
       </c>
       <c r="C211">
-        <v>17.93025499293944</v>
+        <v>4.493478281349834</v>
       </c>
       <c r="D211">
-        <v>2393.546408190047</v>
+        <v>599.8436053943524</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5063,10 +10258,10 @@
         <v>224.4412512658594</v>
       </c>
       <c r="C212">
-        <v>17.48039954290243</v>
+        <v>4.409909368308726</v>
       </c>
       <c r="D212">
-        <v>2376.241326460045</v>
+        <v>599.4719320459296</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5077,10 +10272,10 @@
         <v>228.4859692398809</v>
       </c>
       <c r="C213">
-        <v>17.04880445953934</v>
+        <v>4.329202886919942</v>
       </c>
       <c r="D213">
-        <v>2359.336977816052</v>
+        <v>599.1064346956682</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5091,10 +10286,10 @@
         <v>232.5362448148088</v>
       </c>
       <c r="C214">
-        <v>16.63460514563581</v>
+        <v>4.251245848202343</v>
       </c>
       <c r="D214">
-        <v>2342.823975940641</v>
+        <v>598.7470465086211</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5105,10 +10300,10 @@
         <v>236.5904841273564</v>
       </c>
       <c r="C215">
-        <v>16.23698266684058</v>
+        <v>4.175930206585662</v>
       </c>
       <c r="D215">
-        <v>2326.693135358259</v>
+        <v>598.3937006498411</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5119,10 +10314,10 @@
         <v>240.647108141055</v>
       </c>
       <c r="C216">
-        <v>15.85516125857687</v>
+        <v>4.103152648418512</v>
       </c>
       <c r="D216">
-        <v>2310.935473096205</v>
+        <v>598.0463302843808</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5133,10 +10328,10 @@
         <v>244.7045536696592</v>
       </c>
       <c r="C217">
-        <v>15.4884059465236</v>
+        <v>4.032814386626706</v>
       </c>
       <c r="D217">
-        <v>2295.542207803467</v>
+        <v>597.7048685772932</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5147,10 +10342,10 @@
         <v>248.7612743728313</v>
       </c>
       <c r="C218">
-        <v>15.13602033975225</v>
+        <v>3.964820961874481</v>
       </c>
       <c r="D218">
-        <v>2280.504765666532</v>
+        <v>597.3692486936309</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5161,10 +10356,10 @@
         <v>252.8157417225045</v>
       </c>
       <c r="C219">
-        <v>14.79734449205505</v>
+        <v>3.89908205046963</v>
       </c>
       <c r="D219">
-        <v>2265.814778704819</v>
+        <v>597.0394037984468</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5175,10 +10370,10 @@
         <v>256.8664459383542</v>
       </c>
       <c r="C220">
-        <v>14.47175286417308</v>
+        <v>3.835511279160844</v>
       </c>
       <c r="D220">
-        <v>2251.464080432658</v>
+        <v>596.7152670567936</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5189,10 +10384,10 @@
         <v>260.9118968908909</v>
       </c>
       <c r="C221">
-        <v>14.15865241630641</v>
+        <v>3.774026046897827</v>
       </c>
       <c r="D221">
-        <v>2237.444704100576</v>
+        <v>596.3967716337243</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5203,10 +10398,10 @@
         <v>264.9506249707349</v>
       </c>
       <c r="C222">
-        <v>13.85748081782259</v>
+        <v>3.714547353561052</v>
       </c>
       <c r="D222">
-        <v>2223.748882590252</v>
+        <v>596.0838506942914</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5217,10 +10412,10 @@
         <v>268.9811819227081</v>
       </c>
       <c r="C223">
-        <v>13.56770473165632</v>
+        <v>3.656999635615577</v>
       </c>
       <c r="D223">
-        <v>2210.369044078073</v>
+        <v>595.7764374035479</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5231,10 +10426,10 @@
         <v>273.0021416434657</v>
       </c>
       <c r="C224">
-        <v>13.28881819531175</v>
+        <v>3.601310608600518</v>
       </c>
       <c r="D224">
-        <v>2197.297807487507</v>
+        <v>595.4744649265465</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5245,10 +10440,10 @@
         <v>277.0121009414551</v>
       </c>
       <c r="C225">
-        <v>13.02034110766004</v>
+        <v>3.547411116331901</v>
       </c>
       <c r="D225">
-        <v>2184.527980122974</v>
+        <v>595.1778664283401</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5259,10 +10454,10 @@
         <v>281.0096802580939</v>
       </c>
       <c r="C226">
-        <v>12.76181779727224</v>
+        <v>3.495237813106355</v>
       </c>
       <c r="D226">
-        <v>2172.052554432724</v>
+        <v>594.8870561316286</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5273,10 +10468,10 @@
         <v>284.9935243491361</v>
       </c>
       <c r="C227">
-        <v>12.51281567728153</v>
+        <v>3.444723933078925</v>
       </c>
       <c r="D227">
-        <v>2159.864705490129</v>
+        <v>594.6013938911245</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5287,10 +10482,10 @@
         <v>288.9623029253084</v>
       </c>
       <c r="C228">
-        <v>12.27292395721189</v>
+        <v>3.39580865114148</v>
       </c>
       <c r="D228">
-        <v>2147.95778488975</v>
+        <v>594.3207709625812</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5301,10 +10496,10 @@
         <v>292.9147112513795</v>
       </c>
       <c r="C229">
-        <v>12.04175244763189</v>
+        <v>3.348434048008587</v>
       </c>
       <c r="D229">
-        <v>2136.325317845785</v>
+        <v>594.0451327999484</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5315,10 +10510,10 @@
         <v>296.8494707029504</v>
       </c>
       <c r="C230">
-        <v>11.8189304299716</v>
+        <v>3.302544667791082</v>
       </c>
       <c r="D230">
-        <v>2124.960999597086</v>
+        <v>593.7744248571762</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5329,10 +10524,10 @@
         <v>300.7653292803427</v>
       </c>
       <c r="C231">
-        <v>11.60410558926418</v>
+        <v>3.258087404166675</v>
       </c>
       <c r="D231">
-        <v>2113.85869136643</v>
+        <v>593.5085925882144</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5343,10 +10538,10 @@
         <v>304.661062079085</v>
       </c>
       <c r="C232">
-        <v>11.39694300706165</v>
+        <v>3.215011391900847</v>
       </c>
       <c r="D232">
-        <v>2103.012416024837</v>
+        <v>593.2475814470129</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5357,10 +10552,10 @@
         <v>308.5354717165985</v>
       </c>
       <c r="C233">
-        <v>11.19712421203896</v>
+        <v>3.173267903505876</v>
       </c>
       <c r="D233">
-        <v>2092.416353645045</v>
+        <v>592.9913368875216</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5371,10 +10566,10 @@
         <v>312.3873887148044</v>
       </c>
       <c r="C234">
-        <v>11.00434629346506</v>
+        <v>3.132810250826838</v>
       </c>
       <c r="D234">
-        <v>2082.064838563796</v>
+        <v>592.7398043636905</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5385,10 +10580,10 @@
         <v>316.2156718384866</v>
       </c>
       <c r="C235">
-        <v>10.81832105873466</v>
+        <v>3.093593691345928</v>
       </c>
       <c r="D235">
-        <v>2071.952355103132</v>
+        <v>592.4929293294693</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5399,10 +10594,10 @@
         <v>320.0192083893519</v>
       </c>
       <c r="C236">
-        <v>10.63877424169659</v>
+        <v>3.055575339000174</v>
       </c>
       <c r="D236">
-        <v>2062.073533726654</v>
+        <v>592.250657238808</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5413,10 +10608,10 @@
         <v>323.7969144558571</v>
       </c>
       <c r="C237">
-        <v>10.46544475836756</v>
+        <v>3.018714079311908</v>
       </c>
       <c r="D237">
-        <v>2052.423147565352</v>
+        <v>592.0129335456566</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5427,10 +10622,10 @@
         <v>327.5477351189684</v>
       </c>
       <c r="C238">
-        <v>10.29808400234069</v>
+        <v>2.982970488636738</v>
       </c>
       <c r="D238">
-        <v>2042.99610835535</v>
+        <v>591.7797037039646</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5441,10 +10636,10 @@
         <v>331.2706446141489</v>
       </c>
       <c r="C239">
-        <v>10.13645518140109</v>
+        <v>2.948306757339293</v>
       </c>
       <c r="D239">
-        <v>2033.78746255441</v>
+        <v>591.5509131676824</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5455,10 +10650,10 @@
         <v>334.9646464499609</v>
       </c>
       <c r="C240">
-        <v>9.98033269580341</v>
+        <v>2.914686616713213</v>
       </c>
       <c r="D240">
-        <v>2024.792388233592</v>
+        <v>591.3265073907596</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5469,10 +10664,10 @@
         <v>338.628773483797</v>
       </c>
       <c r="C241">
-        <v>9.82950154900664</v>
+        <v>2.882075269468078</v>
       </c>
       <c r="D241">
-        <v>2016.006191380657</v>
+        <v>591.1064318271461</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5483,10 +10678,10 @@
         <v>342.2620879553367</v>
       </c>
       <c r="C242">
-        <v>9.683756793115911</v>
+        <v>2.85043932361264</v>
       </c>
       <c r="D242">
-        <v>2007.424302474279</v>
+        <v>590.8906319307919</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5497,10 +10692,10 @@
         <v>345.8636814784477</v>
       </c>
       <c r="C243">
-        <v>9.542903006441467</v>
+        <v>2.819746729570145</v>
       </c>
       <c r="D243">
-        <v>1999.042273225836</v>
+        <v>590.6790531556468</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5511,10 +10706,10 @@
         <v>349.4326749923337</v>
       </c>
       <c r="C244">
-        <v>9.406753800050559</v>
+        <v>2.789966720368281</v>
       </c>
       <c r="D244">
-        <v>1990.85577323609</v>
+        <v>590.4716409556607</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5525,10 +10720,10 @@
         <v>352.9682186728278</v>
       </c>
       <c r="C245">
-        <v>9.27513135332333</v>
+        <v>2.761069754752825</v>
       </c>
       <c r="D245">
-        <v>1982.860586938413</v>
+        <v>590.2683407847836</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5539,10 +10734,10 @@
         <v>356.4694918048208</v>
       </c>
       <c r="C246">
-        <v>9.147865976495964</v>
+        <v>2.733027463080596</v>
       </c>
       <c r="D246">
-        <v>1975.052610769798</v>
+        <v>590.0690980969654</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5553,10 +10748,10 @@
         <v>359.9357026168915</v>
       </c>
       <c r="C247">
-        <v>9.024795697248544</v>
+        <v>2.705812595853711</v>
       </c>
       <c r="D247">
-        <v>1967.427850280285</v>
+        <v>589.8738583461558</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5567,10 +10762,10 @@
         <v>363.3660880792924</v>
       </c>
       <c r="C248">
-        <v>8.905765871163497</v>
+        <v>2.679398974763388</v>
       </c>
       <c r="D248">
-        <v>1959.982417456314</v>
+        <v>589.6825669863047</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5581,10 +10776,10 @@
         <v>366.7599136665034</v>
       </c>
       <c r="C249">
-        <v>8.790628813775461</v>
+        <v>2.653761446117694</v>
       </c>
       <c r="D249">
-        <v>1952.712528067446</v>
+        <v>589.4951694713621</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5595,10 +10790,10 @@
         <v>370.1164730856487</v>
       </c>
       <c r="C250">
-        <v>8.67924343813503</v>
+        <v>2.628875836533469</v>
       </c>
       <c r="D250">
-        <v>1945.614495718705</v>
+        <v>589.3116112552781</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5609,10 +10804,10 @@
         <v>373.4350879721127</v>
       </c>
       <c r="C251">
-        <v>8.571474939343817</v>
+        <v>2.604718910778513</v>
       </c>
       <c r="D251">
-        <v>1938.684732048274</v>
+        <v>589.1318377920022</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5623,10 +10818,10 @@
         <v>376.715107553764</v>
       </c>
       <c r="C252">
-        <v>8.467194488488429</v>
+        <v>2.581268331655511</v>
       </c>
       <c r="D252">
-        <v>1931.919745149418</v>
+        <v>588.9557945354845</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5637,10 +10832,10 @@
         <v>379.9559082852275</v>
       </c>
       <c r="C253">
-        <v>8.3662789362052</v>
+        <v>2.558502621824626</v>
       </c>
       <c r="D253">
-        <v>1925.316136388843</v>
+        <v>588.7834269396749</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5651,10 +10846,10 @@
         <v>383.1568934536982</v>
       </c>
       <c r="C254">
-        <v>8.26861053675611</v>
+        <v>2.536401127466728</v>
       </c>
       <c r="D254">
-        <v>1918.870598275477</v>
+        <v>588.6146804585233</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5665,10 +10860,10 @@
         <v>386.3174927578165</v>
       </c>
       <c r="C255">
-        <v>8.174076685096999</v>
+        <v>2.51494398369418</v>
       </c>
       <c r="D255">
-        <v>1912.57991190104</v>
+        <v>588.4495005459795</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5679,10 +10874,10 @@
         <v>389.4371618611554</v>
       </c>
       <c r="C256">
-        <v>8.082569651351486</v>
+        <v>2.494112081620797</v>
       </c>
       <c r="D256">
-        <v>1906.440940454737</v>
+        <v>588.2878326559934</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5693,10 +10888,10 @@
         <v>392.5153819218946</v>
       </c>
       <c r="C257">
-        <v>7.993986369105688</v>
+        <v>2.473887037007109</v>
       </c>
       <c r="D257">
-        <v>1900.450632200969</v>
+        <v>588.129622242515</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5707,10 +10902,10 @@
         <v>395.5516591002701</v>
       </c>
       <c r="C258">
-        <v>7.908228211282905</v>
+        <v>2.454251160401308</v>
       </c>
       <c r="D258">
-        <v>1894.606017765741</v>
+        <v>587.9748147594941</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5721,10 +10916,10 @@
         <v>398.545524045394</v>
       </c>
       <c r="C259">
-        <v>7.825200778412345</v>
+        <v>2.435187428700465</v>
       </c>
       <c r="D259">
-        <v>1888.904207566962</v>
+        <v>587.8233556608807</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5735,10 +10930,10 @@
         <v>401.4965313630503</v>
       </c>
       <c r="C260">
-        <v>7.744813700946374</v>
+        <v>2.416679458060385</v>
       </c>
       <c r="D260">
-        <v>1883.34238996428</v>
+        <v>587.6751904006245</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5749,10 +10944,10 @@
         <v>404.4042590660648</v>
       </c>
       <c r="C261">
-        <v>7.666980450239442</v>
+        <v>2.39871147808632</v>
       </c>
       <c r="D261">
-        <v>1877.917829001706</v>
+        <v>587.5302644326755</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5763,10 +10958,10 @@
         <v>407.2683080088374</v>
       </c>
       <c r="C262">
-        <v>7.591618155483903</v>
+        <v>2.381268307240227</v>
       </c>
       <c r="D262">
-        <v>1872.627861200324</v>
+        <v>587.3885232109836</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Ergebnisse.xlsx
+++ b/Code/Ergebnisse.xlsx
@@ -906,787 +906,787 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="262"/>
                 <c:pt idx="0">
-                  <c:v>1.088759781086738</c:v>
+                  <c:v>1.131805852811387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.093584814837097</c:v>
+                  <c:v>1.13858357365794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.098572750665171</c:v>
+                  <c:v>1.145601122446795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.103727223163851</c:v>
+                  <c:v>1.152864696080841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.109052012361073</c:v>
+                  <c:v>1.160380782499228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.114551046180408</c:v>
+                  <c:v>1.168156117514515</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.12022984923898</c:v>
+                  <c:v>1.176197814064508</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.126092607895183</c:v>
+                  <c:v>1.184513022470934</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.132141836343792</c:v>
+                  <c:v>1.193109330595898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.138382152344295</c:v>
+                  <c:v>1.201994806129919</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.144818350458418</c:v>
+                  <c:v>1.211177824853032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.151455408600174</c:v>
+                  <c:v>1.220667083714742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.158298494897393</c:v>
+                  <c:v>1.230471614560357</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.165352974880171</c:v>
+                  <c:v>1.240600798538169</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.172624419012605</c:v>
+                  <c:v>1.25106455760744</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.18011861058506</c:v>
+                  <c:v>1.261872927016574</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.187841553985215</c:v>
+                  <c:v>1.273036578155952</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.195799483367159</c:v>
+                  <c:v>1.284566791931937</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.203998871738885</c:v>
+                  <c:v>1.296475291399642</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.212446440489695</c:v>
+                  <c:v>1.308774261787272</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.221149169380218</c:v>
+                  <c:v>1.321476371544523</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.230114307019048</c:v>
+                  <c:v>1.334594794472169</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.239349381851321</c:v>
+                  <c:v>1.348143478898653</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.248862213686005</c:v>
+                  <c:v>1.362136526849383</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.258660925790162</c:v>
+                  <c:v>1.376589003980651</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.268753957579984</c:v>
+                  <c:v>1.391516790428195</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.279150077940133</c:v>
+                  <c:v>1.406936414908088</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.289858399204593</c:v>
+                  <c:v>1.422865085777306</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.300888391834132</c:v>
+                  <c:v>1.439320723745581</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.312249899827344</c:v>
+                  <c:v>1.456321996333891</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.323953156904346</c:v>
+                  <c:v>1.473888702609466</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.336008803504243</c:v>
+                  <c:v>1.49204086812324</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.348427904639778</c:v>
+                  <c:v>1.510799981151336</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.361221968654867</c:v>
+                  <c:v>1.53018865750544</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.374402966933177</c:v>
+                  <c:v>1.550230483931912</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.387983354608452</c:v>
+                  <c:v>1.570950067023834</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.401976092329957</c:v>
+                  <c:v>1.592373084834139</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.416394669139136</c:v>
+                  <c:v>1.614526341349843</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.431253126516508</c:v>
+                  <c:v>1.637438088050375</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.446566083660743</c:v>
+                  <c:v>1.661137585471098</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.462348764064983</c:v>
+                  <c:v>1.685655923865699</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.478617023458589</c:v>
+                  <c:v>1.711025694278642</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.495387379185825</c:v>
+                  <c:v>1.737280965291931</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.512677041096219</c:v>
+                  <c:v>1.764457360868146</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.53050394402483</c:v>
+                  <c:v>1.792592357136777</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.548886781944004</c:v>
+                  <c:v>1.821724912775772</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.567845043871693</c:v>
+                  <c:v>1.851896276654722</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.587399051624856</c:v>
+                  <c:v>1.883149935763202</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.607569999509816</c:v>
+                  <c:v>1.915531431858396</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.628379996044833</c:v>
+                  <c:v>1.949088473181661</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.649852107813267</c:v>
+                  <c:v>1.983871220630879</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.672010405548757</c:v>
+                  <c:v>2.01993220025326</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.694880012556522</c:v>
+                  <c:v>2.057326654213542</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.718487155577293</c:v>
+                  <c:v>2.096113182319451</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.742859218202329</c:v>
+                  <c:v>2.136353268148161</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.768024796949308</c:v>
+                  <c:v>2.178111440105501</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.794013760109557</c:v>
+                  <c:v>2.221455499399404</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.82085738535373</c:v>
+                  <c:v>2.266457045685069</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.848588573519273</c:v>
+                  <c:v>2.3131907686725</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.87724145386806</c:v>
+                  <c:v>2.361736399964554</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.906851694383412</c:v>
+                  <c:v>2.412177747821465</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.937456578503782</c:v>
+                  <c:v>2.464602929352725</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.96909508313208</c:v>
+                  <c:v>2.519104616153244</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.001807960129618</c:v>
+                  <c:v>2.575780901529992</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.035637821359881</c:v>
+                  <c:v>2.634734201924398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.070629227329926</c:v>
+                  <c:v>2.696073789864805</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.106828779455346</c:v>
+                  <c:v>2.759914879743878</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.144285215948039</c:v>
+                  <c:v>2.826378803003764</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.183049511293155</c:v>
+                  <c:v>2.895593358506382</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.223174979242041</c:v>
+                  <c:v>2.967693684954792</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.264717379200224</c:v>
+                  <c:v>3.042821664667812</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.307735025832413</c:v>
+                  <c:v>3.12112797736693</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.352288901638511</c:v>
+                  <c:v>3.20277196773043</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.398442772174049</c:v>
+                  <c:v>3.287921634188096</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.446263303493287</c:v>
+                  <c:v>3.376754115138731</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.495817795067988</c:v>
+                  <c:v>3.469456465350064</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.547175281427</c:v>
+                  <c:v>3.566225995636471</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.600420792416972</c:v>
+                  <c:v>3.667271259239867</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.655633421964231</c:v>
+                  <c:v>3.772812905038477</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.712895728890921</c:v>
+                  <c:v>3.883083632162088</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.772293847805823</c:v>
+                  <c:v>3.998328822838485</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.833917594533652</c:v>
+                  <c:v>4.118807160212499</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.897860564008051</c:v>
+                  <c:v>4.24479167781305</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.964220218179712</c:v>
+                  <c:v>4.376570619467588</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.033097961062369</c:v>
+                  <c:v>4.514447190802144</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.104599197548455</c:v>
+                  <c:v>4.65874071865254</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.178833372066047</c:v>
+                  <c:v>4.809787353392366</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.255913982511411</c:v>
+                  <c:v>4.967940762620075</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.335958564168708</c:v>
+                  <c:v>5.133572527909143</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.419088637512161</c:v>
+                  <c:v>5.307072300255017</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.505429612867541</c:v>
+                  <c:v>5.488848383640804</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.595110643881343</c:v>
+                  <c:v>5.679328998389342</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.688264420600279</c:v>
+                  <c:v>5.878960300878581</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.785026891694976</c:v>
+                  <c:v>6.088208048649101</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.885536903966206</c:v>
+                  <c:v>6.307557813854077</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.989935745749559</c:v>
+                  <c:v>6.537513131477728</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.098366579189121</c:v>
+                  <c:v>6.778593927828243</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.210973744593279</c:v>
+                  <c:v>7.031337993590227</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.327901918234248</c:v>
+                  <c:v>7.29629991720865</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.449295103038065</c:v>
+                  <c:v>7.574042492381539</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.575240936014294</c:v>
+                  <c:v>7.865140527415551</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.705878748340785</c:v>
+                  <c:v>8.170178917026531</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.841425417767979</c:v>
+                  <c:v>8.489740823207301</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.982001240599421</c:v>
+                  <c:v>8.824404822494415</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.127716577985923</c:v>
+                  <c:v>9.174744097825913</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.278669228142823</c:v>
+                  <c:v>9.541319200911786</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.434941439093137</c:v>
+                  <c:v>9.92465272141704</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.5965965345861</c:v>
+                  <c:v>10.32523923793347</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.763675128702411</c:v>
+                  <c:v>10.74352911927241</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.936190909314399</c:v>
+                  <c:v>11.17990083995837</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6.114125977452006</c:v>
+                  <c:v>11.63466047379702</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6.297425739210643</c:v>
+                  <c:v>12.10802117003815</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>6.485993359627009</c:v>
+                  <c:v>12.6000697969089</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>6.67968380445557</c:v>
+                  <c:v>13.11076675098327</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>6.87829751647565</c:v>
+                  <c:v>13.63990241493994</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7.081573798240288</c:v>
+                  <c:v>14.18707604681154</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>7.289184003279788</c:v>
+                  <c:v>14.75168386400606</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>7.500724672687916</c:v>
+                  <c:v>15.33285563374934</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7.715710793393482</c:v>
+                  <c:v>15.92945946002978</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7.933569397423757</c:v>
+                  <c:v>16.54005850846821</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8.153633766676414</c:v>
+                  <c:v>17.16286629459136</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>8.375138552980495</c:v>
+                  <c:v>17.79575802912137</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>8.597216165581733</c:v>
+                  <c:v>18.43620679884404</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>8.8188948137983</c:v>
+                  <c:v>19.08129128557117</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>9.039098616806863</c:v>
+                  <c:v>19.72769120837191</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>9.256643082377435</c:v>
+                  <c:v>20.37165632370024</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>9.470218911404737</c:v>
+                  <c:v>21.00905269932902</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>9.678447154508174</c:v>
+                  <c:v>21.63536610934489</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>9.879875909502466</c:v>
+                  <c:v>22.2457438404</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>10.07299364276892</c:v>
+                  <c:v>22.83504828146881</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>10.25624929449361</c:v>
+                  <c:v>23.39793649026323</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>10.42807680149651</c:v>
+                  <c:v>23.92894255237094</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>10.58743159124006</c:v>
+                  <c:v>24.4225673741423</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>10.76304933047588</c:v>
+                  <c:v>25.2108391425624</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>10.9786277848058</c:v>
+                  <c:v>26.63782932822941</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>11.23586007802955</c:v>
+                  <c:v>28.70206869163128</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>11.53085346406009</c:v>
+                  <c:v>31.38291285407358</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>11.86079505217917</c:v>
+                  <c:v>34.6406035571832</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>12.21952291095612</c:v>
+                  <c:v>38.41734961636488</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>12.5996973331846</c:v>
+                  <c:v>42.63913033008016</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>12.99364234890671</c:v>
+                  <c:v>47.21836236086693</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>13.39348368090449</c:v>
+                  <c:v>52.05714657477026</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>13.7921844967927</c:v>
+                  <c:v>57.0509533962426</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>14.17889450932971</c:v>
+                  <c:v>62.09254164481758</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>14.5461309661319</c:v>
+                  <c:v>67.07594248993527</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>14.88737363675411</c:v>
+                  <c:v>71.90003271457965</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>15.19658257854086</c:v>
+                  <c:v>76.47196997917577</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>15.46828530113308</c:v>
+                  <c:v>80.70985308525589</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>15.69764377145326</c:v>
+                  <c:v>84.5447965132651</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>15.88192998719878</c:v>
+                  <c:v>87.92226629172178</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>16.01723750848065</c:v>
+                  <c:v>90.80268984994622</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>16.10251313791023</c:v>
+                  <c:v>93.16138422253505</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>16.13911082936665</c:v>
+                  <c:v>94.98788399268587</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>16.12875670722404</c:v>
+                  <c:v>96.28477675023876</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>16.07348579568926</c:v>
+                  <c:v>97.06616832674182</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>15.97557861490763</c:v>
+                  <c:v>97.3558983210167</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>15.8377743002371</c:v>
+                  <c:v>97.18565581184826</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>15.66355121646091</c:v>
+                  <c:v>96.59303520718116</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>15.45648277782996</c:v>
+                  <c:v>95.61969617360926</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>15.22094625877574</c:v>
+                  <c:v>94.30966475048839</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>14.9611159385768</c:v>
+                  <c:v>92.70779747311074</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>14.68093288572027</c:v>
+                  <c:v>90.85854685655406</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>14.38408385367369</c:v>
+                  <c:v>88.80484803656785</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>14.07396811069702</c:v>
+                  <c:v>86.58730781608699</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>13.75321677170699</c:v>
+                  <c:v>84.24362764704699</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>13.42620701102726</c:v>
+                  <c:v>81.80817629748648</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>13.09534191030288</c:v>
+                  <c:v>79.31179549131528</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>12.76278112265197</c:v>
+                  <c:v>76.78168253347869</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>12.43045179591623</c:v>
+                  <c:v>74.24145229314703</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>12.10006139675481</c:v>
+                  <c:v>71.71132676670791</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>11.77311179500744</c:v>
+                  <c:v>69.20822012156766</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>11.45091407075525</c:v>
+                  <c:v>66.74610775894845</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>11.1346036035641</c:v>
+                  <c:v>64.33626265353746</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>10.82515509196072</c:v>
+                  <c:v>61.98750036872001</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>10.52278686095016</c:v>
+                  <c:v>59.70656894326233</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>10.22864643361388</c:v>
+                  <c:v>57.49833991762677</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>9.94312406697567</c:v>
+                  <c:v>55.36611486335191</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>9.666275579353636</c:v>
+                  <c:v>53.31189945161835</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>9.398109317584982</c:v>
+                  <c:v>51.3365587817152</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>9.138592942010083</c:v>
+                  <c:v>49.44007711439752</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>8.887659533909726</c:v>
+                  <c:v>47.62171647745011</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8.645213061909036</c:v>
+                  <c:v>45.88014252674821</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>8.411133248743841</c:v>
+                  <c:v>44.21360863385758</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>8.185279882468352</c:v>
+                  <c:v>42.6199985925246</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>7.967496617155947</c:v>
+                  <c:v>41.09699100282714</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>7.757614307830536</c:v>
+                  <c:v>39.64206912771067</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>7.555437064786865</c:v>
+                  <c:v>38.25263900135885</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>7.36068571607991</c:v>
+                  <c:v>36.92603247673715</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>7.173141987785697</c:v>
+                  <c:v>35.6595938334296</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>6.992544768475271</c:v>
+                  <c:v>34.45065833346838</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>6.818637893759258</c:v>
+                  <c:v>33.29662729245155</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>6.651170897007393</c:v>
+                  <c:v>32.19495298341889</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>6.489899596579233</c:v>
+                  <c:v>31.14316019053375</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>6.334586542594655</c:v>
+                  <c:v>30.13886893178176</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>6.185001343605445</c:v>
+                  <c:v>29.17977419772985</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>6.040920891095936</c:v>
+                  <c:v>28.26367159377236</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5.90212949754017</c:v>
+                  <c:v>27.3884551705133</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5.768418961761686</c:v>
+                  <c:v>26.55210860705331</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5.639588573570538</c:v>
+                  <c:v>25.75271127025219</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5.515439529262368</c:v>
+                  <c:v>24.98843671628709</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5.395784467822282</c:v>
+                  <c:v>24.2575478887135</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5.280442987774819</c:v>
+                  <c:v>23.55839388044294</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5.169240286406158</c:v>
+                  <c:v>22.88940847136361</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5.06200874629296</c:v>
+                  <c:v>22.24910657811732</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>4.958587726526934</c:v>
+                  <c:v>21.63607860316618</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>4.858823343699031</c:v>
+                  <c:v>21.04898919358633</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>4.762568246010935</c:v>
+                  <c:v>20.48657485687486</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>4.669681383337435</c:v>
+                  <c:v>19.94763749420506</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>4.580027775592914</c:v>
+                  <c:v>19.43104205002559</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>4.493478281349834</c:v>
+                  <c:v>18.93571170107282</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>4.409909368308726</c:v>
+                  <c:v>18.46062916719074</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>4.329202886919942</c:v>
+                  <c:v>18.00483181691813</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>4.251245848202343</c:v>
+                  <c:v>17.56740642364933</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>4.175930206585662</c:v>
+                  <c:v>17.14748788253644</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>4.103152648418512</c:v>
+                  <c:v>16.74425487275248</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>4.032814386626706</c:v>
+                  <c:v>16.35693254273253</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3.964820961874481</c:v>
+                  <c:v>15.98478657722736</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3.89908205046963</c:v>
+                  <c:v>15.62711965747963</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3.835511279160844</c:v>
+                  <c:v>15.28327100418247</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>3.774026046897827</c:v>
+                  <c:v>14.95261248167148</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>3.714547353561052</c:v>
+                  <c:v>14.6345517546171</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>3.656999635615577</c:v>
+                  <c:v>14.32852632758835</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>3.601310608600518</c:v>
+                  <c:v>14.03400135235216</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3.547411116331901</c:v>
+                  <c:v>13.75047068329092</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3.495237813106355</c:v>
+                  <c:v>13.47744948290015</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3.444723933078925</c:v>
+                  <c:v>13.2144830798505</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>3.39580865114148</c:v>
+                  <c:v>12.96113881006219</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>3.348434048008587</c:v>
+                  <c:v>12.71700466938093</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3.302544667791082</c:v>
+                  <c:v>12.48168825157134</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>3.258087404166675</c:v>
+                  <c:v>12.25481808143366</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>3.215011391900847</c:v>
+                  <c:v>12.03603784614862</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>3.173267903505876</c:v>
+                  <c:v>11.82501304349553</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>3.132810250826838</c:v>
+                  <c:v>11.62142465238141</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>3.093593691345928</c:v>
+                  <c:v>11.42496832564699</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>3.055575339000174</c:v>
+                  <c:v>11.2353537942568</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>3.018714079311908</c:v>
+                  <c:v>11.05230548555467</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.982970488636738</c:v>
+                  <c:v>10.87555913264446</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.948306757339293</c:v>
+                  <c:v>10.70486606681498</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.914686616713213</c:v>
+                  <c:v>10.53998869175202</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.882075269468078</c:v>
+                  <c:v>10.38069992191052</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.85043932361264</c:v>
+                  <c:v>10.22678288964281</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.819746729570145</c:v>
+                  <c:v>10.07803111416812</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.789966720368281</c:v>
+                  <c:v>9.934246637813299</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.761069754752825</c:v>
+                  <c:v>9.795242752565331</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.733027463080596</c:v>
+                  <c:v>9.660840746136286</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.705812595853711</c:v>
+                  <c:v>9.530869508863862</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.679398974763388</c:v>
+                  <c:v>9.405165432819071</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2.653761446117694</c:v>
+                  <c:v>9.283572294757251</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.628875836533469</c:v>
+                  <c:v>9.165940398226377</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2.604718910778513</c:v>
+                  <c:v>9.052128227151046</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2.581268331655511</c:v>
+                  <c:v>8.9420001000622</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.558502621824626</c:v>
+                  <c:v>8.835425892822434</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2.536401127466728</c:v>
+                  <c:v>8.732281058868939</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2.51494398369418</c:v>
+                  <c:v>8.632446344044531</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2.494112081620797</c:v>
+                  <c:v>8.535807560729607</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2.473887037007109</c:v>
+                  <c:v>8.442256529565274</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2.454251160401308</c:v>
+                  <c:v>8.351689375548631</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2.435187428700465</c:v>
+                  <c:v>8.264006330793043</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.416679458060385</c:v>
+                  <c:v>8.179111588726279</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2.39871147808632</c:v>
+                  <c:v>8.096913749162152</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2.381268307240227</c:v>
+                  <c:v>8.017325450371425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,784 +2611,784 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300.0469144603183</c:v>
+                  <c:v>300.5119468395864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0952021906049</c:v>
+                  <c:v>301.0397151307935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.144879352565</c:v>
+                  <c:v>301.5835563658079</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300.195962782892</c:v>
+                  <c:v>302.1437360018979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300.2484693182793</c:v>
+                  <c:v>302.7205194963318</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300.3028027996441</c:v>
+                  <c:v>303.3142030624359</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300.3589600910402</c:v>
+                  <c:v>303.9250230392072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300.4164508526008</c:v>
+                  <c:v>304.5532567258264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300.4753054788007</c:v>
+                  <c:v>305.1992291570851</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>300.5355543641144</c:v>
+                  <c:v>305.8632653677749</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300.5972279030166</c:v>
+                  <c:v>306.5456903926873</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>300.6603564899818</c:v>
+                  <c:v>307.2468292666141</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300.7249705194845</c:v>
+                  <c:v>307.9670070243467</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300.7911003859996</c:v>
+                  <c:v>308.7065922241941</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>300.8587764840014</c:v>
+                  <c:v>309.4658868732218</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>300.9280292079646</c:v>
+                  <c:v>310.2452517916983</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>300.9988889523639</c:v>
+                  <c:v>311.0450940771756</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>301.0713861116737</c:v>
+                  <c:v>311.8658208272052</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>301.1455510803687</c:v>
+                  <c:v>312.7078391393389</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>301.2214142529235</c:v>
+                  <c:v>313.5715561111284</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>301.2990060238127</c:v>
+                  <c:v>314.4573788401254</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>301.3783567875109</c:v>
+                  <c:v>315.3657719475208</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>301.4594969384926</c:v>
+                  <c:v>316.2971056193924</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>301.5424568712325</c:v>
+                  <c:v>317.2518397533274</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>301.6272669802052</c:v>
+                  <c:v>318.2304802866903</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>301.7139576598852</c:v>
+                  <c:v>319.2335331568454</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>301.8025593047472</c:v>
+                  <c:v>320.2615043011572</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>301.8931023092658</c:v>
+                  <c:v>321.3148996569902</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>301.9856170679154</c:v>
+                  <c:v>322.3942251617088</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>302.0801339751708</c:v>
+                  <c:v>323.5000632283896</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>302.1766834255066</c:v>
+                  <c:v>324.6328641714422</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>302.2752958133973</c:v>
+                  <c:v>325.7932097691628</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>302.3760015333175</c:v>
+                  <c:v>326.9817267308578</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>302.4788309797419</c:v>
+                  <c:v>328.1990417658336</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>302.5838145471449</c:v>
+                  <c:v>329.4457815833965</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>302.6909826300013</c:v>
+                  <c:v>330.7225728928531</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>302.8003656227856</c:v>
+                  <c:v>332.0300424035096</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>302.9119939199724</c:v>
+                  <c:v>333.3688705837313</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>303.0258979160363</c:v>
+                  <c:v>334.7396883301828</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>303.1421080054519</c:v>
+                  <c:v>336.1432302498833</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>303.2606545826937</c:v>
+                  <c:v>337.5802508792631</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>303.3815680422365</c:v>
+                  <c:v>339.0515047547526</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>303.5048787785548</c:v>
+                  <c:v>340.5577464127822</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>303.6306171861231</c:v>
+                  <c:v>342.0997713260697</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>303.7588136594161</c:v>
+                  <c:v>343.6783274190019</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>303.8894985929084</c:v>
+                  <c:v>345.2942511388117</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>304.0227023810745</c:v>
+                  <c:v>346.948434702603</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>304.1584554183891</c:v>
+                  <c:v>348.6417703274802</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>304.2967880993267</c:v>
+                  <c:v>350.3751502305474</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>304.437730818362</c:v>
+                  <c:v>352.1494964447985</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>304.5813139699695</c:v>
+                  <c:v>353.9657216614868</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>304.7275679486239</c:v>
+                  <c:v>355.8247675314133</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>304.8765231487997</c:v>
+                  <c:v>357.72768824196</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>305.0282099649716</c:v>
+                  <c:v>359.6755379805089</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>305.182658791614</c:v>
+                  <c:v>361.6693709344419</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>305.3399000232017</c:v>
+                  <c:v>363.7102507042958</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>305.4999767846822</c:v>
+                  <c:v>365.7993053495579</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>305.6629686583703</c:v>
+                  <c:v>367.9375796291849</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>305.8289135824617</c:v>
+                  <c:v>370.1263150118061</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>305.9978491326338</c:v>
+                  <c:v>372.3667529660506</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>306.1698128845641</c:v>
+                  <c:v>374.6601349605476</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>306.3448424139299</c:v>
+                  <c:v>377.0077024639264</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>306.5229752964086</c:v>
+                  <c:v>379.410786421824</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>306.7042491076778</c:v>
+                  <c:v>381.8706010538195</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>306.8887014234148</c:v>
+                  <c:v>384.3885726522918</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>307.076369819297</c:v>
+                  <c:v>386.9661509742073</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>307.267291871002</c:v>
+                  <c:v>389.6047857765324</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>307.461505154207</c:v>
+                  <c:v>392.3059268162336</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>307.6590472445895</c:v>
+                  <c:v>395.071090800076</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>307.8599557178269</c:v>
+                  <c:v>397.9017265774571</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>308.0642681495968</c:v>
+                  <c:v>400.7994319442053</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>308.2720221155764</c:v>
+                  <c:v>403.7658689941556</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>308.4832551914431</c:v>
+                  <c:v>406.8026998211431</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>308.6980049528746</c:v>
+                  <c:v>409.9115865190028</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>308.916013625679</c:v>
+                  <c:v>413.0942229785173</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>309.1368759436576</c:v>
+                  <c:v>416.3523092730877</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>309.3617379167778</c:v>
+                  <c:v>419.6876001226173</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>309.590573712329</c:v>
+                  <c:v>423.1019299659025</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>309.823357497601</c:v>
+                  <c:v>426.5971332417398</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>310.0600634398833</c:v>
+                  <c:v>430.1750443889256</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>310.3006657064655</c:v>
+                  <c:v>433.83749417565</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>310.5451384646371</c:v>
+                  <c:v>437.5863491935405</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>310.7934558816879</c:v>
+                  <c:v>441.4235257058147</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>311.0455921249072</c:v>
+                  <c:v>445.3508908869226</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>311.3015213615848</c:v>
+                  <c:v>449.3703119113146</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>311.5612177590102</c:v>
+                  <c:v>453.4836559534407</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>311.8246554844731</c:v>
+                  <c:v>457.692790187751</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>312.0918087052629</c:v>
+                  <c:v>461.9995567039238</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>312.3626515886693</c:v>
+                  <c:v>466.4057323661483</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>312.637158301982</c:v>
+                  <c:v>470.9130352071475</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>312.9153030124904</c:v>
+                  <c:v>475.5231927499785</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>313.1970598874842</c:v>
+                  <c:v>480.2377427699367</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>313.4824030942528</c:v>
+                  <c:v>485.0581622196021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>313.7713068000861</c:v>
+                  <c:v>489.9858769398691</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>314.0637451722735</c:v>
+                  <c:v>495.0221269365451</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>314.3596923781046</c:v>
+                  <c:v>500.167888747676</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>314.659122584869</c:v>
+                  <c:v>505.4240490878118</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>314.9620099598563</c:v>
+                  <c:v>510.7913981580401</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>315.2683286703561</c:v>
+                  <c:v>516.2701366715945</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>315.5742942184917</c:v>
+                  <c:v>521.8603137798444</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>315.8802157711766</c:v>
+                  <c:v>527.5618643889262</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>316.1917746393318</c:v>
+                  <c:v>533.3740575907698</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>316.508349778844</c:v>
+                  <c:v>539.2956257259922</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>316.8293201456001</c:v>
+                  <c:v>545.3250485902935</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>317.1540646954869</c:v>
+                  <c:v>551.4604768899071</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>317.481962384391</c:v>
+                  <c:v>557.6987105088559</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>317.8123921681993</c:v>
+                  <c:v>564.0363393758854</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>318.1447330027985</c:v>
+                  <c:v>570.4693864499042</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>318.4783638440755</c:v>
+                  <c:v>576.9924888941063</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>318.812663647917</c:v>
+                  <c:v>583.599658694901</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>319.1470113702097</c:v>
+                  <c:v>590.2840287987441</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>319.4807859668405</c:v>
+                  <c:v>597.0371142911179</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>319.8133663936961</c:v>
+                  <c:v>603.8498062470056</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>320.1441316066632</c:v>
+                  <c:v>610.7113421075107</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>320.4724605616287</c:v>
+                  <c:v>617.6094896088933</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>320.7977322144794</c:v>
+                  <c:v>624.5311531499208</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>321.1193255211019</c:v>
+                  <c:v>631.4608058689759</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>321.4366194373832</c:v>
+                  <c:v>638.3819285113585</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>321.7489929192098</c:v>
+                  <c:v>645.2763482026268</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>322.0558249224687</c:v>
+                  <c:v>652.1235909114234</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>322.3564944030466</c:v>
+                  <c:v>658.9023399999862</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>322.6503803168302</c:v>
+                  <c:v>665.5888528277167</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>322.9368616197064</c:v>
+                  <c:v>672.1579709939938</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>323.2153172675619</c:v>
+                  <c:v>678.5833586370211</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>323.4848774818756</c:v>
+                  <c:v>684.8365634242067</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>323.7437095837121</c:v>
+                  <c:v>690.8884385477123</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>323.9906704252475</c:v>
+                  <c:v>696.7086526823862</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>324.2247186259801</c:v>
+                  <c:v>702.2660899228738</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>324.4448128054084</c:v>
+                  <c:v>707.5291601329305</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>324.6499165661559</c:v>
+                  <c:v>712.4664513106399</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>324.8390277467416</c:v>
+                  <c:v>717.0469983953891</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>325.0268224568944</c:v>
+                  <c:v>721.2403831012949</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>326.1283059784138</c:v>
+                  <c:v>734.8532163754774</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>328.8637453670465</c:v>
+                  <c:v>767.5857499942739</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>333.2779406723466</c:v>
+                  <c:v>818.9805362801342</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>339.2622655638208</c:v>
+                  <c:v>888.2341977584728</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>346.755680541857</c:v>
+                  <c:v>974.2162452913308</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>355.6130583872677</c:v>
+                  <c:v>1075.501410525879</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>365.6680294335807</c:v>
+                  <c:v>1190.406668412134</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>376.7542240143239</c:v>
+                  <c:v>1317.037911229588</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>388.7052724630248</c:v>
+                  <c:v>1453.340486576427</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>401.3807205474722</c:v>
+                  <c:v>1597.152886969794</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>414.5263612838918</c:v>
+                  <c:v>1746.261801759688</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>427.9781511524238</c:v>
+                  <c:v>1898.458127308842</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>441.5890900402995</c:v>
+                  <c:v>2051.584782399842</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>455.2121778347506</c:v>
+                  <c:v>2203.587751341256</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>468.7004144230084</c:v>
+                  <c:v>2352.555374991947</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>481.9067996923043</c:v>
+                  <c:v>2496.75312559516</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>494.7288741719951</c:v>
+                  <c:v>2634.650361110611</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>507.0074518898757</c:v>
+                  <c:v>2764.939131866323</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>518.651857233756</c:v>
+                  <c:v>2886.545065432711</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>529.6320232617593</c:v>
+                  <c:v>2998.630675610239</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>539.9178830320086</c:v>
+                  <c:v>3100.59172303576</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>549.4793696026267</c:v>
+                  <c:v>3192.04746786198</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>558.2864160317366</c:v>
+                  <c:v>3272.825624771354</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>566.318773837153</c:v>
+                  <c:v>3342.944089887147</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>573.579590012685</c:v>
+                  <c:v>3402.588304183883</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>580.0761491368087</c:v>
+                  <c:v>3452.087762864421</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>585.8495171676873</c:v>
+                  <c:v>3491.891645583304</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>590.9407600634838</c:v>
+                  <c:v>3522.543423455216</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>595.3909437823618</c:v>
+                  <c:v>3544.659245828992</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>599.2411342824842</c:v>
+                  <c:v>3558.903570644846</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>602.5315345287772</c:v>
+                  <c:v>3565.969215233599</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>605.2804743346516</c:v>
+                  <c:v>3566.560292707828</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>607.5951080115678</c:v>
+                  <c:v>3561.375567608964</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>609.5108351920187</c:v>
+                  <c:v>3551.096745120728</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>611.0630555084972</c:v>
+                  <c:v>3536.376247230774</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>612.2871685934961</c:v>
+                  <c:v>3517.829913033986</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>613.2185740795084</c:v>
+                  <c:v>3496.033768020098</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>613.8926715990268</c:v>
+                  <c:v>3471.514594928866</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>614.3448607845444</c:v>
+                  <c:v>3444.753526094177</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>614.610541268554</c:v>
+                  <c:v>3416.183627836523</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>614.7251126835484</c:v>
+                  <c:v>3386.188154031753</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>614.6883199765576</c:v>
+                  <c:v>3355.107472597903</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>614.5595892726511</c:v>
+                  <c:v>3323.236680764473</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>614.3618100477445</c:v>
+                  <c:v>3290.830671262833</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>614.1020012593676</c:v>
+                  <c:v>3258.109158831021</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>613.7871818650507</c:v>
+                  <c:v>3225.256133296909</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>613.4243708223235</c:v>
+                  <c:v>3192.426937389072</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>613.020587088716</c:v>
+                  <c:v>3159.750778391127</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>612.582849621758</c:v>
+                  <c:v>3127.332263665272</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>612.1181773789796</c:v>
+                  <c:v>3095.25803872663</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>611.6335893179105</c:v>
+                  <c:v>3063.595048394426</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>611.1361043960809</c:v>
+                  <c:v>3032.398081758514</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>610.6327415710207</c:v>
+                  <c:v>3001.707374212057</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>610.12915842958</c:v>
+                  <c:v>2971.554668143806</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>609.6245846393366</c:v>
+                  <c:v>2941.961461911891</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>609.1230791864688</c:v>
+                  <c:v>2912.944121786244</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>608.6250137474377</c:v>
+                  <c:v>2884.511013134736</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>608.1307599987049</c:v>
+                  <c:v>2856.667687739794</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>607.6406896167314</c:v>
+                  <c:v>2829.415122911302</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>607.1551742779789</c:v>
+                  <c:v>2802.751129776289</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>606.6745856589084</c:v>
+                  <c:v>2776.672201545136</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>606.1992954359814</c:v>
+                  <c:v>2751.171665364664</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>605.7296752856594</c:v>
+                  <c:v>2726.242065586759</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>605.2660968844035</c:v>
+                  <c:v>2701.875200812205</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>604.8089319086752</c:v>
+                  <c:v>2678.061527012445</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>604.3585520349357</c:v>
+                  <c:v>2654.791038506485</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>603.9147224658453</c:v>
+                  <c:v>2632.053491866196</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>603.4776132137116</c:v>
+                  <c:v>2609.838310493391</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>603.0473483092114</c:v>
+                  <c:v>2588.134648951898</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>602.6238609173977</c:v>
+                  <c:v>2566.931661805543</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>602.2070842033229</c:v>
+                  <c:v>2546.218559948537</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>601.7969513320401</c:v>
+                  <c:v>2525.984416316994</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>601.393395468602</c:v>
+                  <c:v>2506.218458783979</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>600.9963497780614</c:v>
+                  <c:v>2486.910244448427</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>600.605747425471</c:v>
+                  <c:v>2468.049330409271</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>600.2215215758838</c:v>
+                  <c:v>2449.625405067521</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>599.8436053943524</c:v>
+                  <c:v>2431.628099931958</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>599.4719320459296</c:v>
+                  <c:v>2414.047561388475</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>599.1064346956682</c:v>
+                  <c:v>2396.874239967294</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>598.7470465086211</c:v>
+                  <c:v>2380.098586198637</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>598.3937006498411</c:v>
+                  <c:v>2363.711239265334</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>598.0463302843808</c:v>
+                  <c:v>2347.70278844304</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>597.7048685772932</c:v>
+                  <c:v>2332.064491968548</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>597.3692486936309</c:v>
+                  <c:v>2316.787801025397</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>597.0394037984468</c:v>
+                  <c:v>2301.864166797128</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>596.7152670567936</c:v>
+                  <c:v>2287.285272105531</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>596.3967716337243</c:v>
+                  <c:v>2273.04274602444</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>596.0838506942914</c:v>
+                  <c:v>2259.128923190663</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>595.7764374035479</c:v>
+                  <c:v>2245.536228877835</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>595.4744649265465</c:v>
+                  <c:v>2232.257088359593</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>595.1778664283401</c:v>
+                  <c:v>2219.284337972931</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>594.8870561316286</c:v>
+                  <c:v>2206.610274932528</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>594.6013938911245</c:v>
+                  <c:v>2194.228309310867</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>594.3207709625812</c:v>
+                  <c:v>2182.131880459136</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>594.0451327999484</c:v>
+                  <c:v>2170.314427728521</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>593.7744248571762</c:v>
+                  <c:v>2158.769396886431</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>593.5085925882144</c:v>
+                  <c:v>2147.490656112631</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>593.2475814470129</c:v>
+                  <c:v>2136.471673480861</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>592.9913368875216</c:v>
+                  <c:v>2125.706851485121</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>592.7398043636905</c:v>
+                  <c:v>2115.190592619414</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>592.4929293294693</c:v>
+                  <c:v>2104.917299377739</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>592.250657238808</c:v>
+                  <c:v>2094.881405385978</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>592.0129335456566</c:v>
+                  <c:v>2085.077629866512</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>591.7797037039646</c:v>
+                  <c:v>2075.500477009418</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>591.5509131676824</c:v>
+                  <c:v>2066.145175404783</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>591.3265073907596</c:v>
+                  <c:v>2057.006953642696</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>591.1064318271461</c:v>
+                  <c:v>2048.081040313246</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>590.8906319307919</c:v>
+                  <c:v>2039.36271152253</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>590.6790531556468</c:v>
+                  <c:v>2030.847428680503</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>590.4716409556607</c:v>
+                  <c:v>2022.530565226577</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>590.2683407847836</c:v>
+                  <c:v>2014.408054666859</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>590.0690980969654</c:v>
+                  <c:v>2006.475830507459</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>589.8738583461558</c:v>
+                  <c:v>1998.729826254484</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>589.6825669863047</c:v>
+                  <c:v>1991.166032854207</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>589.4951694713621</c:v>
+                  <c:v>1983.78055168644</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>589.3116112552781</c:v>
+                  <c:v>1976.569486461943</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>589.1318377920022</c:v>
+                  <c:v>1969.529371486678</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>588.9557945354845</c:v>
+                  <c:v>1962.656741066608</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>588.7834269396749</c:v>
+                  <c:v>1955.948129507696</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>588.6146804585233</c:v>
+                  <c:v>1949.400134325499</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>588.4495005459795</c:v>
+                  <c:v>1943.009410785009</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>588.2878326559934</c:v>
+                  <c:v>1936.772676494154</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>588.129622242515</c:v>
+                  <c:v>1930.686980270135</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>587.9748147594941</c:v>
+                  <c:v>1924.749370930151</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>587.8233556608807</c:v>
+                  <c:v>1918.9568972914</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>587.6751904006245</c:v>
+                  <c:v>1913.306617876303</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>587.5302644326755</c:v>
+                  <c:v>1907.795748044333</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>587.3885232109836</c:v>
+                  <c:v>1902.421618317689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4310,787 +4310,787 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="262"/>
                 <c:pt idx="0">
-                  <c:v>1.088759781086738</c:v>
+                  <c:v>1.131805852811387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.093584814837097</c:v>
+                  <c:v>1.13858357365794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.098572750665171</c:v>
+                  <c:v>1.145601122446795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.103727223163851</c:v>
+                  <c:v>1.152864696080841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.109052012361073</c:v>
+                  <c:v>1.160380782499228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.114551046180408</c:v>
+                  <c:v>1.168156117514515</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.12022984923898</c:v>
+                  <c:v>1.176197814064508</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.126092607895183</c:v>
+                  <c:v>1.184513022470934</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.132141836343792</c:v>
+                  <c:v>1.193109330595898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.138382152344295</c:v>
+                  <c:v>1.201994806129919</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.144818350458418</c:v>
+                  <c:v>1.211177824853032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.151455408600174</c:v>
+                  <c:v>1.220667083714742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.158298494897393</c:v>
+                  <c:v>1.230471614560357</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.165352974880171</c:v>
+                  <c:v>1.240600798538169</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.172624419012605</c:v>
+                  <c:v>1.25106455760744</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.18011861058506</c:v>
+                  <c:v>1.261872927016574</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.187841553985215</c:v>
+                  <c:v>1.273036578155952</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.195799483367159</c:v>
+                  <c:v>1.284566791931937</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.203998871738885</c:v>
+                  <c:v>1.296475291399642</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.212446440489695</c:v>
+                  <c:v>1.308774261787272</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.221149169380218</c:v>
+                  <c:v>1.321476371544523</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.230114307019048</c:v>
+                  <c:v>1.334594794472169</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.239349381851321</c:v>
+                  <c:v>1.348143478898653</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.248862213686005</c:v>
+                  <c:v>1.362136526849383</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.258660925790162</c:v>
+                  <c:v>1.376589003980651</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.268753957579984</c:v>
+                  <c:v>1.391516790428195</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.279150077940133</c:v>
+                  <c:v>1.406936414908088</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.289858399204593</c:v>
+                  <c:v>1.422865085777306</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.300888391834132</c:v>
+                  <c:v>1.439320723745581</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.312249899827344</c:v>
+                  <c:v>1.456321996333891</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.323953156904346</c:v>
+                  <c:v>1.473888702609466</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.336008803504243</c:v>
+                  <c:v>1.49204086812324</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.348427904639778</c:v>
+                  <c:v>1.510799981151336</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.361221968654867</c:v>
+                  <c:v>1.53018865750544</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.374402966933177</c:v>
+                  <c:v>1.550230483931912</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.387983354608452</c:v>
+                  <c:v>1.570950067023834</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.401976092329957</c:v>
+                  <c:v>1.592373084834139</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.416394669139136</c:v>
+                  <c:v>1.614526341349843</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.431253126516508</c:v>
+                  <c:v>1.637438088050375</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.446566083660743</c:v>
+                  <c:v>1.661137585471098</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.462348764064983</c:v>
+                  <c:v>1.685655923865699</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.478617023458589</c:v>
+                  <c:v>1.711025694278642</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.495387379185825</c:v>
+                  <c:v>1.737280965291931</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.512677041096219</c:v>
+                  <c:v>1.764457360868146</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.53050394402483</c:v>
+                  <c:v>1.792592357136777</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.548886781944004</c:v>
+                  <c:v>1.821724912775772</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.567845043871693</c:v>
+                  <c:v>1.851896276654722</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.587399051624856</c:v>
+                  <c:v>1.883149935763202</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.607569999509816</c:v>
+                  <c:v>1.915531431858396</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.628379996044833</c:v>
+                  <c:v>1.949088473181661</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.649852107813267</c:v>
+                  <c:v>1.983871220630879</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.672010405548757</c:v>
+                  <c:v>2.01993220025326</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.694880012556522</c:v>
+                  <c:v>2.057326654213542</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.718487155577293</c:v>
+                  <c:v>2.096113182319451</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.742859218202329</c:v>
+                  <c:v>2.136353268148161</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.768024796949308</c:v>
+                  <c:v>2.178111440105501</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.794013760109557</c:v>
+                  <c:v>2.221455499399404</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.82085738535373</c:v>
+                  <c:v>2.266457045685069</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.848588573519273</c:v>
+                  <c:v>2.3131907686725</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.87724145386806</c:v>
+                  <c:v>2.361736399964554</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.906851694383412</c:v>
+                  <c:v>2.412177747821465</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.937456578503782</c:v>
+                  <c:v>2.464602929352725</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.96909508313208</c:v>
+                  <c:v>2.519104616153244</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.001807960129618</c:v>
+                  <c:v>2.575780901529992</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.035637821359881</c:v>
+                  <c:v>2.634734201924398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.070629227329926</c:v>
+                  <c:v>2.696073789864805</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.106828779455346</c:v>
+                  <c:v>2.759914879743878</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.144285215948039</c:v>
+                  <c:v>2.826378803003764</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.183049511293155</c:v>
+                  <c:v>2.895593358506382</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.223174979242041</c:v>
+                  <c:v>2.967693684954792</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.264717379200224</c:v>
+                  <c:v>3.042821664667812</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.307735025832413</c:v>
+                  <c:v>3.12112797736693</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.352288901638511</c:v>
+                  <c:v>3.20277196773043</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.398442772174049</c:v>
+                  <c:v>3.287921634188096</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.446263303493287</c:v>
+                  <c:v>3.376754115138731</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.495817795067988</c:v>
+                  <c:v>3.469456465350064</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.547175281427</c:v>
+                  <c:v>3.566225995636471</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.600420792416972</c:v>
+                  <c:v>3.667271259239867</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.655633421964231</c:v>
+                  <c:v>3.772812905038477</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.712895728890921</c:v>
+                  <c:v>3.883083632162088</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.772293847805823</c:v>
+                  <c:v>3.998328822838485</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.833917594533652</c:v>
+                  <c:v>4.118807160212499</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.897860564008051</c:v>
+                  <c:v>4.24479167781305</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.964220218179712</c:v>
+                  <c:v>4.376570619467588</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.033097961062369</c:v>
+                  <c:v>4.514447190802144</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.104599197548455</c:v>
+                  <c:v>4.65874071865254</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.178833372066047</c:v>
+                  <c:v>4.809787353392366</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.255913982511411</c:v>
+                  <c:v>4.967940762620075</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.335958564168708</c:v>
+                  <c:v>5.133572527909143</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.419088637512161</c:v>
+                  <c:v>5.307072300255017</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.505429612867541</c:v>
+                  <c:v>5.488848383640804</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.595110643881343</c:v>
+                  <c:v>5.679328998389342</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.688264420600279</c:v>
+                  <c:v>5.878960300878581</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.785026891694976</c:v>
+                  <c:v>6.088208048649101</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.885536903966206</c:v>
+                  <c:v>6.307557813854077</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.989935745749559</c:v>
+                  <c:v>6.537513131477728</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.098366579189121</c:v>
+                  <c:v>6.778593927828243</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.210973744593279</c:v>
+                  <c:v>7.031337993590227</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.327901918234248</c:v>
+                  <c:v>7.29629991720865</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.449295103038065</c:v>
+                  <c:v>7.574042492381539</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.575240936014294</c:v>
+                  <c:v>7.865140527415551</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.705878748340785</c:v>
+                  <c:v>8.170178917026531</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.841425417767979</c:v>
+                  <c:v>8.489740823207301</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.982001240599421</c:v>
+                  <c:v>8.824404822494415</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.127716577985923</c:v>
+                  <c:v>9.174744097825913</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.278669228142823</c:v>
+                  <c:v>9.541319200911786</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.434941439093137</c:v>
+                  <c:v>9.92465272141704</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.5965965345861</c:v>
+                  <c:v>10.32523923793347</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.763675128702411</c:v>
+                  <c:v>10.74352911927241</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.936190909314399</c:v>
+                  <c:v>11.17990083995837</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6.114125977452006</c:v>
+                  <c:v>11.63466047379702</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6.297425739210643</c:v>
+                  <c:v>12.10802117003815</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>6.485993359627009</c:v>
+                  <c:v>12.6000697969089</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>6.67968380445557</c:v>
+                  <c:v>13.11076675098327</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>6.87829751647565</c:v>
+                  <c:v>13.63990241493994</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7.081573798240288</c:v>
+                  <c:v>14.18707604681154</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>7.289184003279788</c:v>
+                  <c:v>14.75168386400606</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>7.500724672687916</c:v>
+                  <c:v>15.33285563374934</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7.715710793393482</c:v>
+                  <c:v>15.92945946002978</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7.933569397423757</c:v>
+                  <c:v>16.54005850846821</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8.153633766676414</c:v>
+                  <c:v>17.16286629459136</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>8.375138552980495</c:v>
+                  <c:v>17.79575802912137</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>8.597216165581733</c:v>
+                  <c:v>18.43620679884404</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>8.8188948137983</c:v>
+                  <c:v>19.08129128557117</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>9.039098616806863</c:v>
+                  <c:v>19.72769120837191</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>9.256643082377435</c:v>
+                  <c:v>20.37165632370024</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>9.470218911404737</c:v>
+                  <c:v>21.00905269932902</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>9.678447154508174</c:v>
+                  <c:v>21.63536610934489</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>9.879875909502466</c:v>
+                  <c:v>22.2457438404</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>10.07299364276892</c:v>
+                  <c:v>22.83504828146881</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>10.25624929449361</c:v>
+                  <c:v>23.39793649026323</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>10.42807680149651</c:v>
+                  <c:v>23.92894255237094</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>10.58743159124006</c:v>
+                  <c:v>24.4225673741423</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>10.76304933047588</c:v>
+                  <c:v>25.2108391425624</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>10.9786277848058</c:v>
+                  <c:v>26.63782932822941</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>11.23586007802955</c:v>
+                  <c:v>28.70206869163128</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>11.53085346406009</c:v>
+                  <c:v>31.38291285407358</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>11.86079505217917</c:v>
+                  <c:v>34.6406035571832</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>12.21952291095612</c:v>
+                  <c:v>38.41734961636488</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>12.5996973331846</c:v>
+                  <c:v>42.63913033008016</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>12.99364234890671</c:v>
+                  <c:v>47.21836236086693</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>13.39348368090449</c:v>
+                  <c:v>52.05714657477026</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>13.7921844967927</c:v>
+                  <c:v>57.0509533962426</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>14.17889450932971</c:v>
+                  <c:v>62.09254164481758</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>14.5461309661319</c:v>
+                  <c:v>67.07594248993527</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>14.88737363675411</c:v>
+                  <c:v>71.90003271457965</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>15.19658257854086</c:v>
+                  <c:v>76.47196997917577</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>15.46828530113308</c:v>
+                  <c:v>80.70985308525589</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>15.69764377145326</c:v>
+                  <c:v>84.5447965132651</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>15.88192998719878</c:v>
+                  <c:v>87.92226629172178</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>16.01723750848065</c:v>
+                  <c:v>90.80268984994622</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>16.10251313791023</c:v>
+                  <c:v>93.16138422253505</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>16.13911082936665</c:v>
+                  <c:v>94.98788399268587</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>16.12875670722404</c:v>
+                  <c:v>96.28477675023876</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>16.07348579568926</c:v>
+                  <c:v>97.06616832674182</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>15.97557861490763</c:v>
+                  <c:v>97.3558983210167</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>15.8377743002371</c:v>
+                  <c:v>97.18565581184826</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>15.66355121646091</c:v>
+                  <c:v>96.59303520718116</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>15.45648277782996</c:v>
+                  <c:v>95.61969617360926</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>15.22094625877574</c:v>
+                  <c:v>94.30966475048839</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>14.9611159385768</c:v>
+                  <c:v>92.70779747311074</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>14.68093288572027</c:v>
+                  <c:v>90.85854685655406</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>14.38408385367369</c:v>
+                  <c:v>88.80484803656785</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>14.07396811069702</c:v>
+                  <c:v>86.58730781608699</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>13.75321677170699</c:v>
+                  <c:v>84.24362764704699</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>13.42620701102726</c:v>
+                  <c:v>81.80817629748648</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>13.09534191030288</c:v>
+                  <c:v>79.31179549131528</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>12.76278112265197</c:v>
+                  <c:v>76.78168253347869</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>12.43045179591623</c:v>
+                  <c:v>74.24145229314703</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>12.10006139675481</c:v>
+                  <c:v>71.71132676670791</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>11.77311179500744</c:v>
+                  <c:v>69.20822012156766</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>11.45091407075525</c:v>
+                  <c:v>66.74610775894845</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>11.1346036035641</c:v>
+                  <c:v>64.33626265353746</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>10.82515509196072</c:v>
+                  <c:v>61.98750036872001</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>10.52278686095016</c:v>
+                  <c:v>59.70656894326233</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>10.22864643361388</c:v>
+                  <c:v>57.49833991762677</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>9.94312406697567</c:v>
+                  <c:v>55.36611486335191</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>9.666275579353636</c:v>
+                  <c:v>53.31189945161835</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>9.398109317584982</c:v>
+                  <c:v>51.3365587817152</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>9.138592942010083</c:v>
+                  <c:v>49.44007711439752</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>8.887659533909726</c:v>
+                  <c:v>47.62171647745011</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8.645213061909036</c:v>
+                  <c:v>45.88014252674821</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>8.411133248743841</c:v>
+                  <c:v>44.21360863385758</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>8.185279882468352</c:v>
+                  <c:v>42.6199985925246</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>7.967496617155947</c:v>
+                  <c:v>41.09699100282714</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>7.757614307830536</c:v>
+                  <c:v>39.64206912771067</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>7.555437064786865</c:v>
+                  <c:v>38.25263900135885</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>7.36068571607991</c:v>
+                  <c:v>36.92603247673715</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>7.173141987785697</c:v>
+                  <c:v>35.6595938334296</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>6.992544768475271</c:v>
+                  <c:v>34.45065833346838</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>6.818637893759258</c:v>
+                  <c:v>33.29662729245155</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>6.651170897007393</c:v>
+                  <c:v>32.19495298341889</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>6.489899596579233</c:v>
+                  <c:v>31.14316019053375</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>6.334586542594655</c:v>
+                  <c:v>30.13886893178176</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>6.185001343605445</c:v>
+                  <c:v>29.17977419772985</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>6.040920891095936</c:v>
+                  <c:v>28.26367159377236</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5.90212949754017</c:v>
+                  <c:v>27.3884551705133</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5.768418961761686</c:v>
+                  <c:v>26.55210860705331</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5.639588573570538</c:v>
+                  <c:v>25.75271127025219</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5.515439529262368</c:v>
+                  <c:v>24.98843671628709</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5.395784467822282</c:v>
+                  <c:v>24.2575478887135</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5.280442987774819</c:v>
+                  <c:v>23.55839388044294</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5.169240286406158</c:v>
+                  <c:v>22.88940847136361</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5.06200874629296</c:v>
+                  <c:v>22.24910657811732</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>4.958587726526934</c:v>
+                  <c:v>21.63607860316618</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>4.858823343699031</c:v>
+                  <c:v>21.04898919358633</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>4.762568246010935</c:v>
+                  <c:v>20.48657485687486</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>4.669681383337435</c:v>
+                  <c:v>19.94763749420506</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>4.580027775592914</c:v>
+                  <c:v>19.43104205002559</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>4.493478281349834</c:v>
+                  <c:v>18.93571170107282</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>4.409909368308726</c:v>
+                  <c:v>18.46062916719074</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>4.329202886919942</c:v>
+                  <c:v>18.00483181691813</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>4.251245848202343</c:v>
+                  <c:v>17.56740642364933</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>4.175930206585662</c:v>
+                  <c:v>17.14748788253644</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>4.103152648418512</c:v>
+                  <c:v>16.74425487275248</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>4.032814386626706</c:v>
+                  <c:v>16.35693254273253</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3.964820961874481</c:v>
+                  <c:v>15.98478657722736</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3.89908205046963</c:v>
+                  <c:v>15.62711965747963</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3.835511279160844</c:v>
+                  <c:v>15.28327100418247</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>3.774026046897827</c:v>
+                  <c:v>14.95261248167148</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>3.714547353561052</c:v>
+                  <c:v>14.6345517546171</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>3.656999635615577</c:v>
+                  <c:v>14.32852632758835</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>3.601310608600518</c:v>
+                  <c:v>14.03400135235216</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3.547411116331901</c:v>
+                  <c:v>13.75047068329092</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3.495237813106355</c:v>
+                  <c:v>13.47744948290015</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3.444723933078925</c:v>
+                  <c:v>13.2144830798505</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>3.39580865114148</c:v>
+                  <c:v>12.96113881006219</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>3.348434048008587</c:v>
+                  <c:v>12.71700466938093</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3.302544667791082</c:v>
+                  <c:v>12.48168825157134</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>3.258087404166675</c:v>
+                  <c:v>12.25481808143366</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>3.215011391900847</c:v>
+                  <c:v>12.03603784614862</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>3.173267903505876</c:v>
+                  <c:v>11.82501304349553</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>3.132810250826838</c:v>
+                  <c:v>11.62142465238141</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>3.093593691345928</c:v>
+                  <c:v>11.42496832564699</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>3.055575339000174</c:v>
+                  <c:v>11.2353537942568</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>3.018714079311908</c:v>
+                  <c:v>11.05230548555467</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.982970488636738</c:v>
+                  <c:v>10.87555913264446</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.948306757339293</c:v>
+                  <c:v>10.70486606681498</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.914686616713213</c:v>
+                  <c:v>10.53998869175202</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.882075269468078</c:v>
+                  <c:v>10.38069992191052</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.85043932361264</c:v>
+                  <c:v>10.22678288964281</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.819746729570145</c:v>
+                  <c:v>10.07803111416812</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.789966720368281</c:v>
+                  <c:v>9.934246637813299</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.761069754752825</c:v>
+                  <c:v>9.795242752565331</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.733027463080596</c:v>
+                  <c:v>9.660840746136286</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.705812595853711</c:v>
+                  <c:v>9.530869508863862</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.679398974763388</c:v>
+                  <c:v>9.405165432819071</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2.653761446117694</c:v>
+                  <c:v>9.283572294757251</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.628875836533469</c:v>
+                  <c:v>9.165940398226377</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2.604718910778513</c:v>
+                  <c:v>9.052128227151046</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2.581268331655511</c:v>
+                  <c:v>8.9420001000622</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.558502621824626</c:v>
+                  <c:v>8.835425892822434</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2.536401127466728</c:v>
+                  <c:v>8.732281058868939</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2.51494398369418</c:v>
+                  <c:v>8.632446344044531</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2.494112081620797</c:v>
+                  <c:v>8.535807560729607</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2.473887037007109</c:v>
+                  <c:v>8.442256529565274</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2.454251160401308</c:v>
+                  <c:v>8.351689375548631</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2.435187428700465</c:v>
+                  <c:v>8.264006330793043</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.416679458060385</c:v>
+                  <c:v>8.179111588726279</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2.39871147808632</c:v>
+                  <c:v>8.096913749162152</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2.381268307240227</c:v>
+                  <c:v>8.017325450371425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6015,784 +6015,784 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300.0469144603183</c:v>
+                  <c:v>300.5119468395864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0952021906049</c:v>
+                  <c:v>301.0397151307935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.144879352565</c:v>
+                  <c:v>301.5835563658079</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300.195962782892</c:v>
+                  <c:v>302.1437360018979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300.2484693182793</c:v>
+                  <c:v>302.7205194963318</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300.3028027996441</c:v>
+                  <c:v>303.3142030624359</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300.3589600910402</c:v>
+                  <c:v>303.9250230392072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300.4164508526008</c:v>
+                  <c:v>304.5532567258264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300.4753054788007</c:v>
+                  <c:v>305.1992291570851</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>300.5355543641144</c:v>
+                  <c:v>305.8632653677749</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300.5972279030166</c:v>
+                  <c:v>306.5456903926873</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>300.6603564899818</c:v>
+                  <c:v>307.2468292666141</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300.7249705194845</c:v>
+                  <c:v>307.9670070243467</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300.7911003859996</c:v>
+                  <c:v>308.7065922241941</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>300.8587764840014</c:v>
+                  <c:v>309.4658868732218</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>300.9280292079646</c:v>
+                  <c:v>310.2452517916983</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>300.9988889523639</c:v>
+                  <c:v>311.0450940771756</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>301.0713861116737</c:v>
+                  <c:v>311.8658208272052</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>301.1455510803687</c:v>
+                  <c:v>312.7078391393389</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>301.2214142529235</c:v>
+                  <c:v>313.5715561111284</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>301.2990060238127</c:v>
+                  <c:v>314.4573788401254</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>301.3783567875109</c:v>
+                  <c:v>315.3657719475208</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>301.4594969384926</c:v>
+                  <c:v>316.2971056193924</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>301.5424568712325</c:v>
+                  <c:v>317.2518397533274</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>301.6272669802052</c:v>
+                  <c:v>318.2304802866903</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>301.7139576598852</c:v>
+                  <c:v>319.2335331568454</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>301.8025593047472</c:v>
+                  <c:v>320.2615043011572</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>301.8931023092658</c:v>
+                  <c:v>321.3148996569902</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>301.9856170679154</c:v>
+                  <c:v>322.3942251617088</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>302.0801339751708</c:v>
+                  <c:v>323.5000632283896</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>302.1766834255066</c:v>
+                  <c:v>324.6328641714422</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>302.2752958133973</c:v>
+                  <c:v>325.7932097691628</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>302.3760015333175</c:v>
+                  <c:v>326.9817267308578</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>302.4788309797419</c:v>
+                  <c:v>328.1990417658336</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>302.5838145471449</c:v>
+                  <c:v>329.4457815833965</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>302.6909826300013</c:v>
+                  <c:v>330.7225728928531</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>302.8003656227856</c:v>
+                  <c:v>332.0300424035096</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>302.9119939199724</c:v>
+                  <c:v>333.3688705837313</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>303.0258979160363</c:v>
+                  <c:v>334.7396883301828</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>303.1421080054519</c:v>
+                  <c:v>336.1432302498833</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>303.2606545826937</c:v>
+                  <c:v>337.5802508792631</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>303.3815680422365</c:v>
+                  <c:v>339.0515047547526</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>303.5048787785548</c:v>
+                  <c:v>340.5577464127822</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>303.6306171861231</c:v>
+                  <c:v>342.0997713260697</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>303.7588136594161</c:v>
+                  <c:v>343.6783274190019</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>303.8894985929084</c:v>
+                  <c:v>345.2942511388117</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>304.0227023810745</c:v>
+                  <c:v>346.948434702603</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>304.1584554183891</c:v>
+                  <c:v>348.6417703274802</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>304.2967880993267</c:v>
+                  <c:v>350.3751502305474</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>304.437730818362</c:v>
+                  <c:v>352.1494964447985</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>304.5813139699695</c:v>
+                  <c:v>353.9657216614868</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>304.7275679486239</c:v>
+                  <c:v>355.8247675314133</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>304.8765231487997</c:v>
+                  <c:v>357.72768824196</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>305.0282099649716</c:v>
+                  <c:v>359.6755379805089</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>305.182658791614</c:v>
+                  <c:v>361.6693709344419</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>305.3399000232017</c:v>
+                  <c:v>363.7102507042958</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>305.4999767846822</c:v>
+                  <c:v>365.7993053495579</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>305.6629686583703</c:v>
+                  <c:v>367.9375796291849</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>305.8289135824617</c:v>
+                  <c:v>370.1263150118061</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>305.9978491326338</c:v>
+                  <c:v>372.3667529660506</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>306.1698128845641</c:v>
+                  <c:v>374.6601349605476</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>306.3448424139299</c:v>
+                  <c:v>377.0077024639264</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>306.5229752964086</c:v>
+                  <c:v>379.410786421824</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>306.7042491076778</c:v>
+                  <c:v>381.8706010538195</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>306.8887014234148</c:v>
+                  <c:v>384.3885726522918</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>307.076369819297</c:v>
+                  <c:v>386.9661509742073</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>307.267291871002</c:v>
+                  <c:v>389.6047857765324</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>307.461505154207</c:v>
+                  <c:v>392.3059268162336</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>307.6590472445895</c:v>
+                  <c:v>395.071090800076</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>307.8599557178269</c:v>
+                  <c:v>397.9017265774571</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>308.0642681495968</c:v>
+                  <c:v>400.7994319442053</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>308.2720221155764</c:v>
+                  <c:v>403.7658689941556</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>308.4832551914431</c:v>
+                  <c:v>406.8026998211431</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>308.6980049528746</c:v>
+                  <c:v>409.9115865190028</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>308.916013625679</c:v>
+                  <c:v>413.0942229785173</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>309.1368759436576</c:v>
+                  <c:v>416.3523092730877</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>309.3617379167778</c:v>
+                  <c:v>419.6876001226173</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>309.590573712329</c:v>
+                  <c:v>423.1019299659025</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>309.823357497601</c:v>
+                  <c:v>426.5971332417398</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>310.0600634398833</c:v>
+                  <c:v>430.1750443889256</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>310.3006657064655</c:v>
+                  <c:v>433.83749417565</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>310.5451384646371</c:v>
+                  <c:v>437.5863491935405</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>310.7934558816879</c:v>
+                  <c:v>441.4235257058147</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>311.0455921249072</c:v>
+                  <c:v>445.3508908869226</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>311.3015213615848</c:v>
+                  <c:v>449.3703119113146</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>311.5612177590102</c:v>
+                  <c:v>453.4836559534407</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>311.8246554844731</c:v>
+                  <c:v>457.692790187751</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>312.0918087052629</c:v>
+                  <c:v>461.9995567039238</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>312.3626515886693</c:v>
+                  <c:v>466.4057323661483</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>312.637158301982</c:v>
+                  <c:v>470.9130352071475</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>312.9153030124904</c:v>
+                  <c:v>475.5231927499785</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>313.1970598874842</c:v>
+                  <c:v>480.2377427699367</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>313.4824030942528</c:v>
+                  <c:v>485.0581622196021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>313.7713068000861</c:v>
+                  <c:v>489.9858769398691</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>314.0637451722735</c:v>
+                  <c:v>495.0221269365451</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>314.3596923781046</c:v>
+                  <c:v>500.167888747676</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>314.659122584869</c:v>
+                  <c:v>505.4240490878118</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>314.9620099598563</c:v>
+                  <c:v>510.7913981580401</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>315.2683286703561</c:v>
+                  <c:v>516.2701366715945</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>315.5742942184917</c:v>
+                  <c:v>521.8603137798444</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>315.8802157711766</c:v>
+                  <c:v>527.5618643889262</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>316.1917746393318</c:v>
+                  <c:v>533.3740575907698</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>316.508349778844</c:v>
+                  <c:v>539.2956257259922</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>316.8293201456001</c:v>
+                  <c:v>545.3250485902935</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>317.1540646954869</c:v>
+                  <c:v>551.4604768899071</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>317.481962384391</c:v>
+                  <c:v>557.6987105088559</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>317.8123921681993</c:v>
+                  <c:v>564.0363393758854</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>318.1447330027985</c:v>
+                  <c:v>570.4693864499042</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>318.4783638440755</c:v>
+                  <c:v>576.9924888941063</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>318.812663647917</c:v>
+                  <c:v>583.599658694901</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>319.1470113702097</c:v>
+                  <c:v>590.2840287987441</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>319.4807859668405</c:v>
+                  <c:v>597.0371142911179</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>319.8133663936961</c:v>
+                  <c:v>603.8498062470056</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>320.1441316066632</c:v>
+                  <c:v>610.7113421075107</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>320.4724605616287</c:v>
+                  <c:v>617.6094896088933</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>320.7977322144794</c:v>
+                  <c:v>624.5311531499208</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>321.1193255211019</c:v>
+                  <c:v>631.4608058689759</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>321.4366194373832</c:v>
+                  <c:v>638.3819285113585</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>321.7489929192098</c:v>
+                  <c:v>645.2763482026268</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>322.0558249224687</c:v>
+                  <c:v>652.1235909114234</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>322.3564944030466</c:v>
+                  <c:v>658.9023399999862</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>322.6503803168302</c:v>
+                  <c:v>665.5888528277167</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>322.9368616197064</c:v>
+                  <c:v>672.1579709939938</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>323.2153172675619</c:v>
+                  <c:v>678.5833586370211</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>323.4848774818756</c:v>
+                  <c:v>684.8365634242067</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>323.7437095837121</c:v>
+                  <c:v>690.8884385477123</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>323.9906704252475</c:v>
+                  <c:v>696.7086526823862</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>324.2247186259801</c:v>
+                  <c:v>702.2660899228738</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>324.4448128054084</c:v>
+                  <c:v>707.5291601329305</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>324.6499165661559</c:v>
+                  <c:v>712.4664513106399</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>324.8390277467416</c:v>
+                  <c:v>717.0469983953891</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>325.0268224568944</c:v>
+                  <c:v>721.2403831012949</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>326.1283059784138</c:v>
+                  <c:v>734.8532163754774</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>328.8637453670465</c:v>
+                  <c:v>767.5857499942739</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>333.2779406723466</c:v>
+                  <c:v>818.9805362801342</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>339.2622655638208</c:v>
+                  <c:v>888.2341977584728</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>346.755680541857</c:v>
+                  <c:v>974.2162452913308</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>355.6130583872677</c:v>
+                  <c:v>1075.501410525879</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>365.6680294335807</c:v>
+                  <c:v>1190.406668412134</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>376.7542240143239</c:v>
+                  <c:v>1317.037911229588</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>388.7052724630248</c:v>
+                  <c:v>1453.340486576427</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>401.3807205474722</c:v>
+                  <c:v>1597.152886969794</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>414.5263612838918</c:v>
+                  <c:v>1746.261801759688</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>427.9781511524238</c:v>
+                  <c:v>1898.458127308842</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>441.5890900402995</c:v>
+                  <c:v>2051.584782399842</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>455.2121778347506</c:v>
+                  <c:v>2203.587751341256</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>468.7004144230084</c:v>
+                  <c:v>2352.555374991947</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>481.9067996923043</c:v>
+                  <c:v>2496.75312559516</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>494.7288741719951</c:v>
+                  <c:v>2634.650361110611</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>507.0074518898757</c:v>
+                  <c:v>2764.939131866323</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>518.651857233756</c:v>
+                  <c:v>2886.545065432711</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>529.6320232617593</c:v>
+                  <c:v>2998.630675610239</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>539.9178830320086</c:v>
+                  <c:v>3100.59172303576</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>549.4793696026267</c:v>
+                  <c:v>3192.04746786198</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>558.2864160317366</c:v>
+                  <c:v>3272.825624771354</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>566.318773837153</c:v>
+                  <c:v>3342.944089887147</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>573.579590012685</c:v>
+                  <c:v>3402.588304183883</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>580.0761491368087</c:v>
+                  <c:v>3452.087762864421</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>585.8495171676873</c:v>
+                  <c:v>3491.891645583304</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>590.9407600634838</c:v>
+                  <c:v>3522.543423455216</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>595.3909437823618</c:v>
+                  <c:v>3544.659245828992</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>599.2411342824842</c:v>
+                  <c:v>3558.903570644846</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>602.5315345287772</c:v>
+                  <c:v>3565.969215233599</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>605.2804743346516</c:v>
+                  <c:v>3566.560292707828</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>607.5951080115678</c:v>
+                  <c:v>3561.375567608964</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>609.5108351920187</c:v>
+                  <c:v>3551.096745120728</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>611.0630555084972</c:v>
+                  <c:v>3536.376247230774</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>612.2871685934961</c:v>
+                  <c:v>3517.829913033986</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>613.2185740795084</c:v>
+                  <c:v>3496.033768020098</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>613.8926715990268</c:v>
+                  <c:v>3471.514594928866</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>614.3448607845444</c:v>
+                  <c:v>3444.753526094177</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>614.610541268554</c:v>
+                  <c:v>3416.183627836523</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>614.7251126835484</c:v>
+                  <c:v>3386.188154031753</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>614.6883199765576</c:v>
+                  <c:v>3355.107472597903</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>614.5595892726511</c:v>
+                  <c:v>3323.236680764473</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>614.3618100477445</c:v>
+                  <c:v>3290.830671262833</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>614.1020012593676</c:v>
+                  <c:v>3258.109158831021</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>613.7871818650507</c:v>
+                  <c:v>3225.256133296909</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>613.4243708223235</c:v>
+                  <c:v>3192.426937389072</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>613.020587088716</c:v>
+                  <c:v>3159.750778391127</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>612.582849621758</c:v>
+                  <c:v>3127.332263665272</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>612.1181773789796</c:v>
+                  <c:v>3095.25803872663</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>611.6335893179105</c:v>
+                  <c:v>3063.595048394426</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>611.1361043960809</c:v>
+                  <c:v>3032.398081758514</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>610.6327415710207</c:v>
+                  <c:v>3001.707374212057</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>610.12915842958</c:v>
+                  <c:v>2971.554668143806</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>609.6245846393366</c:v>
+                  <c:v>2941.961461911891</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>609.1230791864688</c:v>
+                  <c:v>2912.944121786244</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>608.6250137474377</c:v>
+                  <c:v>2884.511013134736</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>608.1307599987049</c:v>
+                  <c:v>2856.667687739794</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>607.6406896167314</c:v>
+                  <c:v>2829.415122911302</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>607.1551742779789</c:v>
+                  <c:v>2802.751129776289</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>606.6745856589084</c:v>
+                  <c:v>2776.672201545136</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>606.1992954359814</c:v>
+                  <c:v>2751.171665364664</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>605.7296752856594</c:v>
+                  <c:v>2726.242065586759</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>605.2660968844035</c:v>
+                  <c:v>2701.875200812205</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>604.8089319086752</c:v>
+                  <c:v>2678.061527012445</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>604.3585520349357</c:v>
+                  <c:v>2654.791038506485</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>603.9147224658453</c:v>
+                  <c:v>2632.053491866196</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>603.4776132137116</c:v>
+                  <c:v>2609.838310493391</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>603.0473483092114</c:v>
+                  <c:v>2588.134648951898</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>602.6238609173977</c:v>
+                  <c:v>2566.931661805543</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>602.2070842033229</c:v>
+                  <c:v>2546.218559948537</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>601.7969513320401</c:v>
+                  <c:v>2525.984416316994</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>601.393395468602</c:v>
+                  <c:v>2506.218458783979</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>600.9963497780614</c:v>
+                  <c:v>2486.910244448427</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>600.605747425471</c:v>
+                  <c:v>2468.049330409271</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>600.2215215758838</c:v>
+                  <c:v>2449.625405067521</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>599.8436053943524</c:v>
+                  <c:v>2431.628099931958</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>599.4719320459296</c:v>
+                  <c:v>2414.047561388475</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>599.1064346956682</c:v>
+                  <c:v>2396.874239967294</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>598.7470465086211</c:v>
+                  <c:v>2380.098586198637</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>598.3937006498411</c:v>
+                  <c:v>2363.711239265334</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>598.0463302843808</c:v>
+                  <c:v>2347.70278844304</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>597.7048685772932</c:v>
+                  <c:v>2332.064491968548</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>597.3692486936309</c:v>
+                  <c:v>2316.787801025397</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>597.0394037984468</c:v>
+                  <c:v>2301.864166797128</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>596.7152670567936</c:v>
+                  <c:v>2287.285272105531</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>596.3967716337243</c:v>
+                  <c:v>2273.04274602444</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>596.0838506942914</c:v>
+                  <c:v>2259.128923190663</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>595.7764374035479</c:v>
+                  <c:v>2245.536228877835</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>595.4744649265465</c:v>
+                  <c:v>2232.257088359593</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>595.1778664283401</c:v>
+                  <c:v>2219.284337972931</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>594.8870561316286</c:v>
+                  <c:v>2206.610274932528</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>594.6013938911245</c:v>
+                  <c:v>2194.228309310867</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>594.3207709625812</c:v>
+                  <c:v>2182.131880459136</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>594.0451327999484</c:v>
+                  <c:v>2170.314427728521</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>593.7744248571762</c:v>
+                  <c:v>2158.769396886431</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>593.5085925882144</c:v>
+                  <c:v>2147.490656112631</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>593.2475814470129</c:v>
+                  <c:v>2136.471673480861</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>592.9913368875216</c:v>
+                  <c:v>2125.706851485121</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>592.7398043636905</c:v>
+                  <c:v>2115.190592619414</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>592.4929293294693</c:v>
+                  <c:v>2104.917299377739</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>592.250657238808</c:v>
+                  <c:v>2094.881405385978</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>592.0129335456566</c:v>
+                  <c:v>2085.077629866512</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>591.7797037039646</c:v>
+                  <c:v>2075.500477009418</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>591.5509131676824</c:v>
+                  <c:v>2066.145175404783</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>591.3265073907596</c:v>
+                  <c:v>2057.006953642696</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>591.1064318271461</c:v>
+                  <c:v>2048.081040313246</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>590.8906319307919</c:v>
+                  <c:v>2039.36271152253</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>590.6790531556468</c:v>
+                  <c:v>2030.847428680503</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>590.4716409556607</c:v>
+                  <c:v>2022.530565226577</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>590.2683407847836</c:v>
+                  <c:v>2014.408054666859</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>590.0690980969654</c:v>
+                  <c:v>2006.475830507459</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>589.8738583461558</c:v>
+                  <c:v>1998.729826254484</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>589.6825669863047</c:v>
+                  <c:v>1991.166032854207</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>589.4951694713621</c:v>
+                  <c:v>1983.78055168644</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>589.3116112552781</c:v>
+                  <c:v>1976.569486461943</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>589.1318377920022</c:v>
+                  <c:v>1969.529371486678</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>588.9557945354845</c:v>
+                  <c:v>1962.656741066608</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>588.7834269396749</c:v>
+                  <c:v>1955.948129507696</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>588.6146804585233</c:v>
+                  <c:v>1949.400134325499</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>588.4495005459795</c:v>
+                  <c:v>1943.009410785009</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>588.2878326559934</c:v>
+                  <c:v>1936.772676494154</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>588.129622242515</c:v>
+                  <c:v>1930.686980270135</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>587.9748147594941</c:v>
+                  <c:v>1924.749370930151</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>587.8233556608807</c:v>
+                  <c:v>1918.9568972914</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>587.6751904006245</c:v>
+                  <c:v>1913.306617876303</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>587.5302644326755</c:v>
+                  <c:v>1907.795748044333</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>587.3885232109836</c:v>
+                  <c:v>1902.421618317689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7318,7 +7318,7 @@
         <v>454.9384845735369</v>
       </c>
       <c r="C2">
-        <v>1.088759781086738</v>
+        <v>1.131805852811387</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -7332,10 +7332,10 @@
         <v>453.0020688411092</v>
       </c>
       <c r="C3">
-        <v>1.093584814837097</v>
+        <v>1.13858357365794</v>
       </c>
       <c r="D3">
-        <v>300.0469144603183</v>
+        <v>300.5119468395864</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7346,10 +7346,10 @@
         <v>451.0178404944635</v>
       </c>
       <c r="C4">
-        <v>1.098572750665171</v>
+        <v>1.145601122446795</v>
       </c>
       <c r="D4">
-        <v>300.0952021906049</v>
+        <v>301.0397151307935</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7360,10 +7360,10 @@
         <v>448.9858719852913</v>
       </c>
       <c r="C5">
-        <v>1.103727223163851</v>
+        <v>1.152864696080841</v>
       </c>
       <c r="D5">
-        <v>300.144879352565</v>
+        <v>301.5835563658079</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7374,10 +7374,10 @@
         <v>446.9062461758243</v>
       </c>
       <c r="C6">
-        <v>1.109052012361073</v>
+        <v>1.160380782499228</v>
       </c>
       <c r="D6">
-        <v>300.195962782892</v>
+        <v>302.1437360018979</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7388,10 +7388,10 @@
         <v>444.7790569342612</v>
       </c>
       <c r="C7">
-        <v>1.114551046180408</v>
+        <v>1.168156117514515</v>
       </c>
       <c r="D7">
-        <v>300.2484693182793</v>
+        <v>302.7205194963318</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7402,10 +7402,10 @@
         <v>442.6044097388335</v>
       </c>
       <c r="C8">
-        <v>1.12022984923898</v>
+        <v>1.176197814064508</v>
       </c>
       <c r="D8">
-        <v>300.3028027996441</v>
+        <v>303.3142030624359</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7416,10 +7416,10 @@
         <v>440.3824222897506</v>
       </c>
       <c r="C9">
-        <v>1.126092607895183</v>
+        <v>1.184513022470934</v>
       </c>
       <c r="D9">
-        <v>300.3589600910402</v>
+        <v>303.9250230392072</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7430,10 +7430,10 @@
         <v>438.1132251282135</v>
       </c>
       <c r="C10">
-        <v>1.132141836343792</v>
+        <v>1.193109330595898</v>
       </c>
       <c r="D10">
-        <v>300.4164508526008</v>
+        <v>304.5532567258264</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7444,10 +7444,10 @@
         <v>435.7969622616277</v>
       </c>
       <c r="C11">
-        <v>1.138382152344295</v>
+        <v>1.201994806129919</v>
       </c>
       <c r="D11">
-        <v>300.4753054788007</v>
+        <v>305.1992291570851</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7458,10 +7458,10 @@
         <v>433.4337917941004</v>
       </c>
       <c r="C12">
-        <v>1.144818350458418</v>
+        <v>1.211177824853032</v>
       </c>
       <c r="D12">
-        <v>300.5355543641144</v>
+        <v>305.8632653677749</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7472,10 +7472,10 @@
         <v>431.0238865612484</v>
       </c>
       <c r="C13">
-        <v>1.151455408600174</v>
+        <v>1.220667083714742</v>
       </c>
       <c r="D13">
-        <v>300.5972279030166</v>
+        <v>306.5456903926873</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7486,10 +7486,10 @@
         <v>428.5674347682892</v>
       </c>
       <c r="C14">
-        <v>1.158298494897393</v>
+        <v>1.230471614560357</v>
       </c>
       <c r="D14">
-        <v>300.6603564899818</v>
+        <v>307.2468292666141</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7500,10 +7500,10 @@
         <v>426.0646406303418</v>
       </c>
       <c r="C15">
-        <v>1.165352974880171</v>
+        <v>1.240600798538169</v>
       </c>
       <c r="D15">
-        <v>300.7249705194845</v>
+        <v>307.9670070243467</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7514,10 +7514,10 @@
         <v>423.5157250138036</v>
       </c>
       <c r="C16">
-        <v>1.172624419012605</v>
+        <v>1.25106455760744</v>
       </c>
       <c r="D16">
-        <v>300.7911003859996</v>
+        <v>308.7065922241941</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7528,10 +7528,10 @@
         <v>420.920926077624</v>
       </c>
       <c r="C17">
-        <v>1.18011861058506</v>
+        <v>1.261872927016574</v>
       </c>
       <c r="D17">
-        <v>300.8587764840014</v>
+        <v>309.4658868732218</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7542,10 +7542,10 @@
         <v>418.280499913244</v>
       </c>
       <c r="C18">
-        <v>1.187841553985215</v>
+        <v>1.273036578155952</v>
       </c>
       <c r="D18">
-        <v>300.9280292079646</v>
+        <v>310.2452517916983</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7556,10 +7556,10 @@
         <v>415.5947211819234</v>
       </c>
       <c r="C19">
-        <v>1.195799483367159</v>
+        <v>1.284566791931937</v>
       </c>
       <c r="D19">
-        <v>300.9988889523639</v>
+        <v>311.0450940771756</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7570,10 +7570,10 @@
         <v>412.8638837481304</v>
       </c>
       <c r="C20">
-        <v>1.203998871738885</v>
+        <v>1.296475291399642</v>
       </c>
       <c r="D20">
-        <v>301.0713861116737</v>
+        <v>311.8658208272052</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7584,10 +7584,10 @@
         <v>410.0883013076264</v>
       </c>
       <c r="C21">
-        <v>1.212446440489695</v>
+        <v>1.308774261787272</v>
       </c>
       <c r="D21">
-        <v>301.1455510803687</v>
+        <v>312.7078391393389</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7598,10 +7598,10 @@
         <v>407.2683080088377</v>
       </c>
       <c r="C22">
-        <v>1.221149169380218</v>
+        <v>1.321476371544523</v>
       </c>
       <c r="D22">
-        <v>301.2214142529235</v>
+        <v>313.5715561111284</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7612,10 +7612,10 @@
         <v>404.4042590660646</v>
       </c>
       <c r="C23">
-        <v>1.230114307019048</v>
+        <v>1.334594794472169</v>
       </c>
       <c r="D23">
-        <v>301.2990060238127</v>
+        <v>314.4573788401254</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7626,10 +7626,10 @@
         <v>401.4965313630503</v>
       </c>
       <c r="C24">
-        <v>1.239349381851321</v>
+        <v>1.348143478898653</v>
       </c>
       <c r="D24">
-        <v>301.3783567875109</v>
+        <v>315.3657719475208</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7640,10 +7640,10 @@
         <v>398.545524045394</v>
       </c>
       <c r="C25">
-        <v>1.248862213686005</v>
+        <v>1.362136526849383</v>
       </c>
       <c r="D25">
-        <v>301.4594969384926</v>
+        <v>316.2971056193924</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7654,10 +7654,10 @@
         <v>395.5516591002702</v>
       </c>
       <c r="C26">
-        <v>1.258660925790162</v>
+        <v>1.376589003980651</v>
       </c>
       <c r="D26">
-        <v>301.5424568712325</v>
+        <v>317.2518397533274</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7668,10 +7668,10 @@
         <v>392.5153819218948</v>
       </c>
       <c r="C27">
-        <v>1.268753957579984</v>
+        <v>1.391516790428195</v>
       </c>
       <c r="D27">
-        <v>301.6272669802052</v>
+        <v>318.2304802866903</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7682,10 +7682,10 @@
         <v>389.4371618611553</v>
       </c>
       <c r="C28">
-        <v>1.279150077940133</v>
+        <v>1.406936414908088</v>
       </c>
       <c r="D28">
-        <v>301.7139576598852</v>
+        <v>319.2335331568454</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7696,10 +7696,10 @@
         <v>386.3174927578167</v>
       </c>
       <c r="C29">
-        <v>1.289858399204593</v>
+        <v>1.422865085777306</v>
       </c>
       <c r="D29">
-        <v>301.8025593047472</v>
+        <v>320.2615043011572</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7710,10 +7710,10 @@
         <v>383.1568934536983</v>
       </c>
       <c r="C30">
-        <v>1.300888391834132</v>
+        <v>1.439320723745581</v>
       </c>
       <c r="D30">
-        <v>301.8931023092658</v>
+        <v>321.3148996569902</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7724,10 +7724,10 @@
         <v>379.9559082852276</v>
       </c>
       <c r="C31">
-        <v>1.312249899827344</v>
+        <v>1.456321996333891</v>
       </c>
       <c r="D31">
-        <v>301.9856170679154</v>
+        <v>322.3942251617088</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7738,10 +7738,10 @@
         <v>376.7151075537643</v>
       </c>
       <c r="C32">
-        <v>1.323953156904346</v>
+        <v>1.473888702609466</v>
       </c>
       <c r="D32">
-        <v>302.0801339751708</v>
+        <v>323.5000632283896</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7752,10 +7752,10 @@
         <v>373.435087972113</v>
       </c>
       <c r="C33">
-        <v>1.336008803504243</v>
+        <v>1.49204086812324</v>
       </c>
       <c r="D33">
-        <v>302.1766834255066</v>
+        <v>324.6328641714422</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7766,10 +7766,10 @@
         <v>370.116473085649</v>
       </c>
       <c r="C34">
-        <v>1.348427904639778</v>
+        <v>1.510799981151336</v>
       </c>
       <c r="D34">
-        <v>302.2752958133973</v>
+        <v>325.7932097691628</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7780,10 +7780,10 @@
         <v>366.7599136665037</v>
       </c>
       <c r="C35">
-        <v>1.361221968654867</v>
+        <v>1.53018865750544</v>
       </c>
       <c r="D35">
-        <v>302.3760015333175</v>
+        <v>326.9817267308578</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7794,10 +7794,10 @@
         <v>363.3660880792923</v>
       </c>
       <c r="C36">
-        <v>1.374402966933177</v>
+        <v>1.550230483931912</v>
       </c>
       <c r="D36">
-        <v>302.4788309797419</v>
+        <v>328.1990417658336</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7808,10 +7808,10 @@
         <v>359.9357026168915</v>
       </c>
       <c r="C37">
-        <v>1.387983354608452</v>
+        <v>1.570950067023834</v>
       </c>
       <c r="D37">
-        <v>302.5838145471449</v>
+        <v>329.4457815833965</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7822,10 +7822,10 @@
         <v>356.4694918048208</v>
       </c>
       <c r="C38">
-        <v>1.401976092329957</v>
+        <v>1.592373084834139</v>
       </c>
       <c r="D38">
-        <v>302.6909826300013</v>
+        <v>330.7225728928531</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7836,10 +7836,10 @@
         <v>352.9682186728278</v>
       </c>
       <c r="C39">
-        <v>1.416394669139136</v>
+        <v>1.614526341349843</v>
       </c>
       <c r="D39">
-        <v>302.8003656227856</v>
+        <v>332.0300424035096</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7850,10 +7850,10 @@
         <v>349.4326749923337</v>
       </c>
       <c r="C40">
-        <v>1.431253126516508</v>
+        <v>1.637438088050375</v>
       </c>
       <c r="D40">
-        <v>302.9119939199724</v>
+        <v>333.3688705837313</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7864,10 +7864,10 @@
         <v>345.8636814784479</v>
       </c>
       <c r="C41">
-        <v>1.446566083660743</v>
+        <v>1.661137585471098</v>
       </c>
       <c r="D41">
-        <v>303.0258979160363</v>
+        <v>334.7396883301828</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7878,10 +7878,10 @@
         <v>342.2620879553368</v>
       </c>
       <c r="C42">
-        <v>1.462348764064983</v>
+        <v>1.685655923865699</v>
       </c>
       <c r="D42">
-        <v>303.1421080054519</v>
+        <v>336.1432302498833</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7892,10 +7892,10 @@
         <v>338.6287734837973</v>
       </c>
       <c r="C43">
-        <v>1.478617023458589</v>
+        <v>1.711025694278642</v>
       </c>
       <c r="D43">
-        <v>303.2606545826937</v>
+        <v>337.5802508792631</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7906,10 +7906,10 @@
         <v>334.964646449961</v>
       </c>
       <c r="C44">
-        <v>1.495387379185825</v>
+        <v>1.737280965291931</v>
       </c>
       <c r="D44">
-        <v>303.3815680422365</v>
+        <v>339.0515047547526</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7920,10 +7920,10 @@
         <v>331.2706446141488</v>
       </c>
       <c r="C45">
-        <v>1.512677041096219</v>
+        <v>1.764457360868146</v>
       </c>
       <c r="D45">
-        <v>303.5048787785548</v>
+        <v>340.5577464127822</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7934,10 +7934,10 @@
         <v>327.5477351189685</v>
       </c>
       <c r="C46">
-        <v>1.53050394402483</v>
+        <v>1.792592357136777</v>
       </c>
       <c r="D46">
-        <v>303.6306171861231</v>
+        <v>342.0997713260697</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7948,10 +7948,10 @@
         <v>323.7969144558572</v>
       </c>
       <c r="C47">
-        <v>1.548886781944004</v>
+        <v>1.821724912775772</v>
       </c>
       <c r="D47">
-        <v>303.7588136594161</v>
+        <v>343.6783274190019</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7962,10 +7962,10 @@
         <v>320.0192083893523</v>
       </c>
       <c r="C48">
-        <v>1.567845043871693</v>
+        <v>1.851896276654722</v>
       </c>
       <c r="D48">
-        <v>303.8894985929084</v>
+        <v>345.2942511388117</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7976,10 +7976,10 @@
         <v>316.2156718384867</v>
       </c>
       <c r="C49">
-        <v>1.587399051624856</v>
+        <v>1.883149935763202</v>
       </c>
       <c r="D49">
-        <v>304.0227023810745</v>
+        <v>346.948434702603</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7990,10 +7990,10 @@
         <v>312.3873887148046</v>
       </c>
       <c r="C50">
-        <v>1.607569999509816</v>
+        <v>1.915531431858396</v>
       </c>
       <c r="D50">
-        <v>304.1584554183891</v>
+        <v>348.6417703274802</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8004,10 +8004,10 @@
         <v>308.5354717165984</v>
       </c>
       <c r="C51">
-        <v>1.628379996044833</v>
+        <v>1.949088473181661</v>
       </c>
       <c r="D51">
-        <v>304.2967880993267</v>
+        <v>350.3751502305474</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -8018,10 +8018,10 @@
         <v>304.6610620790851</v>
       </c>
       <c r="C52">
-        <v>1.649852107813267</v>
+        <v>1.983871220630879</v>
       </c>
       <c r="D52">
-        <v>304.437730818362</v>
+        <v>352.1494964447985</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -8032,10 +8032,10 @@
         <v>300.7653292803428</v>
       </c>
       <c r="C53">
-        <v>1.672010405548757</v>
+        <v>2.01993220025326</v>
       </c>
       <c r="D53">
-        <v>304.5813139699695</v>
+        <v>353.9657216614868</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8046,10 +8046,10 @@
         <v>296.8494707029503</v>
       </c>
       <c r="C54">
-        <v>1.694880012556522</v>
+        <v>2.057326654213542</v>
       </c>
       <c r="D54">
-        <v>304.7275679486239</v>
+        <v>355.8247675314133</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -8060,10 +8060,10 @@
         <v>292.9147112513796</v>
       </c>
       <c r="C55">
-        <v>1.718487155577293</v>
+        <v>2.096113182319451</v>
       </c>
       <c r="D55">
-        <v>304.8765231487997</v>
+        <v>357.72768824196</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -8074,10 +8074,10 @@
         <v>288.9623029253086</v>
       </c>
       <c r="C56">
-        <v>1.742859218202329</v>
+        <v>2.136353268148161</v>
       </c>
       <c r="D56">
-        <v>305.0282099649716</v>
+        <v>359.6755379805089</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -8088,10 +8088,10 @@
         <v>284.9935243491365</v>
       </c>
       <c r="C57">
-        <v>1.768024796949308</v>
+        <v>2.178111440105501</v>
       </c>
       <c r="D57">
-        <v>305.182658791614</v>
+        <v>361.6693709344419</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -8102,10 +8102,10 @@
         <v>281.009680258094</v>
       </c>
       <c r="C58">
-        <v>1.794013760109557</v>
+        <v>2.221455499399404</v>
       </c>
       <c r="D58">
-        <v>305.3399000232017</v>
+        <v>363.7102507042958</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -8116,10 +8116,10 @@
         <v>277.0121009414553</v>
       </c>
       <c r="C59">
-        <v>1.82085738535373</v>
+        <v>2.266457045685069</v>
       </c>
       <c r="D59">
-        <v>305.4999767846822</v>
+        <v>365.7993053495579</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -8130,10 +8130,10 @@
         <v>273.0021416434657</v>
       </c>
       <c r="C60">
-        <v>1.848588573519273</v>
+        <v>2.3131907686725</v>
       </c>
       <c r="D60">
-        <v>305.6629686583703</v>
+        <v>367.9375796291849</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -8144,10 +8144,10 @@
         <v>268.9811819227082</v>
       </c>
       <c r="C61">
-        <v>1.87724145386806</v>
+        <v>2.361736399964554</v>
       </c>
       <c r="D61">
-        <v>305.8289135824617</v>
+        <v>370.1263150118061</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -8158,10 +8158,10 @@
         <v>264.950624970735</v>
       </c>
       <c r="C62">
-        <v>1.906851694383412</v>
+        <v>2.412177747821465</v>
       </c>
       <c r="D62">
-        <v>305.9978491326338</v>
+        <v>372.3667529660506</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -8172,10 +8172,10 @@
         <v>260.9118968908913</v>
       </c>
       <c r="C63">
-        <v>1.937456578503782</v>
+        <v>2.464602929352725</v>
       </c>
       <c r="D63">
-        <v>306.1698128845641</v>
+        <v>374.6601349605476</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -8186,10 +8186,10 @@
         <v>256.8664459383544</v>
       </c>
       <c r="C64">
-        <v>1.96909508313208</v>
+        <v>2.519104616153244</v>
       </c>
       <c r="D64">
-        <v>306.3448424139299</v>
+        <v>377.0077024639264</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -8200,10 +8200,10 @@
         <v>252.8157417225046</v>
       </c>
       <c r="C65">
-        <v>2.001807960129618</v>
+        <v>2.575780901529992</v>
       </c>
       <c r="D65">
-        <v>306.5229752964086</v>
+        <v>379.410786421824</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -8214,10 +8214,10 @@
         <v>248.7612743728317</v>
       </c>
       <c r="C66">
-        <v>2.035637821359881</v>
+        <v>2.634734201924398</v>
       </c>
       <c r="D66">
-        <v>306.7042491076778</v>
+        <v>381.8706010538195</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -8228,10 +8228,10 @@
         <v>244.704553669659</v>
       </c>
       <c r="C67">
-        <v>2.070629227329926</v>
+        <v>2.696073789864805</v>
       </c>
       <c r="D67">
-        <v>306.8887014234148</v>
+        <v>384.3885726522918</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -8242,10 +8242,10 @@
         <v>240.6471081410551</v>
       </c>
       <c r="C68">
-        <v>2.106828779455346</v>
+        <v>2.759914879743878</v>
       </c>
       <c r="D68">
-        <v>307.076369819297</v>
+        <v>386.9661509742073</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -8256,10 +8256,10 @@
         <v>236.5904841273563</v>
       </c>
       <c r="C69">
-        <v>2.144285215948039</v>
+        <v>2.826378803003764</v>
       </c>
       <c r="D69">
-        <v>307.267291871002</v>
+        <v>389.6047857765324</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -8270,10 +8270,10 @@
         <v>232.5362448148089</v>
       </c>
       <c r="C70">
-        <v>2.183049511293155</v>
+        <v>2.895593358506382</v>
       </c>
       <c r="D70">
-        <v>307.461505154207</v>
+        <v>392.3059268162336</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -8284,10 +8284,10 @@
         <v>228.485969239881</v>
       </c>
       <c r="C71">
-        <v>2.223174979242041</v>
+        <v>2.967693684954792</v>
       </c>
       <c r="D71">
-        <v>307.6590472445895</v>
+        <v>395.071090800076</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -8298,10 +8298,10 @@
         <v>224.4412512658597</v>
       </c>
       <c r="C72">
-        <v>2.264717379200224</v>
+        <v>3.042821664667812</v>
       </c>
       <c r="D72">
-        <v>307.8599557178269</v>
+        <v>397.9017265774571</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -8312,10 +8312,10 @@
         <v>220.4036985333859</v>
       </c>
       <c r="C73">
-        <v>2.307735025832413</v>
+        <v>3.12112797736693</v>
       </c>
       <c r="D73">
-        <v>308.0642681495968</v>
+        <v>400.7994319442053</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -8326,10 +8326,10 @@
         <v>216.3749313866268</v>
       </c>
       <c r="C74">
-        <v>2.352288901638511</v>
+        <v>3.20277196773043</v>
       </c>
       <c r="D74">
-        <v>308.2720221155764</v>
+        <v>403.7658689941556</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -8340,10 +8340,10 @@
         <v>212.356581776814</v>
       </c>
       <c r="C75">
-        <v>2.398442772174049</v>
+        <v>3.287921634188096</v>
       </c>
       <c r="D75">
-        <v>308.4832551914431</v>
+        <v>406.8026998211431</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -8354,10 +8354,10 @@
         <v>208.3502921449035</v>
       </c>
       <c r="C76">
-        <v>2.446263303493287</v>
+        <v>3.376754115138731</v>
       </c>
       <c r="D76">
-        <v>308.6980049528746</v>
+        <v>409.9115865190028</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -8368,10 +8368,10 @@
         <v>204.3577142851373</v>
       </c>
       <c r="C77">
-        <v>2.495817795067988</v>
+        <v>3.469456465350064</v>
       </c>
       <c r="D77">
-        <v>308.916013625679</v>
+        <v>413.0942229785173</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -8382,10 +8382,10 @@
         <v>200.3805081912936</v>
       </c>
       <c r="C78">
-        <v>2.547175281427</v>
+        <v>3.566225995636471</v>
       </c>
       <c r="D78">
-        <v>309.1368759436576</v>
+        <v>416.3523092730877</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -8396,10 +8396,10 @@
         <v>196.4203408874305</v>
       </c>
       <c r="C79">
-        <v>2.600420792416972</v>
+        <v>3.667271259239867</v>
       </c>
       <c r="D79">
-        <v>309.3617379167778</v>
+        <v>419.6876001226173</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -8410,10 +8410,10 @@
         <v>192.4788852449206</v>
       </c>
       <c r="C80">
-        <v>2.655633421964231</v>
+        <v>3.772812905038477</v>
       </c>
       <c r="D80">
-        <v>309.590573712329</v>
+        <v>423.1019299659025</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -8424,10 +8424,10 @@
         <v>188.5578187875755</v>
       </c>
       <c r="C81">
-        <v>2.712895728890921</v>
+        <v>3.883083632162088</v>
       </c>
       <c r="D81">
-        <v>309.823357497601</v>
+        <v>426.5971332417398</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -8438,10 +8438,10 @@
         <v>184.6588224866492</v>
       </c>
       <c r="C82">
-        <v>2.772293847805823</v>
+        <v>3.998328822838485</v>
       </c>
       <c r="D82">
-        <v>310.0600634398833</v>
+        <v>430.1750443889256</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -8452,10 +8452,10 @@
         <v>180.7835795474954</v>
       </c>
       <c r="C83">
-        <v>2.833917594533652</v>
+        <v>4.118807160212499</v>
       </c>
       <c r="D83">
-        <v>310.3006657064655</v>
+        <v>433.83749417565</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -8466,10 +8466,10 @@
         <v>176.9337741896296</v>
       </c>
       <c r="C84">
-        <v>2.897860564008051</v>
+        <v>4.24479167781305</v>
       </c>
       <c r="D84">
-        <v>310.5451384646371</v>
+        <v>437.5863491935405</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -8480,10 +8480,10 @@
         <v>173.1110904219308</v>
       </c>
       <c r="C85">
-        <v>2.964220218179712</v>
+        <v>4.376570619467588</v>
       </c>
       <c r="D85">
-        <v>310.7934558816879</v>
+        <v>441.4235257058147</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -8494,10 +8494,10 @@
         <v>169.3172108146806</v>
       </c>
       <c r="C86">
-        <v>3.033097961062369</v>
+        <v>4.514447190802144</v>
       </c>
       <c r="D86">
-        <v>311.0455921249072</v>
+        <v>445.3508908869226</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -8508,10 +8508,10 @@
         <v>165.5538152701106</v>
       </c>
       <c r="C87">
-        <v>3.104599197548455</v>
+        <v>4.65874071865254</v>
       </c>
       <c r="D87">
-        <v>311.3015213615848</v>
+        <v>449.3703119113146</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -8522,10 +8522,10 @@
         <v>161.8225797930893</v>
       </c>
       <c r="C88">
-        <v>3.178833372066047</v>
+        <v>4.809787353392366</v>
       </c>
       <c r="D88">
-        <v>311.5612177590102</v>
+        <v>453.4836559534407</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -8536,10 +8536,10 @@
         <v>158.1251752635391</v>
       </c>
       <c r="C89">
-        <v>3.255913982511411</v>
+        <v>4.967940762620075</v>
       </c>
       <c r="D89">
-        <v>311.8246554844731</v>
+        <v>457.692790187751</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -8550,10 +8550,10 @@
         <v>154.4632662121366</v>
       </c>
       <c r="C90">
-        <v>3.335958564168708</v>
+        <v>5.133572527909143</v>
       </c>
       <c r="D90">
-        <v>312.0918087052629</v>
+        <v>461.9995567039238</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -8564,10 +8564,10 @@
         <v>150.8385096007949</v>
       </c>
       <c r="C91">
-        <v>3.419088637512161</v>
+        <v>5.307072300255017</v>
       </c>
       <c r="D91">
-        <v>312.3626515886693</v>
+        <v>466.4057323661483</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -8578,10 +8578,10 @@
         <v>147.252553609385</v>
       </c>
       <c r="C92">
-        <v>3.505429612867541</v>
+        <v>5.488848383640804</v>
       </c>
       <c r="D92">
-        <v>312.637158301982</v>
+        <v>470.9130352071475</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -8592,10 +8592,10 @@
         <v>143.7070364301009</v>
       </c>
       <c r="C93">
-        <v>3.595110643881343</v>
+        <v>5.679328998389342</v>
       </c>
       <c r="D93">
-        <v>312.9153030124904</v>
+        <v>475.5231927499785</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -8606,10 +8606,10 @@
         <v>140.2035850708226</v>
       </c>
       <c r="C94">
-        <v>3.688264420600279</v>
+        <v>5.878960300878581</v>
       </c>
       <c r="D94">
-        <v>313.1970598874842</v>
+        <v>480.2377427699367</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -8620,10 +8620,10 @@
         <v>136.7438141687726</v>
       </c>
       <c r="C95">
-        <v>3.785026891694976</v>
+        <v>6.088208048649101</v>
       </c>
       <c r="D95">
-        <v>313.4824030942528</v>
+        <v>485.0581622196021</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -8634,10 +8634,10 @@
         <v>133.3293248157152</v>
       </c>
       <c r="C96">
-        <v>3.885536903966206</v>
+        <v>6.307557813854077</v>
       </c>
       <c r="D96">
-        <v>313.7713068000861</v>
+        <v>489.9858769398691</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -8648,10 +8648,10 @@
         <v>129.9617033958852</v>
       </c>
       <c r="C97">
-        <v>3.989935745749559</v>
+        <v>6.537513131477728</v>
       </c>
       <c r="D97">
-        <v>314.0637451722735</v>
+        <v>495.0221269365451</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -8662,10 +8662,10 @@
         <v>126.6425204377826</v>
       </c>
       <c r="C98">
-        <v>4.098366579189121</v>
+        <v>6.778593927828243</v>
       </c>
       <c r="D98">
-        <v>314.3596923781046</v>
+        <v>500.167888747676</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -8676,10 +8676,10 @@
         <v>123.3733294809079</v>
       </c>
       <c r="C99">
-        <v>4.210973744593279</v>
+        <v>7.031337993590227</v>
       </c>
       <c r="D99">
-        <v>314.659122584869</v>
+        <v>505.4240490878118</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -8690,10 +8690,10 @@
         <v>120.1556659584651</v>
       </c>
       <c r="C100">
-        <v>4.327901918234248</v>
+        <v>7.29629991720865</v>
       </c>
       <c r="D100">
-        <v>314.9620099598563</v>
+        <v>510.7913981580401</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -8704,10 +8704,10 @@
         <v>116.9910460969931</v>
       </c>
       <c r="C101">
-        <v>4.449295103038065</v>
+        <v>7.574042492381539</v>
       </c>
       <c r="D101">
-        <v>315.2683286703561</v>
+        <v>516.2701366715945</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -8718,10 +8718,10 @@
         <v>113.8809658338429</v>
       </c>
       <c r="C102">
-        <v>4.575240936014294</v>
+        <v>7.865140527415551</v>
       </c>
       <c r="D102">
-        <v>315.5742942184917</v>
+        <v>521.8603137798444</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -8732,10 +8732,10 @@
         <v>110.8268997533531</v>
       </c>
       <c r="C103">
-        <v>4.705878748340785</v>
+        <v>8.170178917026531</v>
       </c>
       <c r="D103">
-        <v>315.8802157711766</v>
+        <v>527.5618643889262</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -8746,10 +8746,10 @@
         <v>107.8303000425309</v>
       </c>
       <c r="C104">
-        <v>4.841425417767979</v>
+        <v>8.489740823207301</v>
       </c>
       <c r="D104">
-        <v>316.1917746393318</v>
+        <v>533.3740575907698</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -8760,10 +8760,10 @@
         <v>104.8925954669868</v>
       </c>
       <c r="C105">
-        <v>4.982001240599421</v>
+        <v>8.824404822494415</v>
       </c>
       <c r="D105">
-        <v>316.508349778844</v>
+        <v>539.2956257259922</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -8774,10 +8774,10 @@
         <v>102.0151903678276</v>
       </c>
       <c r="C106">
-        <v>5.127716577985923</v>
+        <v>9.174744097825913</v>
       </c>
       <c r="D106">
-        <v>316.8293201456001</v>
+        <v>545.3250485902935</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -8788,10 +8788,10 @@
         <v>99.19946368015324</v>
       </c>
       <c r="C107">
-        <v>5.278669228142823</v>
+        <v>9.541319200911786</v>
       </c>
       <c r="D107">
-        <v>317.1540646954869</v>
+        <v>551.4604768899071</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -8802,10 +8802,10 @@
         <v>96.44676797376539</v>
       </c>
       <c r="C108">
-        <v>5.434941439093137</v>
+        <v>9.92465272141704</v>
       </c>
       <c r="D108">
-        <v>317.481962384391</v>
+        <v>557.6987105088559</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8816,10 +8816,10 @@
         <v>93.75842851664086</v>
       </c>
       <c r="C109">
-        <v>5.5965965345861</v>
+        <v>10.32523923793347</v>
       </c>
       <c r="D109">
-        <v>317.8123921681993</v>
+        <v>564.0363393758854</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8830,10 +8830,10 @@
         <v>91.1357423616824</v>
       </c>
       <c r="C110">
-        <v>5.763675128702411</v>
+        <v>10.74352911927241</v>
       </c>
       <c r="D110">
-        <v>318.1447330027985</v>
+        <v>570.4693864499042</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -8844,10 +8844,10 @@
         <v>88.57997745721445</v>
       </c>
       <c r="C111">
-        <v>5.936190909314399</v>
+        <v>11.17990083995837</v>
       </c>
       <c r="D111">
-        <v>318.4783638440755</v>
+        <v>576.9924888941063</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -8858,10 +8858,10 @@
         <v>86.09237178165456</v>
       </c>
       <c r="C112">
-        <v>6.114125977452006</v>
+        <v>11.63466047379702</v>
       </c>
       <c r="D112">
-        <v>318.812663647917</v>
+        <v>583.599658694901</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8872,10 +8872,10 @@
         <v>83.67413250274423</v>
       </c>
       <c r="C113">
-        <v>6.297425739210643</v>
+        <v>12.10802117003815</v>
       </c>
       <c r="D113">
-        <v>319.1470113702097</v>
+        <v>590.2840287987441</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8886,10 +8886,10 @@
         <v>81.32643516169593</v>
       </c>
       <c r="C114">
-        <v>6.485993359627009</v>
+        <v>12.6000697969089</v>
       </c>
       <c r="D114">
-        <v>319.4807859668405</v>
+        <v>597.0371142911179</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -8900,10 +8900,10 @@
         <v>79.05042288256821</v>
       </c>
       <c r="C115">
-        <v>6.67968380445557</v>
+        <v>13.11076675098327</v>
       </c>
       <c r="D115">
-        <v>319.8133663936961</v>
+        <v>603.8498062470056</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -8914,10 +8914,10 @@
         <v>76.84720560715456</v>
       </c>
       <c r="C116">
-        <v>6.87829751647565</v>
+        <v>13.63990241493994</v>
       </c>
       <c r="D116">
-        <v>320.1441316066632</v>
+        <v>610.7113421075107</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8928,10 +8928,10 @@
         <v>74.71785935563842</v>
       </c>
       <c r="C117">
-        <v>7.081573798240288</v>
+        <v>14.18707604681154</v>
       </c>
       <c r="D117">
-        <v>320.4724605616287</v>
+        <v>617.6094896088933</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8942,10 +8942,10 @@
         <v>72.66342551323461</v>
       </c>
       <c r="C118">
-        <v>7.289184003279788</v>
+        <v>14.75168386400606</v>
       </c>
       <c r="D118">
-        <v>320.7977322144794</v>
+        <v>624.5311531499208</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -8956,10 +8956,10 @@
         <v>70.6849101430177</v>
       </c>
       <c r="C119">
-        <v>7.500724672687916</v>
+        <v>15.33285563374934</v>
       </c>
       <c r="D119">
-        <v>321.1193255211019</v>
+        <v>631.4608058689759</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -8970,10 +8970,10 @@
         <v>68.78328332510246</v>
       </c>
       <c r="C120">
-        <v>7.715710793393482</v>
+        <v>15.92945946002978</v>
       </c>
       <c r="D120">
-        <v>321.4366194373832</v>
+        <v>638.3819285113585</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8984,10 +8984,10 @@
         <v>66.95947852232982</v>
       </c>
       <c r="C121">
-        <v>7.933569397423757</v>
+        <v>16.54005850846821</v>
       </c>
       <c r="D121">
-        <v>321.7489929192098</v>
+        <v>645.2763482026268</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -8998,10 +8998,10 @@
         <v>65.2143919725788</v>
       </c>
       <c r="C122">
-        <v>8.153633766676414</v>
+        <v>17.16286629459136</v>
       </c>
       <c r="D122">
-        <v>322.0558249224687</v>
+        <v>652.1235909114234</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -9012,10 +9012,10 @@
         <v>63.54888210781604</v>
       </c>
       <c r="C123">
-        <v>8.375138552980495</v>
+        <v>17.79575802912137</v>
       </c>
       <c r="D123">
-        <v>322.3564944030466</v>
+        <v>658.9023399999862</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -9026,10 +9026,10 @@
         <v>61.96376899996756</v>
       </c>
       <c r="C124">
-        <v>8.597216165581733</v>
+        <v>18.43620679884404</v>
       </c>
       <c r="D124">
-        <v>322.6503803168302</v>
+        <v>665.5888528277167</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -9040,10 +9040,10 @@
         <v>60.45983383368911</v>
       </c>
       <c r="C125">
-        <v>8.8188948137983</v>
+        <v>19.08129128557117</v>
       </c>
       <c r="D125">
-        <v>322.9368616197064</v>
+        <v>672.1579709939938</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -9054,10 +9054,10 @@
         <v>59.03781840609101</v>
       </c>
       <c r="C126">
-        <v>9.039098616806863</v>
+        <v>19.72769120837191</v>
       </c>
       <c r="D126">
-        <v>323.2153172675619</v>
+        <v>678.5833586370211</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -9068,10 +9068,10 @@
         <v>57.69842465346358</v>
       </c>
       <c r="C127">
-        <v>9.256643082377435</v>
+        <v>20.37165632370024</v>
       </c>
       <c r="D127">
-        <v>323.4848774818756</v>
+        <v>684.8365634242067</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -9082,10 +9082,10 @@
         <v>56.44231420504</v>
       </c>
       <c r="C128">
-        <v>9.470218911404737</v>
+        <v>21.00905269932902</v>
       </c>
       <c r="D128">
-        <v>323.7437095837121</v>
+        <v>690.8884385477123</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -9096,10 +9096,10 @@
         <v>55.27010796381659</v>
       </c>
       <c r="C129">
-        <v>9.678447154508174</v>
+        <v>21.63536610934489</v>
       </c>
       <c r="D129">
-        <v>323.9906704252475</v>
+        <v>696.7086526823862</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -9110,10 +9110,10 @@
         <v>54.18238571445136</v>
       </c>
       <c r="C130">
-        <v>9.879875909502466</v>
+        <v>22.2457438404</v>
       </c>
       <c r="D130">
-        <v>324.2247186259801</v>
+        <v>702.2660899228738</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -9124,10 +9124,10 @@
         <v>53.17968575824655</v>
       </c>
       <c r="C131">
-        <v>10.07299364276892</v>
+        <v>22.83504828146881</v>
       </c>
       <c r="D131">
-        <v>324.4448128054084</v>
+        <v>707.5291601329305</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -9138,10 +9138,10 @@
         <v>52.26250457521967</v>
       </c>
       <c r="C132">
-        <v>10.25624929449361</v>
+        <v>23.39793649026323</v>
       </c>
       <c r="D132">
-        <v>324.6499165661559</v>
+        <v>712.4664513106399</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -9152,10 +9152,10 @@
         <v>51.43129651326064</v>
       </c>
       <c r="C133">
-        <v>10.42807680149651</v>
+        <v>23.92894255237094</v>
       </c>
       <c r="D133">
-        <v>324.8390277467416</v>
+        <v>717.0469983953891</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -9166,10 +9166,10 @@
         <v>50.68647350437045</v>
       </c>
       <c r="C134">
-        <v>10.58743159124006</v>
+        <v>24.4225673741423</v>
       </c>
       <c r="D134">
-        <v>325.0268224568944</v>
+        <v>721.2403831012949</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -9180,10 +9180,10 @@
         <v>50.0284048079714</v>
       </c>
       <c r="C135">
-        <v>10.76304933047588</v>
+        <v>25.2108391425624</v>
       </c>
       <c r="D135">
-        <v>326.1283059784138</v>
+        <v>734.8532163754774</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -9194,10 +9194,10 @@
         <v>49.4574167812807</v>
       </c>
       <c r="C136">
-        <v>10.9786277848058</v>
+        <v>26.63782932822941</v>
       </c>
       <c r="D136">
-        <v>328.8637453670465</v>
+        <v>767.5857499942739</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -9208,10 +9208,10 @@
         <v>48.97379267673445</v>
       </c>
       <c r="C137">
-        <v>11.23586007802955</v>
+        <v>28.70206869163128</v>
       </c>
       <c r="D137">
-        <v>333.2779406723466</v>
+        <v>818.9805362801342</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -9222,10 +9222,10 @@
         <v>48.57777246645135</v>
       </c>
       <c r="C138">
-        <v>11.53085346406009</v>
+        <v>31.38291285407358</v>
       </c>
       <c r="D138">
-        <v>339.2622655638208</v>
+        <v>888.2341977584728</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -9236,10 +9236,10 @@
         <v>48.26955269372488</v>
       </c>
       <c r="C139">
-        <v>11.86079505217917</v>
+        <v>34.6406035571832</v>
       </c>
       <c r="D139">
-        <v>346.755680541857</v>
+        <v>974.2162452913308</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -9250,10 +9250,10 @@
         <v>48.04928635153188</v>
       </c>
       <c r="C140">
-        <v>12.21952291095612</v>
+        <v>38.41734961636488</v>
       </c>
       <c r="D140">
-        <v>355.6130583872677</v>
+        <v>1075.501410525879</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -9264,10 +9264,10 @@
         <v>47.91708278805095</v>
       </c>
       <c r="C141">
-        <v>12.5996973331846</v>
+        <v>42.63913033008016</v>
       </c>
       <c r="D141">
-        <v>365.6680294335807</v>
+        <v>1190.406668412134</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -9278,10 +9278,10 @@
         <v>47.87300763918031</v>
       </c>
       <c r="C142">
-        <v>12.99364234890671</v>
+        <v>47.21836236086693</v>
       </c>
       <c r="D142">
-        <v>376.7542240143239</v>
+        <v>1317.037911229588</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -9292,10 +9292,10 @@
         <v>47.91708278805095</v>
       </c>
       <c r="C143">
-        <v>13.39348368090449</v>
+        <v>52.05714657477026</v>
       </c>
       <c r="D143">
-        <v>388.7052724630248</v>
+        <v>1453.340486576427</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -9306,10 +9306,10 @@
         <v>48.04928635153188</v>
       </c>
       <c r="C144">
-        <v>13.7921844967927</v>
+        <v>57.0509533962426</v>
       </c>
       <c r="D144">
-        <v>401.3807205474722</v>
+        <v>1597.152886969794</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -9320,10 +9320,10 @@
         <v>48.26955269372488</v>
       </c>
       <c r="C145">
-        <v>14.17889450932971</v>
+        <v>62.09254164481758</v>
       </c>
       <c r="D145">
-        <v>414.5263612838918</v>
+        <v>1746.261801759688</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -9334,10 +9334,10 @@
         <v>48.57777246645135</v>
       </c>
       <c r="C146">
-        <v>14.5461309661319</v>
+        <v>67.07594248993527</v>
       </c>
       <c r="D146">
-        <v>427.9781511524238</v>
+        <v>1898.458127308842</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -9348,10 +9348,10 @@
         <v>48.97379267673448</v>
       </c>
       <c r="C147">
-        <v>14.88737363675411</v>
+        <v>71.90003271457965</v>
       </c>
       <c r="D147">
-        <v>441.5890900402995</v>
+        <v>2051.584782399842</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -9362,10 +9362,10 @@
         <v>49.45741678128068</v>
       </c>
       <c r="C148">
-        <v>15.19658257854086</v>
+        <v>76.47196997917577</v>
       </c>
       <c r="D148">
-        <v>455.2121778347506</v>
+        <v>2203.587751341256</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -9376,10 +9376,10 @@
         <v>50.0284048079714</v>
       </c>
       <c r="C149">
-        <v>15.46828530113308</v>
+        <v>80.70985308525589</v>
       </c>
       <c r="D149">
-        <v>468.7004144230084</v>
+        <v>2352.555374991947</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -9390,10 +9390,10 @@
         <v>50.68647350437031</v>
       </c>
       <c r="C150">
-        <v>15.69764377145326</v>
+        <v>84.5447965132651</v>
       </c>
       <c r="D150">
-        <v>481.9067996923043</v>
+        <v>2496.75312559516</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -9404,10 +9404,10 @@
         <v>51.43129651326062</v>
       </c>
       <c r="C151">
-        <v>15.88192998719878</v>
+        <v>87.92226629172178</v>
       </c>
       <c r="D151">
-        <v>494.7288741719951</v>
+        <v>2634.650361110611</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -9418,10 +9418,10 @@
         <v>52.26250457521963</v>
       </c>
       <c r="C152">
-        <v>16.01723750848065</v>
+        <v>90.80268984994622</v>
       </c>
       <c r="D152">
-        <v>507.0074518898757</v>
+        <v>2764.939131866323</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -9432,10 +9432,10 @@
         <v>53.17968575824658</v>
       </c>
       <c r="C153">
-        <v>16.10251313791023</v>
+        <v>93.16138422253505</v>
       </c>
       <c r="D153">
-        <v>518.651857233756</v>
+        <v>2886.545065432711</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -9446,10 +9446,10 @@
         <v>54.18238571445131</v>
       </c>
       <c r="C154">
-        <v>16.13911082936665</v>
+        <v>94.98788399268587</v>
       </c>
       <c r="D154">
-        <v>529.6320232617593</v>
+        <v>2998.630675610239</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -9460,10 +9460,10 @@
         <v>55.27010796381656</v>
       </c>
       <c r="C155">
-        <v>16.12875670722404</v>
+        <v>96.28477675023876</v>
       </c>
       <c r="D155">
-        <v>539.9178830320086</v>
+        <v>3100.59172303576</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -9474,10 +9474,10 @@
         <v>56.44231420504003</v>
       </c>
       <c r="C156">
-        <v>16.07348579568926</v>
+        <v>97.06616832674182</v>
       </c>
       <c r="D156">
-        <v>549.4793696026267</v>
+        <v>3192.04746786198</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -9488,10 +9488,10 @@
         <v>57.69842465346355</v>
       </c>
       <c r="C157">
-        <v>15.97557861490763</v>
+        <v>97.3558983210167</v>
       </c>
       <c r="D157">
-        <v>558.2864160317366</v>
+        <v>3272.825624771354</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -9502,10 +9502,10 @@
         <v>59.03781840609098</v>
       </c>
       <c r="C158">
-        <v>15.8377743002371</v>
+        <v>97.18565581184826</v>
       </c>
       <c r="D158">
-        <v>566.318773837153</v>
+        <v>3342.944089887147</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -9516,10 +9516,10 @@
         <v>60.45983383368914</v>
       </c>
       <c r="C159">
-        <v>15.66355121646091</v>
+        <v>96.59303520718116</v>
       </c>
       <c r="D159">
-        <v>573.579590012685</v>
+        <v>3402.588304183883</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -9530,10 +9530,10 @@
         <v>61.96376899996753</v>
       </c>
       <c r="C160">
-        <v>15.45648277782996</v>
+        <v>95.61969617360926</v>
       </c>
       <c r="D160">
-        <v>580.0761491368087</v>
+        <v>3452.087762864421</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -9544,10 +9544,10 @@
         <v>63.54888210781595</v>
       </c>
       <c r="C161">
-        <v>15.22094625877574</v>
+        <v>94.30966475048839</v>
       </c>
       <c r="D161">
-        <v>585.8495171676873</v>
+        <v>3491.891645583304</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -9558,10 +9558,10 @@
         <v>65.21439197257881</v>
       </c>
       <c r="C162">
-        <v>14.9611159385768</v>
+        <v>92.70779747311074</v>
       </c>
       <c r="D162">
-        <v>590.9407600634838</v>
+        <v>3522.543423455216</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -9572,10 +9572,10 @@
         <v>66.95947852232968</v>
       </c>
       <c r="C163">
-        <v>14.68093288572027</v>
+        <v>90.85854685655406</v>
       </c>
       <c r="D163">
-        <v>595.3909437823618</v>
+        <v>3544.659245828992</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -9586,10 +9586,10 @@
         <v>68.78328332510243</v>
       </c>
       <c r="C164">
-        <v>14.38408385367369</v>
+        <v>88.80484803656785</v>
       </c>
       <c r="D164">
-        <v>599.2411342824842</v>
+        <v>3558.903570644846</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -9600,10 +9600,10 @@
         <v>70.6849101430175</v>
       </c>
       <c r="C165">
-        <v>14.07396811069702</v>
+        <v>86.58730781608699</v>
       </c>
       <c r="D165">
-        <v>602.5315345287772</v>
+        <v>3565.969215233599</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -9614,10 +9614,10 @@
         <v>72.66342551323459</v>
       </c>
       <c r="C166">
-        <v>13.75321677170699</v>
+        <v>84.24362764704699</v>
       </c>
       <c r="D166">
-        <v>605.2804743346516</v>
+        <v>3566.560292707828</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -9628,10 +9628,10 @@
         <v>74.71785935563838</v>
       </c>
       <c r="C167">
-        <v>13.42620701102726</v>
+        <v>81.80817629748648</v>
       </c>
       <c r="D167">
-        <v>607.5951080115678</v>
+        <v>3561.375567608964</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -9642,10 +9642,10 @@
         <v>76.84720560715459</v>
       </c>
       <c r="C168">
-        <v>13.09534191030288</v>
+        <v>79.31179549131528</v>
       </c>
       <c r="D168">
-        <v>609.5108351920187</v>
+        <v>3551.096745120728</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -9656,10 +9656,10 @@
         <v>79.05042288256826</v>
       </c>
       <c r="C169">
-        <v>12.76278112265197</v>
+        <v>76.78168253347869</v>
       </c>
       <c r="D169">
-        <v>611.0630555084972</v>
+        <v>3536.376247230774</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -9670,10 +9670,10 @@
         <v>81.32643516169587</v>
       </c>
       <c r="C170">
-        <v>12.43045179591623</v>
+        <v>74.24145229314703</v>
       </c>
       <c r="D170">
-        <v>612.2871685934961</v>
+        <v>3517.829913033986</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -9684,10 +9684,10 @@
         <v>83.67413250274427</v>
       </c>
       <c r="C171">
-        <v>12.10006139675481</v>
+        <v>71.71132676670791</v>
       </c>
       <c r="D171">
-        <v>613.2185740795084</v>
+        <v>3496.033768020098</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -9698,10 +9698,10 @@
         <v>86.09237178165434</v>
       </c>
       <c r="C172">
-        <v>11.77311179500744</v>
+        <v>69.20822012156766</v>
       </c>
       <c r="D172">
-        <v>613.8926715990268</v>
+        <v>3471.514594928866</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -9712,10 +9712,10 @@
         <v>88.57997745721441</v>
       </c>
       <c r="C173">
-        <v>11.45091407075525</v>
+        <v>66.74610775894845</v>
       </c>
       <c r="D173">
-        <v>614.3448607845444</v>
+        <v>3444.753526094177</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -9726,10 +9726,10 @@
         <v>91.13574236168223</v>
       </c>
       <c r="C174">
-        <v>11.1346036035641</v>
+        <v>64.33626265353746</v>
       </c>
       <c r="D174">
-        <v>614.610541268554</v>
+        <v>3416.183627836523</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -9740,10 +9740,10 @@
         <v>93.75842851664078</v>
       </c>
       <c r="C175">
-        <v>10.82515509196072</v>
+        <v>61.98750036872001</v>
       </c>
       <c r="D175">
-        <v>614.7251126835484</v>
+        <v>3386.188154031753</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -9754,10 +9754,10 @@
         <v>96.44676797376516</v>
       </c>
       <c r="C176">
-        <v>10.52278686095016</v>
+        <v>59.70656894326233</v>
       </c>
       <c r="D176">
-        <v>614.6883199765576</v>
+        <v>3355.107472597903</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -9768,10 +9768,10 @@
         <v>99.19946368015319</v>
       </c>
       <c r="C177">
-        <v>10.22864643361388</v>
+        <v>57.49833991762677</v>
       </c>
       <c r="D177">
-        <v>614.5595892726511</v>
+        <v>3323.236680764473</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -9782,10 +9782,10 @@
         <v>102.0151903678277</v>
       </c>
       <c r="C178">
-        <v>9.94312406697567</v>
+        <v>55.36611486335191</v>
       </c>
       <c r="D178">
-        <v>614.3618100477445</v>
+        <v>3290.830671262833</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -9796,10 +9796,10 @@
         <v>104.8925954669867</v>
       </c>
       <c r="C179">
-        <v>9.666275579353636</v>
+        <v>53.31189945161835</v>
       </c>
       <c r="D179">
-        <v>614.1020012593676</v>
+        <v>3258.109158831021</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9810,10 +9810,10 @@
         <v>107.8303000425309</v>
       </c>
       <c r="C180">
-        <v>9.398109317584982</v>
+        <v>51.3365587817152</v>
       </c>
       <c r="D180">
-        <v>613.7871818650507</v>
+        <v>3225.256133296909</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9824,10 +9824,10 @@
         <v>110.8268997533529</v>
       </c>
       <c r="C181">
-        <v>9.138592942010083</v>
+        <v>49.44007711439752</v>
       </c>
       <c r="D181">
-        <v>613.4243708223235</v>
+        <v>3192.426937389072</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9838,10 +9838,10 @@
         <v>113.8809658338428</v>
       </c>
       <c r="C182">
-        <v>8.887659533909726</v>
+        <v>47.62171647745011</v>
       </c>
       <c r="D182">
-        <v>613.020587088716</v>
+        <v>3159.750778391127</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9852,10 +9852,10 @@
         <v>116.991046096993</v>
       </c>
       <c r="C183">
-        <v>8.645213061909036</v>
+        <v>45.88014252674821</v>
       </c>
       <c r="D183">
-        <v>612.582849621758</v>
+        <v>3127.332263665272</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -9866,10 +9866,10 @@
         <v>120.1556659584651</v>
       </c>
       <c r="C184">
-        <v>8.411133248743841</v>
+        <v>44.21360863385758</v>
       </c>
       <c r="D184">
-        <v>612.1181773789796</v>
+        <v>3095.25803872663</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -9880,10 +9880,10 @@
         <v>123.3733294809078</v>
       </c>
       <c r="C185">
-        <v>8.185279882468352</v>
+        <v>42.6199985925246</v>
       </c>
       <c r="D185">
-        <v>611.6335893179105</v>
+        <v>3063.595048394426</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -9894,10 +9894,10 @@
         <v>126.6425204377825</v>
       </c>
       <c r="C186">
-        <v>7.967496617155947</v>
+        <v>41.09699100282714</v>
       </c>
       <c r="D186">
-        <v>611.1361043960809</v>
+        <v>3032.398081758514</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9908,10 +9908,10 @@
         <v>129.9617033958849</v>
       </c>
       <c r="C187">
-        <v>7.757614307830536</v>
+        <v>39.64206912771067</v>
       </c>
       <c r="D187">
-        <v>610.6327415710207</v>
+        <v>3001.707374212057</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -9922,10 +9922,10 @@
         <v>133.329324815715</v>
       </c>
       <c r="C188">
-        <v>7.555437064786865</v>
+        <v>38.25263900135885</v>
       </c>
       <c r="D188">
-        <v>610.12915842958</v>
+        <v>2971.554668143806</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9936,10 +9936,10 @@
         <v>136.7438141687725</v>
       </c>
       <c r="C189">
-        <v>7.36068571607991</v>
+        <v>36.92603247673715</v>
       </c>
       <c r="D189">
-        <v>609.6245846393366</v>
+        <v>2941.961461911891</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -9950,10 +9950,10 @@
         <v>140.2035850708223</v>
       </c>
       <c r="C190">
-        <v>7.173141987785697</v>
+        <v>35.6595938334296</v>
       </c>
       <c r="D190">
-        <v>609.1230791864688</v>
+        <v>2912.944121786244</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9964,10 +9964,10 @@
         <v>143.7070364301008</v>
       </c>
       <c r="C191">
-        <v>6.992544768475271</v>
+        <v>34.45065833346838</v>
       </c>
       <c r="D191">
-        <v>608.6250137474377</v>
+        <v>2884.511013134736</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -9978,10 +9978,10 @@
         <v>147.2525536093848</v>
       </c>
       <c r="C192">
-        <v>6.818637893759258</v>
+        <v>33.29662729245155</v>
       </c>
       <c r="D192">
-        <v>608.1307599987049</v>
+        <v>2856.667687739794</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -9992,10 +9992,10 @@
         <v>150.8385096007951</v>
       </c>
       <c r="C193">
-        <v>6.651170897007393</v>
+        <v>32.19495298341889</v>
       </c>
       <c r="D193">
-        <v>607.6406896167314</v>
+        <v>2829.415122911302</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -10006,10 +10006,10 @@
         <v>154.4632662121366</v>
       </c>
       <c r="C194">
-        <v>6.489899596579233</v>
+        <v>31.14316019053375</v>
       </c>
       <c r="D194">
-        <v>607.1551742779789</v>
+        <v>2802.751129776289</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -10020,10 +10020,10 @@
         <v>158.125175263539</v>
       </c>
       <c r="C195">
-        <v>6.334586542594655</v>
+        <v>30.13886893178176</v>
       </c>
       <c r="D195">
-        <v>606.6745856589084</v>
+        <v>2776.672201545136</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -10034,10 +10034,10 @@
         <v>161.8225797930889</v>
       </c>
       <c r="C196">
-        <v>6.185001343605445</v>
+        <v>29.17977419772985</v>
       </c>
       <c r="D196">
-        <v>606.1992954359814</v>
+        <v>2751.171665364664</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -10048,10 +10048,10 @@
         <v>165.5538152701106</v>
       </c>
       <c r="C197">
-        <v>6.040920891095936</v>
+        <v>28.26367159377236</v>
       </c>
       <c r="D197">
-        <v>605.7296752856594</v>
+        <v>2726.242065586759</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -10062,10 +10062,10 @@
         <v>169.3172108146806</v>
       </c>
       <c r="C198">
-        <v>5.90212949754017</v>
+        <v>27.3884551705133</v>
       </c>
       <c r="D198">
-        <v>605.2660968844035</v>
+        <v>2701.875200812205</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -10076,10 +10076,10 @@
         <v>173.1110904219307</v>
       </c>
       <c r="C199">
-        <v>5.768418961761686</v>
+        <v>26.55210860705331</v>
       </c>
       <c r="D199">
-        <v>604.8089319086752</v>
+        <v>2678.061527012445</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -10090,10 +10090,10 @@
         <v>176.9337741896295</v>
       </c>
       <c r="C200">
-        <v>5.639588573570538</v>
+        <v>25.75271127025219</v>
       </c>
       <c r="D200">
-        <v>604.3585520349357</v>
+        <v>2654.791038506485</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -10104,10 +10104,10 @@
         <v>180.7835795474953</v>
       </c>
       <c r="C201">
-        <v>5.515439529262368</v>
+        <v>24.98843671628709</v>
       </c>
       <c r="D201">
-        <v>603.9147224658453</v>
+        <v>2632.053491866196</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -10118,10 +10118,10 @@
         <v>184.6588224866493</v>
       </c>
       <c r="C202">
-        <v>5.395784467822282</v>
+        <v>24.2575478887135</v>
       </c>
       <c r="D202">
-        <v>603.4776132137116</v>
+        <v>2609.838310493391</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -10132,10 +10132,10 @@
         <v>188.5578187875752</v>
       </c>
       <c r="C203">
-        <v>5.280442987774819</v>
+        <v>23.55839388044294</v>
       </c>
       <c r="D203">
-        <v>603.0473483092114</v>
+        <v>2588.134648951898</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -10146,10 +10146,10 @@
         <v>192.4788852449205</v>
       </c>
       <c r="C204">
-        <v>5.169240286406158</v>
+        <v>22.88940847136361</v>
       </c>
       <c r="D204">
-        <v>602.6238609173977</v>
+        <v>2566.931661805543</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -10160,10 +10160,10 @@
         <v>196.4203408874305</v>
       </c>
       <c r="C205">
-        <v>5.06200874629296</v>
+        <v>22.24910657811732</v>
       </c>
       <c r="D205">
-        <v>602.2070842033229</v>
+        <v>2546.218559948537</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -10174,10 +10174,10 @@
         <v>200.3805081912935</v>
       </c>
       <c r="C206">
-        <v>4.958587726526934</v>
+        <v>21.63607860316618</v>
       </c>
       <c r="D206">
-        <v>601.7969513320401</v>
+        <v>2525.984416316994</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -10188,10 +10188,10 @@
         <v>204.3577142851372</v>
       </c>
       <c r="C207">
-        <v>4.858823343699031</v>
+        <v>21.04898919358633</v>
       </c>
       <c r="D207">
-        <v>601.393395468602</v>
+        <v>2506.218458783979</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -10202,10 +10202,10 @@
         <v>208.3502921449036</v>
       </c>
       <c r="C208">
-        <v>4.762568246010935</v>
+        <v>20.48657485687486</v>
       </c>
       <c r="D208">
-        <v>600.9963497780614</v>
+        <v>2486.910244448427</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -10216,10 +10216,10 @@
         <v>212.3565817768141</v>
       </c>
       <c r="C209">
-        <v>4.669681383337435</v>
+        <v>19.94763749420506</v>
       </c>
       <c r="D209">
-        <v>600.605747425471</v>
+        <v>2468.049330409271</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -10230,10 +10230,10 @@
         <v>216.3749313866266</v>
       </c>
       <c r="C210">
-        <v>4.580027775592914</v>
+        <v>19.43104205002559</v>
       </c>
       <c r="D210">
-        <v>600.2215215758838</v>
+        <v>2449.625405067521</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -10244,10 +10244,10 @@
         <v>220.4036985333858</v>
       </c>
       <c r="C211">
-        <v>4.493478281349834</v>
+        <v>18.93571170107282</v>
       </c>
       <c r="D211">
-        <v>599.8436053943524</v>
+        <v>2431.628099931958</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -10258,10 +10258,10 @@
         <v>224.4412512658594</v>
       </c>
       <c r="C212">
-        <v>4.409909368308726</v>
+        <v>18.46062916719074</v>
       </c>
       <c r="D212">
-        <v>599.4719320459296</v>
+        <v>2414.047561388475</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -10272,10 +10272,10 @@
         <v>228.4859692398809</v>
       </c>
       <c r="C213">
-        <v>4.329202886919942</v>
+        <v>18.00483181691813</v>
       </c>
       <c r="D213">
-        <v>599.1064346956682</v>
+        <v>2396.874239967294</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -10286,10 +10286,10 @@
         <v>232.5362448148088</v>
       </c>
       <c r="C214">
-        <v>4.251245848202343</v>
+        <v>17.56740642364933</v>
       </c>
       <c r="D214">
-        <v>598.7470465086211</v>
+        <v>2380.098586198637</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -10300,10 +10300,10 @@
         <v>236.5904841273564</v>
       </c>
       <c r="C215">
-        <v>4.175930206585662</v>
+        <v>17.14748788253644</v>
       </c>
       <c r="D215">
-        <v>598.3937006498411</v>
+        <v>2363.711239265334</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -10314,10 +10314,10 @@
         <v>240.647108141055</v>
       </c>
       <c r="C216">
-        <v>4.103152648418512</v>
+        <v>16.74425487275248</v>
       </c>
       <c r="D216">
-        <v>598.0463302843808</v>
+        <v>2347.70278844304</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -10328,10 +10328,10 @@
         <v>244.7045536696592</v>
       </c>
       <c r="C217">
-        <v>4.032814386626706</v>
+        <v>16.35693254273253</v>
       </c>
       <c r="D217">
-        <v>597.7048685772932</v>
+        <v>2332.064491968548</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -10342,10 +10342,10 @@
         <v>248.7612743728313</v>
       </c>
       <c r="C218">
-        <v>3.964820961874481</v>
+        <v>15.98478657722736</v>
       </c>
       <c r="D218">
-        <v>597.3692486936309</v>
+        <v>2316.787801025397</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -10356,10 +10356,10 @@
         <v>252.8157417225045</v>
       </c>
       <c r="C219">
-        <v>3.89908205046963</v>
+        <v>15.62711965747963</v>
       </c>
       <c r="D219">
-        <v>597.0394037984468</v>
+        <v>2301.864166797128</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -10370,10 +10370,10 @@
         <v>256.8664459383542</v>
       </c>
       <c r="C220">
-        <v>3.835511279160844</v>
+        <v>15.28327100418247</v>
       </c>
       <c r="D220">
-        <v>596.7152670567936</v>
+        <v>2287.285272105531</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -10384,10 +10384,10 @@
         <v>260.9118968908909</v>
       </c>
       <c r="C221">
-        <v>3.774026046897827</v>
+        <v>14.95261248167148</v>
       </c>
       <c r="D221">
-        <v>596.3967716337243</v>
+        <v>2273.04274602444</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -10398,10 +10398,10 @@
         <v>264.9506249707349</v>
       </c>
       <c r="C222">
-        <v>3.714547353561052</v>
+        <v>14.6345517546171</v>
       </c>
       <c r="D222">
-        <v>596.0838506942914</v>
+        <v>2259.128923190663</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -10412,10 +10412,10 @@
         <v>268.9811819227081</v>
       </c>
       <c r="C223">
-        <v>3.656999635615577</v>
+        <v>14.32852632758835</v>
       </c>
       <c r="D223">
-        <v>595.7764374035479</v>
+        <v>2245.536228877835</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -10426,10 +10426,10 @@
         <v>273.0021416434657</v>
       </c>
       <c r="C224">
-        <v>3.601310608600518</v>
+        <v>14.03400135235216</v>
       </c>
       <c r="D224">
-        <v>595.4744649265465</v>
+        <v>2232.257088359593</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -10440,10 +10440,10 @@
         <v>277.0121009414551</v>
       </c>
       <c r="C225">
-        <v>3.547411116331901</v>
+        <v>13.75047068329092</v>
       </c>
       <c r="D225">
-        <v>595.1778664283401</v>
+        <v>2219.284337972931</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -10454,10 +10454,10 @@
         <v>281.0096802580939</v>
       </c>
       <c r="C226">
-        <v>3.495237813106355</v>
+        <v>13.47744948290015</v>
       </c>
       <c r="D226">
-        <v>594.8870561316286</v>
+        <v>2206.610274932528</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -10468,10 +10468,10 @@
         <v>284.9935243491361</v>
       </c>
       <c r="C227">
-        <v>3.444723933078925</v>
+        <v>13.2144830798505</v>
       </c>
       <c r="D227">
-        <v>594.6013938911245</v>
+        <v>2194.228309310867</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -10482,10 +10482,10 @@
         <v>288.9623029253084</v>
       </c>
       <c r="C228">
-        <v>3.39580865114148</v>
+        <v>12.96113881006219</v>
       </c>
       <c r="D228">
-        <v>594.3207709625812</v>
+        <v>2182.131880459136</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -10496,10 +10496,10 @@
         <v>292.9147112513795</v>
       </c>
       <c r="C229">
-        <v>3.348434048008587</v>
+        <v>12.71700466938093</v>
       </c>
       <c r="D229">
-        <v>594.0451327999484</v>
+        <v>2170.314427728521</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -10510,10 +10510,10 @@
         <v>296.8494707029504</v>
       </c>
       <c r="C230">
-        <v>3.302544667791082</v>
+        <v>12.48168825157134</v>
       </c>
       <c r="D230">
-        <v>593.7744248571762</v>
+        <v>2158.769396886431</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -10524,10 +10524,10 @@
         <v>300.7653292803427</v>
       </c>
       <c r="C231">
-        <v>3.258087404166675</v>
+        <v>12.25481808143366</v>
       </c>
       <c r="D231">
-        <v>593.5085925882144</v>
+        <v>2147.490656112631</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -10538,10 +10538,10 @@
         <v>304.661062079085</v>
       </c>
       <c r="C232">
-        <v>3.215011391900847</v>
+        <v>12.03603784614862</v>
       </c>
       <c r="D232">
-        <v>593.2475814470129</v>
+        <v>2136.471673480861</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -10552,10 +10552,10 @@
         <v>308.5354717165985</v>
       </c>
       <c r="C233">
-        <v>3.173267903505876</v>
+        <v>11.82501304349553</v>
       </c>
       <c r="D233">
-        <v>592.9913368875216</v>
+        <v>2125.706851485121</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -10566,10 +10566,10 @@
         <v>312.3873887148044</v>
       </c>
       <c r="C234">
-        <v>3.132810250826838</v>
+        <v>11.62142465238141</v>
       </c>
       <c r="D234">
-        <v>592.7398043636905</v>
+        <v>2115.190592619414</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -10580,10 +10580,10 @@
         <v>316.2156718384866</v>
       </c>
       <c r="C235">
-        <v>3.093593691345928</v>
+        <v>11.42496832564699</v>
       </c>
       <c r="D235">
-        <v>592.4929293294693</v>
+        <v>2104.917299377739</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -10594,10 +10594,10 @@
         <v>320.0192083893519</v>
       </c>
       <c r="C236">
-        <v>3.055575339000174</v>
+        <v>11.2353537942568</v>
       </c>
       <c r="D236">
-        <v>592.250657238808</v>
+        <v>2094.881405385978</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -10608,10 +10608,10 @@
         <v>323.7969144558571</v>
       </c>
       <c r="C237">
-        <v>3.018714079311908</v>
+        <v>11.05230548555467</v>
       </c>
       <c r="D237">
-        <v>592.0129335456566</v>
+        <v>2085.077629866512</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -10622,10 +10622,10 @@
         <v>327.5477351189684</v>
       </c>
       <c r="C238">
-        <v>2.982970488636738</v>
+        <v>10.87555913264446</v>
       </c>
       <c r="D238">
-        <v>591.7797037039646</v>
+        <v>2075.500477009418</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -10636,10 +10636,10 @@
         <v>331.2706446141489</v>
       </c>
       <c r="C239">
-        <v>2.948306757339293</v>
+        <v>10.70486606681498</v>
       </c>
       <c r="D239">
-        <v>591.5509131676824</v>
+        <v>2066.145175404783</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -10650,10 +10650,10 @@
         <v>334.9646464499609</v>
       </c>
       <c r="C240">
-        <v>2.914686616713213</v>
+        <v>10.53998869175202</v>
       </c>
       <c r="D240">
-        <v>591.3265073907596</v>
+        <v>2057.006953642696</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -10664,10 +10664,10 @@
         <v>338.628773483797</v>
       </c>
       <c r="C241">
-        <v>2.882075269468078</v>
+        <v>10.38069992191052</v>
       </c>
       <c r="D241">
-        <v>591.1064318271461</v>
+        <v>2048.081040313246</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -10678,10 +10678,10 @@
         <v>342.2620879553367</v>
       </c>
       <c r="C242">
-        <v>2.85043932361264</v>
+        <v>10.22678288964281</v>
       </c>
       <c r="D242">
-        <v>590.8906319307919</v>
+        <v>2039.36271152253</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -10692,10 +10692,10 @@
         <v>345.8636814784477</v>
       </c>
       <c r="C243">
-        <v>2.819746729570145</v>
+        <v>10.07803111416812</v>
       </c>
       <c r="D243">
-        <v>590.6790531556468</v>
+        <v>2030.847428680503</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -10706,10 +10706,10 @@
         <v>349.4326749923337</v>
       </c>
       <c r="C244">
-        <v>2.789966720368281</v>
+        <v>9.934246637813299</v>
       </c>
       <c r="D244">
-        <v>590.4716409556607</v>
+        <v>2022.530565226577</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -10720,10 +10720,10 @@
         <v>352.9682186728278</v>
       </c>
       <c r="C245">
-        <v>2.761069754752825</v>
+        <v>9.795242752565331</v>
       </c>
       <c r="D245">
-        <v>590.2683407847836</v>
+        <v>2014.408054666859</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -10734,10 +10734,10 @@
         <v>356.4694918048208</v>
       </c>
       <c r="C246">
-        <v>2.733027463080596</v>
+        <v>9.660840746136286</v>
       </c>
       <c r="D246">
-        <v>590.0690980969654</v>
+        <v>2006.475830507459</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -10748,10 +10748,10 @@
         <v>359.9357026168915</v>
       </c>
       <c r="C247">
-        <v>2.705812595853711</v>
+        <v>9.530869508863862</v>
       </c>
       <c r="D247">
-        <v>589.8738583461558</v>
+        <v>1998.729826254484</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -10762,10 +10762,10 @@
         <v>363.3660880792924</v>
       </c>
       <c r="C248">
-        <v>2.679398974763388</v>
+        <v>9.405165432819071</v>
       </c>
       <c r="D248">
-        <v>589.6825669863047</v>
+        <v>1991.166032854207</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -10776,10 +10776,10 @@
         <v>366.7599136665034</v>
       </c>
       <c r="C249">
-        <v>2.653761446117694</v>
+        <v>9.283572294757251</v>
       </c>
       <c r="D249">
-        <v>589.4951694713621</v>
+        <v>1983.78055168644</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -10790,10 +10790,10 @@
         <v>370.1164730856487</v>
       </c>
       <c r="C250">
-        <v>2.628875836533469</v>
+        <v>9.165940398226377</v>
       </c>
       <c r="D250">
-        <v>589.3116112552781</v>
+        <v>1976.569486461943</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -10804,10 +10804,10 @@
         <v>373.4350879721127</v>
       </c>
       <c r="C251">
-        <v>2.604718910778513</v>
+        <v>9.052128227151046</v>
       </c>
       <c r="D251">
-        <v>589.1318377920022</v>
+        <v>1969.529371486678</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -10818,10 +10818,10 @@
         <v>376.715107553764</v>
       </c>
       <c r="C252">
-        <v>2.581268331655511</v>
+        <v>8.9420001000622</v>
       </c>
       <c r="D252">
-        <v>588.9557945354845</v>
+        <v>1962.656741066608</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -10832,10 +10832,10 @@
         <v>379.9559082852275</v>
       </c>
       <c r="C253">
-        <v>2.558502621824626</v>
+        <v>8.835425892822434</v>
       </c>
       <c r="D253">
-        <v>588.7834269396749</v>
+        <v>1955.948129507696</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -10846,10 +10846,10 @@
         <v>383.1568934536982</v>
       </c>
       <c r="C254">
-        <v>2.536401127466728</v>
+        <v>8.732281058868939</v>
       </c>
       <c r="D254">
-        <v>588.6146804585233</v>
+        <v>1949.400134325499</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -10860,10 +10860,10 @@
         <v>386.3174927578165</v>
       </c>
       <c r="C255">
-        <v>2.51494398369418</v>
+        <v>8.632446344044531</v>
       </c>
       <c r="D255">
-        <v>588.4495005459795</v>
+        <v>1943.009410785009</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -10874,10 +10874,10 @@
         <v>389.4371618611554</v>
       </c>
       <c r="C256">
-        <v>2.494112081620797</v>
+        <v>8.535807560729607</v>
       </c>
       <c r="D256">
-        <v>588.2878326559934</v>
+        <v>1936.772676494154</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -10888,10 +10888,10 @@
         <v>392.5153819218946</v>
       </c>
       <c r="C257">
-        <v>2.473887037007109</v>
+        <v>8.442256529565274</v>
       </c>
       <c r="D257">
-        <v>588.129622242515</v>
+        <v>1930.686980270135</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -10902,10 +10902,10 @@
         <v>395.5516591002701</v>
       </c>
       <c r="C258">
-        <v>2.454251160401308</v>
+        <v>8.351689375548631</v>
       </c>
       <c r="D258">
-        <v>587.9748147594941</v>
+        <v>1924.749370930151</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -10916,10 +10916,10 @@
         <v>398.545524045394</v>
       </c>
       <c r="C259">
-        <v>2.435187428700465</v>
+        <v>8.264006330793043</v>
       </c>
       <c r="D259">
-        <v>587.8233556608807</v>
+        <v>1918.9568972914</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -10930,10 +10930,10 @@
         <v>401.4965313630503</v>
       </c>
       <c r="C260">
-        <v>2.416679458060385</v>
+        <v>8.179111588726279</v>
       </c>
       <c r="D260">
-        <v>587.6751904006245</v>
+        <v>1913.306617876303</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -10944,10 +10944,10 @@
         <v>404.4042590660648</v>
       </c>
       <c r="C261">
-        <v>2.39871147808632</v>
+        <v>8.096913749162152</v>
       </c>
       <c r="D261">
-        <v>587.5302644326755</v>
+        <v>1907.795748044333</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -10958,10 +10958,10 @@
         <v>407.2683080088374</v>
       </c>
       <c r="C262">
-        <v>2.381268307240227</v>
+        <v>8.017325450371425</v>
       </c>
       <c r="D262">
-        <v>587.3885232109836</v>
+        <v>1902.421618317689</v>
       </c>
     </row>
   </sheetData>
